--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="721">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -2174,16 +2174,19 @@
     <t>xba</t>
   </si>
   <si>
+    <t>마이크로소프트 워드 (Microsoft Word)</t>
+  </si>
+  <si>
+    <t>마이크로소프트 파워포인트 (Microsoft Powerpoint)</t>
+  </si>
+  <si>
+    <t>representation_keyword_sn</t>
+  </si>
+  <si>
+    <t>representation_keyword</t>
+  </si>
+  <si>
     <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>representation_keyword_sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>representation_keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2513,10 +2516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C714"/>
+  <dimension ref="A1:C716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2528,13 +2531,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6315,7 +6318,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>345</v>
+        <v>716</v>
       </c>
       <c r="C345" t="s">
         <v>293</v>
@@ -6326,7 +6329,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>346</v>
+        <v>717</v>
       </c>
       <c r="C346" t="s">
         <v>293</v>
@@ -6337,7 +6340,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C347" t="s">
         <v>293</v>
@@ -6348,7 +6351,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C348" t="s">
         <v>293</v>
@@ -6359,7 +6362,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C349" t="s">
         <v>293</v>
@@ -6370,7 +6373,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C350" t="s">
         <v>293</v>
@@ -6381,7 +6384,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C351" t="s">
         <v>293</v>
@@ -6392,7 +6395,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C352" t="s">
         <v>293</v>
@@ -6403,7 +6406,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C353" t="s">
         <v>293</v>
@@ -6414,7 +6417,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C354" t="s">
         <v>293</v>
@@ -6425,7 +6428,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C355" t="s">
         <v>293</v>
@@ -6436,7 +6439,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C356" t="s">
         <v>293</v>
@@ -6447,7 +6450,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C357" t="s">
         <v>293</v>
@@ -6458,7 +6461,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C358" t="s">
         <v>293</v>
@@ -6469,7 +6472,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C359" t="s">
         <v>293</v>
@@ -6480,7 +6483,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C360" t="s">
         <v>293</v>
@@ -6491,7 +6494,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C361" t="s">
         <v>293</v>
@@ -6502,7 +6505,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C362" t="s">
         <v>293</v>
@@ -6513,7 +6516,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C363" t="s">
         <v>293</v>
@@ -6524,7 +6527,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C364" t="s">
         <v>293</v>
@@ -6535,7 +6538,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C365" t="s">
         <v>293</v>
@@ -6546,7 +6549,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C366" t="s">
         <v>293</v>
@@ -6557,7 +6560,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C367" t="s">
         <v>293</v>
@@ -6568,7 +6571,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C368" t="s">
         <v>293</v>
@@ -6579,7 +6582,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C369" t="s">
         <v>293</v>
@@ -6590,7 +6593,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C370" t="s">
         <v>293</v>
@@ -6601,7 +6604,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C371" t="s">
         <v>293</v>
@@ -6612,7 +6615,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C372" t="s">
         <v>293</v>
@@ -6623,7 +6626,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C373" t="s">
         <v>293</v>
@@ -6634,7 +6637,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C374" t="s">
         <v>293</v>
@@ -6645,7 +6648,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C375" t="s">
         <v>293</v>
@@ -6656,7 +6659,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C376" t="s">
         <v>293</v>
@@ -6667,7 +6670,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C377" t="s">
         <v>293</v>
@@ -6678,7 +6681,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C378" t="s">
         <v>293</v>
@@ -6689,7 +6692,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C379" t="s">
         <v>293</v>
@@ -6700,7 +6703,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C380" t="s">
         <v>293</v>
@@ -6711,7 +6714,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C381" t="s">
         <v>293</v>
@@ -6722,7 +6725,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C382" t="s">
         <v>293</v>
@@ -6733,7 +6736,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C383" t="s">
         <v>293</v>
@@ -6744,7 +6747,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C384" t="s">
         <v>293</v>
@@ -6755,7 +6758,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C385" t="s">
         <v>293</v>
@@ -6766,7 +6769,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C386" t="s">
         <v>293</v>
@@ -6777,7 +6780,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C387" t="s">
         <v>293</v>
@@ -6788,7 +6791,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C388" t="s">
         <v>293</v>
@@ -6799,7 +6802,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C389" t="s">
         <v>293</v>
@@ -6810,7 +6813,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C390" t="s">
         <v>293</v>
@@ -6821,7 +6824,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C391" t="s">
         <v>293</v>
@@ -6832,7 +6835,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C392" t="s">
         <v>293</v>
@@ -6843,7 +6846,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C393" t="s">
         <v>293</v>
@@ -6854,7 +6857,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C394" t="s">
         <v>293</v>
@@ -6865,7 +6868,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C395" t="s">
         <v>293</v>
@@ -6876,7 +6879,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C396" t="s">
         <v>293</v>
@@ -6887,7 +6890,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C397" t="s">
         <v>293</v>
@@ -6898,7 +6901,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C398" t="s">
         <v>293</v>
@@ -6909,7 +6912,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C399" t="s">
         <v>293</v>
@@ -6920,7 +6923,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C400" t="s">
         <v>293</v>
@@ -6931,7 +6934,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C401" t="s">
         <v>293</v>
@@ -6942,7 +6945,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C402" t="s">
         <v>293</v>
@@ -6953,7 +6956,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C403" t="s">
         <v>293</v>
@@ -6964,7 +6967,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C404" t="s">
         <v>293</v>
@@ -6975,7 +6978,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C405" t="s">
         <v>293</v>
@@ -6986,7 +6989,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C406" t="s">
         <v>293</v>
@@ -6997,7 +7000,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C407" t="s">
         <v>293</v>
@@ -7008,7 +7011,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C408" t="s">
         <v>293</v>
@@ -7019,7 +7022,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C409" t="s">
         <v>293</v>
@@ -7030,7 +7033,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C410" t="s">
         <v>293</v>
@@ -7041,7 +7044,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C411" t="s">
         <v>293</v>
@@ -7052,7 +7055,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C412" t="s">
         <v>293</v>
@@ -7063,7 +7066,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C413" t="s">
         <v>293</v>
@@ -7074,7 +7077,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C414" t="s">
         <v>293</v>
@@ -7085,7 +7088,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C415" t="s">
         <v>293</v>
@@ -7096,7 +7099,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C416" t="s">
         <v>293</v>
@@ -7107,7 +7110,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C417" t="s">
         <v>293</v>
@@ -7118,7 +7121,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C418" t="s">
         <v>293</v>
@@ -7129,7 +7132,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C419" t="s">
         <v>293</v>
@@ -7140,7 +7143,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C420" t="s">
         <v>293</v>
@@ -7151,7 +7154,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C421" t="s">
         <v>293</v>
@@ -7162,7 +7165,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C422" t="s">
         <v>293</v>
@@ -7173,7 +7176,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C423" t="s">
         <v>293</v>
@@ -7184,7 +7187,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C424" t="s">
         <v>293</v>
@@ -7195,7 +7198,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C425" t="s">
         <v>293</v>
@@ -7206,7 +7209,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C426" t="s">
         <v>293</v>
@@ -7217,7 +7220,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C427" t="s">
         <v>293</v>
@@ -7228,7 +7231,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C428" t="s">
         <v>293</v>
@@ -7239,7 +7242,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C429" t="s">
         <v>293</v>
@@ -7250,7 +7253,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C430" t="s">
         <v>293</v>
@@ -7261,7 +7264,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C431" t="s">
         <v>293</v>
@@ -7272,7 +7275,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C432" t="s">
         <v>293</v>
@@ -7283,7 +7286,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C433" t="s">
         <v>293</v>
@@ -7294,7 +7297,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C434" t="s">
         <v>293</v>
@@ -7305,7 +7308,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C435" t="s">
         <v>293</v>
@@ -7316,7 +7319,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C436" t="s">
         <v>293</v>
@@ -7327,7 +7330,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C437" t="s">
         <v>293</v>
@@ -7338,7 +7341,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C438" t="s">
         <v>293</v>
@@ -7349,7 +7352,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C439" t="s">
         <v>293</v>
@@ -7360,7 +7363,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C440" t="s">
         <v>293</v>
@@ -7371,7 +7374,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C441" t="s">
         <v>293</v>
@@ -7382,7 +7385,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C442" t="s">
         <v>293</v>
@@ -7393,7 +7396,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C443" t="s">
         <v>293</v>
@@ -7404,7 +7407,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C444" t="s">
         <v>293</v>
@@ -7415,7 +7418,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C445" t="s">
         <v>293</v>
@@ -7426,7 +7429,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C446" t="s">
         <v>293</v>
@@ -7437,7 +7440,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C447" t="s">
         <v>293</v>
@@ -7448,7 +7451,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C448" t="s">
         <v>293</v>
@@ -7459,7 +7462,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C449" t="s">
         <v>293</v>
@@ -7470,7 +7473,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C450" t="s">
         <v>293</v>
@@ -7481,7 +7484,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C451" t="s">
         <v>293</v>
@@ -7492,7 +7495,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C452" t="s">
         <v>293</v>
@@ -7503,7 +7506,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C453" t="s">
         <v>293</v>
@@ -7514,7 +7517,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C454" t="s">
         <v>293</v>
@@ -7525,7 +7528,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C455" t="s">
         <v>293</v>
@@ -7536,7 +7539,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C456" t="s">
         <v>293</v>
@@ -7547,7 +7550,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C457" t="s">
         <v>293</v>
@@ -7558,7 +7561,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C458" t="s">
         <v>293</v>
@@ -7569,7 +7572,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C459" t="s">
         <v>293</v>
@@ -7580,7 +7583,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C460" t="s">
         <v>293</v>
@@ -7591,7 +7594,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C461" t="s">
         <v>293</v>
@@ -7602,7 +7605,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C462" t="s">
         <v>293</v>
@@ -7613,7 +7616,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C463" t="s">
         <v>293</v>
@@ -7624,7 +7627,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C464" t="s">
         <v>293</v>
@@ -7635,7 +7638,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C465" t="s">
         <v>293</v>
@@ -7646,7 +7649,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C466" t="s">
         <v>293</v>
@@ -7657,7 +7660,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C467" t="s">
         <v>293</v>
@@ -7668,7 +7671,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C468" t="s">
         <v>293</v>
@@ -7679,7 +7682,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C469" t="s">
         <v>293</v>
@@ -7690,7 +7693,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C470" t="s">
         <v>293</v>
@@ -7701,7 +7704,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C471" t="s">
         <v>293</v>
@@ -7712,7 +7715,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C472" t="s">
         <v>293</v>
@@ -7723,7 +7726,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C473" t="s">
         <v>293</v>
@@ -7734,7 +7737,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C474" t="s">
         <v>293</v>
@@ -7745,7 +7748,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C475" t="s">
         <v>293</v>
@@ -7756,7 +7759,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C476" t="s">
         <v>293</v>
@@ -7767,7 +7770,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C477" t="s">
         <v>293</v>
@@ -7778,7 +7781,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C478" t="s">
         <v>293</v>
@@ -7789,7 +7792,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C479" t="s">
         <v>293</v>
@@ -7800,7 +7803,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C480" t="s">
         <v>293</v>
@@ -7811,7 +7814,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C481" t="s">
         <v>293</v>
@@ -7822,7 +7825,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C482" t="s">
         <v>293</v>
@@ -7833,7 +7836,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C483" t="s">
         <v>293</v>
@@ -7844,7 +7847,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C484" t="s">
         <v>293</v>
@@ -7855,7 +7858,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C485" t="s">
         <v>293</v>
@@ -7866,7 +7869,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C486" t="s">
         <v>293</v>
@@ -7877,7 +7880,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C487" t="s">
         <v>293</v>
@@ -7888,7 +7891,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C488" t="s">
         <v>293</v>
@@ -7899,7 +7902,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C489" t="s">
         <v>293</v>
@@ -7910,7 +7913,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C490" t="s">
         <v>293</v>
@@ -7921,7 +7924,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C491" t="s">
         <v>293</v>
@@ -7932,7 +7935,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C492" t="s">
         <v>293</v>
@@ -7943,7 +7946,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C493" t="s">
         <v>293</v>
@@ -7954,7 +7957,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C494" t="s">
         <v>293</v>
@@ -7965,7 +7968,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C495" t="s">
         <v>293</v>
@@ -7976,7 +7979,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C496" t="s">
         <v>293</v>
@@ -7987,7 +7990,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C497" t="s">
         <v>293</v>
@@ -7998,7 +8001,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C498" t="s">
         <v>293</v>
@@ -8009,7 +8012,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C499" t="s">
         <v>293</v>
@@ -8020,7 +8023,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C500" t="s">
         <v>293</v>
@@ -8031,7 +8034,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C501" t="s">
         <v>293</v>
@@ -8042,7 +8045,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C502" t="s">
         <v>293</v>
@@ -8053,7 +8056,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C503" t="s">
         <v>293</v>
@@ -8064,7 +8067,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C504" t="s">
         <v>293</v>
@@ -8075,7 +8078,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C505" t="s">
         <v>293</v>
@@ -8086,7 +8089,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C506" t="s">
         <v>293</v>
@@ -8097,7 +8100,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C507" t="s">
         <v>293</v>
@@ -8108,7 +8111,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C508" t="s">
         <v>293</v>
@@ -8119,7 +8122,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C509" t="s">
         <v>293</v>
@@ -8130,7 +8133,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C510" t="s">
         <v>293</v>
@@ -8141,7 +8144,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C511" t="s">
         <v>293</v>
@@ -8152,7 +8155,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C512" t="s">
         <v>293</v>
@@ -8163,7 +8166,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C513" t="s">
         <v>293</v>
@@ -8174,7 +8177,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C514" t="s">
         <v>293</v>
@@ -8185,7 +8188,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C515" t="s">
         <v>293</v>
@@ -8196,7 +8199,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C516" t="s">
         <v>293</v>
@@ -8207,7 +8210,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C517" t="s">
         <v>293</v>
@@ -8218,7 +8221,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C518" t="s">
         <v>293</v>
@@ -8229,7 +8232,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C519" t="s">
         <v>293</v>
@@ -8240,7 +8243,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C520" t="s">
         <v>293</v>
@@ -8251,7 +8254,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C521" t="s">
         <v>293</v>
@@ -8262,7 +8265,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C522" t="s">
         <v>293</v>
@@ -8273,7 +8276,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C523" t="s">
         <v>293</v>
@@ -8284,7 +8287,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C524" t="s">
         <v>293</v>
@@ -8295,7 +8298,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C525" t="s">
         <v>293</v>
@@ -8306,7 +8309,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C526" t="s">
         <v>293</v>
@@ -8317,7 +8320,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C527" t="s">
         <v>293</v>
@@ -8328,7 +8331,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C528" t="s">
         <v>293</v>
@@ -8339,7 +8342,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C529" t="s">
         <v>293</v>
@@ -8350,7 +8353,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C530" t="s">
         <v>293</v>
@@ -8361,7 +8364,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C531" t="s">
         <v>293</v>
@@ -8372,7 +8375,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C532" t="s">
         <v>293</v>
@@ -8383,7 +8386,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C533" t="s">
         <v>293</v>
@@ -8394,7 +8397,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C534" t="s">
         <v>293</v>
@@ -8405,7 +8408,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C535" t="s">
         <v>293</v>
@@ -8416,7 +8419,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C536" t="s">
         <v>293</v>
@@ -8427,7 +8430,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C537" t="s">
         <v>293</v>
@@ -8438,7 +8441,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C538" t="s">
         <v>293</v>
@@ -8449,7 +8452,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C539" t="s">
         <v>293</v>
@@ -8460,7 +8463,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C540" t="s">
         <v>293</v>
@@ -8471,7 +8474,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C541" t="s">
         <v>293</v>
@@ -8482,7 +8485,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C542" t="s">
         <v>293</v>
@@ -8493,7 +8496,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C543" t="s">
         <v>293</v>
@@ -8504,7 +8507,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C544" t="s">
         <v>293</v>
@@ -8515,7 +8518,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C545" t="s">
         <v>293</v>
@@ -8526,7 +8529,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C546" t="s">
         <v>293</v>
@@ -8537,7 +8540,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C547" t="s">
         <v>293</v>
@@ -8548,7 +8551,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C548" t="s">
         <v>293</v>
@@ -8559,7 +8562,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C549" t="s">
         <v>293</v>
@@ -8570,7 +8573,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C550" t="s">
         <v>293</v>
@@ -8581,7 +8584,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C551" t="s">
         <v>293</v>
@@ -8592,7 +8595,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C552" t="s">
         <v>293</v>
@@ -8603,7 +8606,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C553" t="s">
         <v>293</v>
@@ -8614,7 +8617,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C554" t="s">
         <v>293</v>
@@ -8625,7 +8628,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C555" t="s">
         <v>293</v>
@@ -8636,7 +8639,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C556" t="s">
         <v>293</v>
@@ -8647,7 +8650,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C557" t="s">
         <v>293</v>
@@ -8658,7 +8661,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C558" t="s">
         <v>293</v>
@@ -8669,7 +8672,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C559" t="s">
         <v>293</v>
@@ -8680,7 +8683,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C560" t="s">
         <v>293</v>
@@ -8691,7 +8694,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C561" t="s">
         <v>293</v>
@@ -8702,7 +8705,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C562" t="s">
         <v>293</v>
@@ -8713,7 +8716,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C563" t="s">
         <v>293</v>
@@ -8724,7 +8727,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C564" t="s">
         <v>293</v>
@@ -8735,7 +8738,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C565" t="s">
         <v>293</v>
@@ -8746,7 +8749,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C566" t="s">
         <v>293</v>
@@ -8757,7 +8760,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C567" t="s">
         <v>293</v>
@@ -8768,7 +8771,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C568" t="s">
         <v>293</v>
@@ -8779,7 +8782,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C569" t="s">
         <v>293</v>
@@ -8790,7 +8793,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C570" t="s">
         <v>293</v>
@@ -8801,7 +8804,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C571" t="s">
         <v>293</v>
@@ -8812,7 +8815,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C572" t="s">
         <v>293</v>
@@ -8823,7 +8826,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C573" t="s">
         <v>293</v>
@@ -8834,7 +8837,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C574" t="s">
         <v>293</v>
@@ -8845,7 +8848,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C575" t="s">
         <v>293</v>
@@ -8856,7 +8859,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C576" t="s">
         <v>293</v>
@@ -8867,7 +8870,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C577" t="s">
         <v>293</v>
@@ -8878,7 +8881,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C578" t="s">
         <v>293</v>
@@ -8889,7 +8892,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C579" t="s">
         <v>293</v>
@@ -8900,7 +8903,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C580" t="s">
         <v>293</v>
@@ -8911,7 +8914,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C581" t="s">
         <v>293</v>
@@ -8922,7 +8925,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C582" t="s">
         <v>293</v>
@@ -8933,7 +8936,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C583" t="s">
         <v>293</v>
@@ -8944,7 +8947,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C584" t="s">
         <v>293</v>
@@ -8955,7 +8958,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C585" t="s">
         <v>293</v>
@@ -8966,7 +8969,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C586" t="s">
         <v>293</v>
@@ -8977,7 +8980,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C587" t="s">
         <v>293</v>
@@ -8988,7 +8991,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C588" t="s">
         <v>293</v>
@@ -8999,7 +9002,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C589" t="s">
         <v>293</v>
@@ -9010,7 +9013,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C590" t="s">
         <v>293</v>
@@ -9021,7 +9024,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C591" t="s">
         <v>293</v>
@@ -9032,7 +9035,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C592" t="s">
         <v>293</v>
@@ -9043,7 +9046,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C593" t="s">
         <v>293</v>
@@ -9054,7 +9057,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C594" t="s">
         <v>293</v>
@@ -9065,7 +9068,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C595" t="s">
         <v>293</v>
@@ -9076,7 +9079,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C596" t="s">
         <v>293</v>
@@ -9087,7 +9090,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C597" t="s">
         <v>293</v>
@@ -9098,7 +9101,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C598" t="s">
         <v>293</v>
@@ -9109,7 +9112,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C599" t="s">
         <v>293</v>
@@ -9120,7 +9123,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C600" t="s">
         <v>293</v>
@@ -9131,7 +9134,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C601" t="s">
         <v>293</v>
@@ -9142,7 +9145,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C602" t="s">
         <v>293</v>
@@ -9153,7 +9156,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C603" t="s">
         <v>293</v>
@@ -9164,7 +9167,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C604" t="s">
         <v>293</v>
@@ -9175,7 +9178,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C605" t="s">
         <v>293</v>
@@ -9186,7 +9189,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C606" t="s">
         <v>293</v>
@@ -9197,7 +9200,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C607" t="s">
         <v>293</v>
@@ -9208,7 +9211,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C608" t="s">
         <v>293</v>
@@ -9219,7 +9222,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C609" t="s">
         <v>293</v>
@@ -9230,7 +9233,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C610" t="s">
         <v>293</v>
@@ -9241,7 +9244,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C611" t="s">
         <v>293</v>
@@ -9252,7 +9255,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C612" t="s">
         <v>293</v>
@@ -9263,7 +9266,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C613" t="s">
         <v>293</v>
@@ -9274,7 +9277,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C614" t="s">
         <v>293</v>
@@ -9285,7 +9288,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C615" t="s">
         <v>293</v>
@@ -9296,7 +9299,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C616" t="s">
         <v>293</v>
@@ -9307,7 +9310,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C617" t="s">
         <v>293</v>
@@ -9318,7 +9321,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C618" t="s">
         <v>293</v>
@@ -9329,7 +9332,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C619" t="s">
         <v>293</v>
@@ -9340,7 +9343,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C620" t="s">
         <v>293</v>
@@ -9351,7 +9354,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C621" t="s">
         <v>293</v>
@@ -9362,7 +9365,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C622" t="s">
         <v>293</v>
@@ -9373,7 +9376,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C623" t="s">
         <v>293</v>
@@ -9384,7 +9387,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C624" t="s">
         <v>293</v>
@@ -9395,7 +9398,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C625" t="s">
         <v>293</v>
@@ -9406,7 +9409,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C626" t="s">
         <v>293</v>
@@ -9417,7 +9420,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C627" t="s">
         <v>293</v>
@@ -9428,7 +9431,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C628" t="s">
         <v>293</v>
@@ -9439,7 +9442,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C629" t="s">
         <v>293</v>
@@ -9450,7 +9453,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C630" t="s">
         <v>293</v>
@@ -9461,7 +9464,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C631" t="s">
         <v>293</v>
@@ -9472,7 +9475,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C632" t="s">
         <v>293</v>
@@ -9483,10 +9486,10 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C633" t="s">
-        <v>634</v>
+        <v>293</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -9494,10 +9497,10 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C634" t="s">
-        <v>634</v>
+        <v>293</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -9505,7 +9508,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C635" t="s">
         <v>634</v>
@@ -9516,7 +9519,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C636" t="s">
         <v>634</v>
@@ -9527,7 +9530,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C637" t="s">
         <v>634</v>
@@ -9538,7 +9541,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C638" t="s">
         <v>634</v>
@@ -9549,7 +9552,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C639" t="s">
         <v>634</v>
@@ -9560,7 +9563,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C640" t="s">
         <v>634</v>
@@ -9571,7 +9574,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C641" t="s">
         <v>634</v>
@@ -9582,7 +9585,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C642" t="s">
         <v>634</v>
@@ -9593,7 +9596,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C643" t="s">
         <v>634</v>
@@ -9604,7 +9607,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C644" t="s">
         <v>634</v>
@@ -9615,7 +9618,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C645" t="s">
         <v>634</v>
@@ -9626,7 +9629,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C646" t="s">
         <v>634</v>
@@ -9637,7 +9640,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C647" t="s">
         <v>634</v>
@@ -9648,7 +9651,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C648" t="s">
         <v>634</v>
@@ -9659,7 +9662,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C649" t="s">
         <v>634</v>
@@ -9670,7 +9673,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C650" t="s">
         <v>634</v>
@@ -9681,7 +9684,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C651" t="s">
         <v>634</v>
@@ -9692,7 +9695,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C652" t="s">
         <v>634</v>
@@ -9703,7 +9706,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C653" t="s">
         <v>634</v>
@@ -9714,7 +9717,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C654" t="s">
         <v>634</v>
@@ -9725,7 +9728,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C655" t="s">
         <v>634</v>
@@ -9736,7 +9739,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C656" t="s">
         <v>634</v>
@@ -9747,7 +9750,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C657" t="s">
         <v>634</v>
@@ -9758,7 +9761,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C658" t="s">
         <v>634</v>
@@ -9769,7 +9772,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C659" t="s">
         <v>634</v>
@@ -9780,7 +9783,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C660" t="s">
         <v>634</v>
@@ -9791,7 +9794,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C661" t="s">
         <v>634</v>
@@ -9802,7 +9805,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C662" t="s">
         <v>634</v>
@@ -9813,7 +9816,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C663" t="s">
         <v>634</v>
@@ -9824,7 +9827,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C664" t="s">
         <v>634</v>
@@ -9835,7 +9838,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C665" t="s">
         <v>634</v>
@@ -9846,7 +9849,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C666" t="s">
         <v>634</v>
@@ -9857,7 +9860,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C667" t="s">
         <v>634</v>
@@ -9868,7 +9871,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C668" t="s">
         <v>634</v>
@@ -9879,7 +9882,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C669" t="s">
         <v>634</v>
@@ -9890,7 +9893,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C670" t="s">
         <v>634</v>
@@ -9901,7 +9904,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C671" t="s">
         <v>634</v>
@@ -9912,7 +9915,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C672" t="s">
         <v>634</v>
@@ -9923,7 +9926,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C673" t="s">
         <v>634</v>
@@ -9934,7 +9937,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C674" t="s">
         <v>634</v>
@@ -9945,7 +9948,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C675" t="s">
         <v>634</v>
@@ -9956,7 +9959,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C676" t="s">
         <v>634</v>
@@ -9967,7 +9970,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C677" t="s">
         <v>634</v>
@@ -9978,7 +9981,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C678" t="s">
         <v>634</v>
@@ -9989,7 +9992,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C679" t="s">
         <v>634</v>
@@ -10000,7 +10003,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C680" t="s">
         <v>634</v>
@@ -10011,7 +10014,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C681" t="s">
         <v>634</v>
@@ -10022,7 +10025,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C682" t="s">
         <v>634</v>
@@ -10033,7 +10036,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C683" t="s">
         <v>634</v>
@@ -10044,7 +10047,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C684" t="s">
         <v>634</v>
@@ -10055,7 +10058,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C685" t="s">
         <v>634</v>
@@ -10066,7 +10069,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C686" t="s">
         <v>634</v>
@@ -10077,7 +10080,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C687" t="s">
         <v>634</v>
@@ -10088,7 +10091,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C688" t="s">
         <v>634</v>
@@ -10099,7 +10102,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C689" t="s">
         <v>634</v>
@@ -10110,7 +10113,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C690" t="s">
         <v>634</v>
@@ -10121,7 +10124,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C691" t="s">
         <v>634</v>
@@ -10132,7 +10135,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C692" t="s">
         <v>634</v>
@@ -10143,7 +10146,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C693" t="s">
         <v>634</v>
@@ -10154,7 +10157,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C694" t="s">
         <v>634</v>
@@ -10165,7 +10168,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C695" t="s">
         <v>634</v>
@@ -10176,7 +10179,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C696" t="s">
         <v>634</v>
@@ -10187,7 +10190,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C697" t="s">
         <v>634</v>
@@ -10198,7 +10201,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C698" t="s">
         <v>634</v>
@@ -10209,7 +10212,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C699" t="s">
         <v>634</v>
@@ -10220,7 +10223,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C700" t="s">
         <v>634</v>
@@ -10231,7 +10234,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C701" t="s">
         <v>634</v>
@@ -10242,7 +10245,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C702" t="s">
         <v>634</v>
@@ -10253,7 +10256,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C703" t="s">
         <v>634</v>
@@ -10264,7 +10267,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C704" t="s">
         <v>634</v>
@@ -10275,7 +10278,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C705" t="s">
         <v>634</v>
@@ -10286,7 +10289,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C706" t="s">
         <v>634</v>
@@ -10297,7 +10300,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C707" t="s">
         <v>634</v>
@@ -10308,7 +10311,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C708" t="s">
         <v>634</v>
@@ -10319,7 +10322,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C709" t="s">
         <v>634</v>
@@ -10330,7 +10333,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C710" t="s">
         <v>634</v>
@@ -10341,7 +10344,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C711" t="s">
         <v>634</v>
@@ -10352,7 +10355,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C712" t="s">
         <v>634</v>
@@ -10363,7 +10366,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C713" t="s">
         <v>634</v>
@@ -10374,15 +10377,36 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
+        <v>713</v>
+      </c>
+      <c r="C714" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>714</v>
+      </c>
+      <c r="B715" t="s">
+        <v>714</v>
+      </c>
+      <c r="C715" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A716">
         <v>715</v>
       </c>
-      <c r="C714" t="s">
+      <c r="B716" t="s">
+        <v>715</v>
+      </c>
+      <c r="C716" t="s">
         <v>634</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="720">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -725,6 +725,9 @@
     <t>프론트엔드 (Front-end)</t>
   </si>
   <si>
+    <t>패턴인식</t>
+  </si>
+  <si>
     <t>플랫폼 개발</t>
   </si>
   <si>
@@ -1061,6 +1064,12 @@
     <t>마이크로소프트 애저 (Microsoft Azure)</t>
   </si>
   <si>
+    <t>마이크로소프트 워드 (Microsoft Word)</t>
+  </si>
+  <si>
+    <t>마이크로소프트 파워포인트 (Microsoft Powerpoint)</t>
+  </si>
+  <si>
     <t>마이크로소프트 엑셀 (Microsoft Excel)</t>
   </si>
   <si>
@@ -1814,6 +1823,9 @@
     <t>PostgreSQL</t>
   </si>
   <si>
+    <t>Theano</t>
+  </si>
+  <si>
     <t>Pytorch</t>
   </si>
   <si>
@@ -2172,21 +2184,6 @@
   </si>
   <si>
     <t>xba</t>
-  </si>
-  <si>
-    <t>마이크로소프트 워드 (Microsoft Word)</t>
-  </si>
-  <si>
-    <t>마이크로소프트 파워포인트 (Microsoft Powerpoint)</t>
-  </si>
-  <si>
-    <t>representation_keyword_sn</t>
-  </si>
-  <si>
-    <t>representation_keyword</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -2516,36 +2513,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C716"/>
+  <dimension ref="A1:C717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>718</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>720</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2553,10 +2545,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2564,10 +2556,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -2575,10 +2567,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -2586,10 +2578,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -2597,10 +2589,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -2608,10 +2600,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -2619,10 +2611,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -2630,10 +2622,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -2641,10 +2633,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -2652,10 +2644,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -2663,10 +2655,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -2674,10 +2666,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -2685,10 +2677,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -2696,10 +2688,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2707,10 +2699,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -2718,10 +2710,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -2729,10 +2721,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -2740,10 +2732,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -2751,10 +2743,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -2762,10 +2754,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2773,10 +2765,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2784,10 +2776,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -2795,10 +2787,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -2806,10 +2798,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -2817,10 +2809,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -2828,10 +2820,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -2839,10 +2831,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -2850,10 +2842,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -2861,10 +2853,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -2872,10 +2864,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -2883,10 +2875,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -2894,10 +2886,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -2905,10 +2897,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -2916,10 +2908,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -2927,10 +2919,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -2938,10 +2930,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -2949,10 +2941,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -2960,10 +2952,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -2971,10 +2963,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -2982,10 +2974,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -2993,10 +2985,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -3004,10 +2996,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -3015,10 +3007,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -3026,10 +3018,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -3037,10 +3029,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -3048,10 +3040,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -3059,10 +3051,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -3070,10 +3062,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -3081,10 +3073,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -3092,10 +3084,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -3103,10 +3095,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -3114,10 +3106,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -3125,10 +3117,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -3136,10 +3128,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -3147,10 +3139,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -3158,10 +3150,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -3169,10 +3161,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -3180,10 +3172,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -3191,10 +3183,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -3202,10 +3194,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -3213,10 +3205,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -3224,10 +3216,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -3235,10 +3227,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -3246,10 +3238,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -3257,10 +3249,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -3268,10 +3260,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -3279,10 +3271,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -3290,10 +3282,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -3301,10 +3293,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -3312,10 +3304,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -3323,10 +3315,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -3334,10 +3326,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -3345,10 +3337,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -3356,10 +3348,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -3367,10 +3359,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -3378,10 +3370,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -3389,10 +3381,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -3400,10 +3392,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -3411,10 +3403,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -3422,10 +3414,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -3433,10 +3425,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -3444,10 +3436,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -3455,10 +3447,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -3466,10 +3458,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -3477,10 +3469,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -3488,10 +3480,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -3499,10 +3491,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -3510,10 +3502,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -3521,10 +3513,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -3532,10 +3524,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -3543,10 +3535,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -3554,10 +3546,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -3565,10 +3557,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -3576,10 +3568,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -3587,10 +3579,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -3598,10 +3590,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -3609,10 +3601,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -3620,10 +3612,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -3631,10 +3623,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -3642,10 +3634,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -3653,10 +3645,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -3664,10 +3656,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -3675,10 +3667,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -3686,10 +3678,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -3697,10 +3689,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -3708,10 +3700,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -3719,10 +3711,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -3730,10 +3722,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -3741,10 +3733,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -3752,10 +3744,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -3763,10 +3755,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -3774,10 +3766,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -3785,10 +3777,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -3796,10 +3788,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -3807,10 +3799,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -3818,10 +3810,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -3829,10 +3821,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -3840,10 +3832,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -3851,10 +3843,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -3862,10 +3854,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -3873,10 +3865,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -3884,10 +3876,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -3895,10 +3887,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -3906,10 +3898,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -3917,10 +3909,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -3928,10 +3920,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -3939,10 +3931,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -3950,10 +3942,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
@@ -3961,10 +3953,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
@@ -3972,10 +3964,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
@@ -3983,10 +3975,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
@@ -3994,10 +3986,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
@@ -4005,10 +3997,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
@@ -4016,10 +4008,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
@@ -4027,10 +4019,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
@@ -4038,10 +4030,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
@@ -4049,10 +4041,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
@@ -4060,10 +4052,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
@@ -4071,10 +4063,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
@@ -4082,10 +4074,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
@@ -4093,10 +4085,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
@@ -4104,10 +4096,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
@@ -4115,10 +4107,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
@@ -4126,10 +4118,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
@@ -4137,10 +4129,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
@@ -4148,10 +4140,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
@@ -4159,10 +4151,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
@@ -4170,10 +4162,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
@@ -4181,10 +4173,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
@@ -4192,10 +4184,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
@@ -4203,10 +4195,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
@@ -4214,10 +4206,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
@@ -4225,10 +4217,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
@@ -4236,10 +4228,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
@@ -4247,10 +4239,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
@@ -4258,10 +4250,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -4269,10 +4261,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
@@ -4280,10 +4272,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
@@ -4291,10 +4283,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
@@ -4302,10 +4294,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
@@ -4313,10 +4305,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
@@ -4324,10 +4316,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
@@ -4335,10 +4327,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
@@ -4346,10 +4338,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
@@ -4357,10 +4349,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
@@ -4368,10 +4360,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
@@ -4379,10 +4371,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
@@ -4390,10 +4382,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
@@ -4401,10 +4393,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
@@ -4412,10 +4404,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
@@ -4423,10 +4415,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
@@ -4434,10 +4426,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
@@ -4445,10 +4437,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
@@ -4456,10 +4448,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
@@ -4467,10 +4459,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
@@ -4478,10 +4470,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
@@ -4489,10 +4481,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
@@ -4500,10 +4492,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
@@ -4511,10 +4503,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
@@ -4522,10 +4514,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -4533,10 +4525,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
@@ -4544,10 +4536,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
@@ -4555,10 +4547,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
@@ -4566,10 +4558,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
@@ -4577,10 +4569,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
@@ -4588,10 +4580,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
@@ -4599,10 +4591,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
@@ -4610,10 +4602,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
@@ -4621,10 +4613,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
@@ -4632,10 +4624,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
@@ -4643,10 +4635,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
@@ -4654,10 +4646,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
@@ -4665,10 +4657,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
@@ -4676,10 +4668,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
@@ -4687,10 +4679,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
@@ -4698,10 +4690,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
@@ -4709,10 +4701,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
@@ -4720,10 +4712,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
@@ -4731,10 +4723,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
@@ -4742,10 +4734,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
@@ -4753,10 +4745,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
@@ -4764,10 +4756,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
@@ -4775,10 +4767,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
@@ -4786,10 +4778,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
@@ -4797,10 +4789,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
@@ -4808,10 +4800,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
@@ -4819,10 +4811,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
@@ -4830,10 +4822,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
@@ -4841,10 +4833,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
@@ -4852,10 +4844,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
@@ -4863,10 +4855,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
@@ -4874,10 +4866,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
@@ -4885,10 +4877,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
@@ -4896,10 +4888,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
@@ -4907,10 +4899,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
@@ -4918,10 +4910,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
@@ -4929,10 +4921,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
@@ -4940,10 +4932,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
@@ -4951,10 +4943,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
@@ -4962,10 +4954,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
@@ -4973,10 +4965,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
@@ -4984,10 +4976,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
@@ -4995,10 +4987,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
@@ -5006,10 +4998,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
@@ -5017,10 +5009,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
@@ -5028,10 +5020,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
@@ -5039,10 +5031,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
@@ -5050,10 +5042,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
@@ -5061,10 +5053,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
@@ -5072,10 +5064,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
@@ -5083,10 +5075,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
@@ -5094,10 +5086,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
@@ -5105,10 +5097,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
@@ -5116,10 +5108,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
@@ -5127,10 +5119,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
@@ -5138,10 +5130,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
@@ -5149,10 +5141,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
@@ -5160,10 +5152,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
@@ -5171,10 +5163,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
         <v>1</v>
@@ -5182,10 +5174,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
@@ -5193,10 +5185,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
@@ -5204,10 +5196,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
@@ -5215,10 +5207,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
@@ -5226,10 +5218,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
@@ -5237,10 +5229,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C247" t="s">
         <v>1</v>
@@ -5248,10 +5240,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
@@ -5259,10 +5251,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
@@ -5270,10 +5262,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
@@ -5281,10 +5273,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C251" t="s">
         <v>1</v>
@@ -5292,10 +5284,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
@@ -5303,10 +5295,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C253" t="s">
         <v>1</v>
@@ -5314,10 +5306,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
@@ -5325,10 +5317,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C255" t="s">
         <v>1</v>
@@ -5336,10 +5328,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
@@ -5347,10 +5339,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
@@ -5358,10 +5350,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C258" t="s">
         <v>1</v>
@@ -5369,10 +5361,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
@@ -5380,10 +5372,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C260" t="s">
         <v>1</v>
@@ -5391,10 +5383,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C261" t="s">
         <v>1</v>
@@ -5402,10 +5394,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C262" t="s">
         <v>1</v>
@@ -5413,10 +5405,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C263" t="s">
         <v>1</v>
@@ -5424,10 +5416,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C264" t="s">
         <v>1</v>
@@ -5435,10 +5427,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C265" t="s">
         <v>1</v>
@@ -5446,10 +5438,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C266" t="s">
         <v>1</v>
@@ -5457,10 +5449,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C267" t="s">
         <v>1</v>
@@ -5468,10 +5460,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C268" t="s">
         <v>1</v>
@@ -5479,10 +5471,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C269" t="s">
         <v>1</v>
@@ -5490,10 +5482,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C270" t="s">
         <v>1</v>
@@ -5501,10 +5493,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C271" t="s">
         <v>1</v>
@@ -5512,10 +5504,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C272" t="s">
         <v>1</v>
@@ -5523,10 +5515,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C273" t="s">
         <v>1</v>
@@ -5534,10 +5526,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C274" t="s">
         <v>1</v>
@@ -5545,10 +5537,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C275" t="s">
         <v>1</v>
@@ -5556,10 +5548,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C276" t="s">
         <v>1</v>
@@ -5567,10 +5559,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C277" t="s">
         <v>1</v>
@@ -5578,10 +5570,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C278" t="s">
         <v>1</v>
@@ -5589,10 +5581,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C279" t="s">
         <v>1</v>
@@ -5600,10 +5592,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C280" t="s">
         <v>1</v>
@@ -5611,10 +5603,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C281" t="s">
         <v>1</v>
@@ -5622,10 +5614,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C282" t="s">
         <v>1</v>
@@ -5633,10 +5625,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C283" t="s">
         <v>1</v>
@@ -5644,10 +5636,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C284" t="s">
         <v>1</v>
@@ -5655,10 +5647,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C285" t="s">
         <v>1</v>
@@ -5666,10 +5658,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C286" t="s">
         <v>1</v>
@@ -5677,10 +5669,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C287" t="s">
         <v>1</v>
@@ -5688,10 +5680,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C288" t="s">
         <v>1</v>
@@ -5699,10 +5691,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C289" t="s">
         <v>1</v>
@@ -5710,10 +5702,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C290" t="s">
         <v>1</v>
@@ -5721,10 +5713,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C291" t="s">
         <v>1</v>
@@ -5732,10 +5724,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C292" t="s">
         <v>1</v>
@@ -5743,4666 +5735,4677 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C293" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>716</v>
+        <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>717</v>
+        <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C466" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C494" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C495" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C514" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C519" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C520" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C521" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B530" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C545" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C550" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C551" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C552" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C553" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C554" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C555" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B556" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C556" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B557" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C557" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C558" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B559" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C559" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B560" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C560" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B561" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C561" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C562" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C563" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B564" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C564" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B565" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C565" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B566" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C566" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C567" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C568" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B569" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C569" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C570" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C571" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B572" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C572" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B573" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C573" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C574" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C575" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C576" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B577" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C577" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B578" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C578" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B579" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C579" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C580" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B581" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C581" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C582" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C583" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B584" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C584" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B585" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C585" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C586" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B587" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C587" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B588" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C588" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C589" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C590" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C591" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B592" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C592" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B593" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C593" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C594" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C595" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C596" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C597" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C598" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C599" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C600" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C601" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C602" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C603" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C604" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B605" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C605" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B606" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C606" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B607" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C607" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B608" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C608" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B609" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C609" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C610" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B611" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C611" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B612" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C612" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B613" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C613" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B614" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C614" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B615" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C615" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C616" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B617" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C617" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B618" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C618" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C619" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B620" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C620" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B621" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C621" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B622" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C622" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B623" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C623" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B624" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C624" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B625" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C625" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B626" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C626" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B627" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C627" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B628" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C628" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B629" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C629" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B630" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C630" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B631" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C631" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B632" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C632" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B633" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C633" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B634" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C634" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B635" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C635" t="s">
-        <v>634</v>
+        <v>294</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B636" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C636" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B637" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C637" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B638" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C638" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639">
+        <v>639</v>
+      </c>
+      <c r="B639" t="s">
+        <v>641</v>
+      </c>
+      <c r="C639" t="s">
         <v>638</v>
-      </c>
-      <c r="B639" t="s">
-        <v>638</v>
-      </c>
-      <c r="C639" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B640" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C640" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B641" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C641" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B642" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C642" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B643" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C643" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B644" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C644" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B645" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C645" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B646" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C646" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B647" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C647" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B648" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C648" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B649" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C649" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B650" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C650" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B651" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C651" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B652" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C652" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B653" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C653" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B654" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C654" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B655" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C655" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B656" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C656" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B657" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C657" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B658" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C658" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B659" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C659" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B660" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C660" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B661" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C661" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B662" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C662" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B663" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C663" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B664" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C664" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B665" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C665" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B666" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C666" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B667" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C667" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B668" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C668" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B669" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C669" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B670" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C670" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B671" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C671" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B672" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C672" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B673" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C673" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B674" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C674" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B675" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C675" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B676" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C676" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B677" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C677" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B678" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C678" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B679" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C679" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B680" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C680" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B681" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C681" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B682" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C682" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B683" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C683" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B684" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C684" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B685" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C685" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B686" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C686" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B687" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C687" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B688" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C688" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B689" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C689" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B690" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C690" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B691" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C691" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B692" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C692" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B693" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C693" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B694" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C694" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B695" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C695" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B696" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C696" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B697" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C697" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B698" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C698" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B699" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C699" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B700" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C700" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B701" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C701" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B702" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C702" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B703" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C703" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B704" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C704" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B705" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C705" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B706" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C706" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B707" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C707" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B708" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C708" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B709" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C709" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B710" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C710" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B711" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C711" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B712" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C712" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B713" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C713" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B714" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C714" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B715" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C715" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B716" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C716" t="s">
-        <v>634</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>717</v>
+      </c>
+      <c r="B717" t="s">
+        <v>719</v>
+      </c>
+      <c r="C717" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="723">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -2184,6 +2184,18 @@
   </si>
   <si>
     <t>xba</t>
+  </si>
+  <si>
+    <t>representation_keyword_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>representation_keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2513,31 +2525,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C717"/>
+  <dimension ref="A1:C718"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C717"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>720</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2545,10 +2557,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2556,10 +2568,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -2567,10 +2579,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -2578,10 +2590,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -2589,10 +2601,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -2600,10 +2612,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -2611,10 +2623,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -2622,10 +2634,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -2633,10 +2645,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -2644,10 +2656,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -2655,10 +2667,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -2666,10 +2678,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -2677,10 +2689,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -2688,10 +2700,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2699,10 +2711,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -2710,10 +2722,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -2721,10 +2733,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -2732,10 +2744,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -2743,10 +2755,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -2754,10 +2766,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2765,10 +2777,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2776,10 +2788,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -2787,10 +2799,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -2798,10 +2810,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -2809,10 +2821,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -2820,10 +2832,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -2831,10 +2843,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -2842,10 +2854,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -2853,10 +2865,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -2864,10 +2876,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -2875,10 +2887,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -2886,10 +2898,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -2897,10 +2909,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -2908,10 +2920,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -2919,10 +2931,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -2930,10 +2942,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -2941,10 +2953,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -2952,10 +2964,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -2963,10 +2975,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -2974,10 +2986,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -2985,10 +2997,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -2996,10 +3008,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -3007,10 +3019,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -3018,10 +3030,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -3029,10 +3041,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -3040,10 +3052,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -3051,10 +3063,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -3062,10 +3074,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -3073,10 +3085,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -3084,10 +3096,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -3095,10 +3107,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -3106,10 +3118,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -3117,10 +3129,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -3128,10 +3140,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -3139,10 +3151,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -3150,10 +3162,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -3161,10 +3173,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -3172,10 +3184,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -3183,10 +3195,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -3194,10 +3206,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -3205,10 +3217,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -3216,10 +3228,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -3227,10 +3239,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -3238,10 +3250,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -3249,10 +3261,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -3260,10 +3272,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -3271,10 +3283,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -3282,10 +3294,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -3293,10 +3305,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -3304,10 +3316,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -3315,10 +3327,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -3326,10 +3338,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -3337,10 +3349,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -3348,10 +3360,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -3359,10 +3371,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -3370,10 +3382,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -3381,10 +3393,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -3392,10 +3404,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -3403,10 +3415,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -3414,10 +3426,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -3425,10 +3437,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -3436,10 +3448,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -3447,10 +3459,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -3458,10 +3470,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -3469,10 +3481,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -3480,10 +3492,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -3491,10 +3503,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -3502,10 +3514,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -3513,10 +3525,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -3524,10 +3536,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -3535,10 +3547,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -3546,10 +3558,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -3557,10 +3569,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -3568,10 +3580,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -3579,10 +3591,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -3590,10 +3602,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -3601,10 +3613,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -3612,10 +3624,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -3623,10 +3635,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -3634,10 +3646,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -3645,10 +3657,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -3656,10 +3668,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -3667,10 +3679,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -3678,10 +3690,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -3689,10 +3701,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -3700,10 +3712,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -3711,10 +3723,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -3722,10 +3734,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -3733,10 +3745,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -3744,10 +3756,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -3755,10 +3767,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -3766,10 +3778,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -3777,10 +3789,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -3788,10 +3800,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -3799,10 +3811,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -3810,10 +3822,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -3821,10 +3833,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -3832,10 +3844,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -3843,10 +3855,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -3854,10 +3866,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -3865,10 +3877,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -3876,10 +3888,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -3887,10 +3899,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -3898,10 +3910,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -3909,10 +3921,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -3920,10 +3932,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -3931,10 +3943,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -3942,10 +3954,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
@@ -3953,10 +3965,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
@@ -3964,10 +3976,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
@@ -3975,10 +3987,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
@@ -3986,10 +3998,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
@@ -3997,10 +4009,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
@@ -4008,10 +4020,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
@@ -4019,10 +4031,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
@@ -4030,10 +4042,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
@@ -4041,10 +4053,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
@@ -4052,10 +4064,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
@@ -4063,10 +4075,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
@@ -4074,10 +4086,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
@@ -4085,10 +4097,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
@@ -4096,10 +4108,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
@@ -4107,10 +4119,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
@@ -4118,10 +4130,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
@@ -4129,10 +4141,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
@@ -4140,10 +4152,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
@@ -4151,10 +4163,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
@@ -4162,10 +4174,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
@@ -4173,10 +4185,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
@@ -4184,10 +4196,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
@@ -4195,10 +4207,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
@@ -4206,10 +4218,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
@@ -4217,10 +4229,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
@@ -4228,10 +4240,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
@@ -4239,10 +4251,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
@@ -4250,10 +4262,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -4261,10 +4273,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
@@ -4272,10 +4284,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
@@ -4283,10 +4295,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
@@ -4294,10 +4306,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
@@ -4305,10 +4317,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
@@ -4316,10 +4328,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
@@ -4327,10 +4339,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
@@ -4338,10 +4350,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
@@ -4349,10 +4361,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
@@ -4360,10 +4372,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
@@ -4371,10 +4383,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
@@ -4382,10 +4394,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
@@ -4393,10 +4405,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
@@ -4404,10 +4416,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
@@ -4415,10 +4427,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
@@ -4426,10 +4438,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
@@ -4437,10 +4449,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
@@ -4448,10 +4460,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
@@ -4459,10 +4471,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
@@ -4470,10 +4482,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
@@ -4481,10 +4493,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
@@ -4492,10 +4504,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
@@ -4503,10 +4515,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
@@ -4514,10 +4526,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -4525,10 +4537,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
@@ -4536,10 +4548,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
@@ -4547,10 +4559,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
@@ -4558,10 +4570,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
@@ -4569,10 +4581,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
@@ -4580,10 +4592,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
@@ -4591,10 +4603,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
@@ -4602,10 +4614,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
@@ -4613,10 +4625,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
@@ -4624,10 +4636,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
@@ -4635,10 +4647,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
@@ -4646,10 +4658,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
@@ -4657,10 +4669,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
@@ -4668,10 +4680,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
@@ -4679,10 +4691,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
@@ -4690,10 +4702,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
@@ -4701,10 +4713,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
@@ -4712,10 +4724,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
@@ -4723,10 +4735,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
@@ -4734,10 +4746,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
@@ -4745,10 +4757,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
@@ -4756,10 +4768,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
@@ -4767,10 +4779,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
@@ -4778,10 +4790,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
@@ -4789,10 +4801,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
@@ -4800,10 +4812,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
@@ -4811,10 +4823,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
@@ -4822,10 +4834,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
@@ -4833,10 +4845,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
@@ -4844,10 +4856,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
@@ -4855,10 +4867,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
@@ -4866,10 +4878,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
@@ -4877,10 +4889,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
@@ -4888,10 +4900,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
@@ -4899,10 +4911,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
@@ -4910,10 +4922,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
@@ -4921,10 +4933,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
@@ -4932,10 +4944,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
@@ -4943,10 +4955,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
@@ -4954,10 +4966,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
@@ -4965,10 +4977,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
@@ -4976,10 +4988,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
@@ -4987,10 +4999,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
@@ -4998,10 +5010,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
@@ -5009,10 +5021,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
@@ -5020,10 +5032,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
@@ -5031,10 +5043,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
@@ -5042,10 +5054,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
@@ -5053,10 +5065,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
@@ -5064,10 +5076,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
@@ -5075,10 +5087,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
@@ -5086,10 +5098,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
@@ -5097,10 +5109,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
@@ -5108,10 +5120,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
@@ -5119,10 +5131,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
@@ -5130,10 +5142,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
@@ -5141,10 +5153,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
@@ -5152,10 +5164,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
@@ -5163,10 +5175,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C241" t="s">
         <v>1</v>
@@ -5174,10 +5186,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
@@ -5185,10 +5197,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
@@ -5196,10 +5208,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
@@ -5207,10 +5219,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
@@ -5218,10 +5230,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
@@ -5229,10 +5241,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C247" t="s">
         <v>1</v>
@@ -5240,10 +5252,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
@@ -5251,10 +5263,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
@@ -5262,10 +5274,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
@@ -5273,10 +5285,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C251" t="s">
         <v>1</v>
@@ -5284,10 +5296,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
@@ -5295,10 +5307,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C253" t="s">
         <v>1</v>
@@ -5306,10 +5318,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
@@ -5317,10 +5329,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C255" t="s">
         <v>1</v>
@@ -5328,10 +5340,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
@@ -5339,10 +5351,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
@@ -5350,10 +5362,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C258" t="s">
         <v>1</v>
@@ -5361,10 +5373,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
@@ -5372,10 +5384,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C260" t="s">
         <v>1</v>
@@ -5383,10 +5395,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C261" t="s">
         <v>1</v>
@@ -5394,10 +5406,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C262" t="s">
         <v>1</v>
@@ -5405,10 +5417,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C263" t="s">
         <v>1</v>
@@ -5416,10 +5428,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C264" t="s">
         <v>1</v>
@@ -5427,10 +5439,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C265" t="s">
         <v>1</v>
@@ -5438,10 +5450,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C266" t="s">
         <v>1</v>
@@ -5449,10 +5461,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C267" t="s">
         <v>1</v>
@@ -5460,10 +5472,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C268" t="s">
         <v>1</v>
@@ -5471,10 +5483,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C269" t="s">
         <v>1</v>
@@ -5482,10 +5494,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C270" t="s">
         <v>1</v>
@@ -5493,10 +5505,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C271" t="s">
         <v>1</v>
@@ -5504,10 +5516,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C272" t="s">
         <v>1</v>
@@ -5515,10 +5527,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C273" t="s">
         <v>1</v>
@@ -5526,10 +5538,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C274" t="s">
         <v>1</v>
@@ -5537,10 +5549,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C275" t="s">
         <v>1</v>
@@ -5548,10 +5560,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C276" t="s">
         <v>1</v>
@@ -5559,10 +5571,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C277" t="s">
         <v>1</v>
@@ -5570,10 +5582,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C278" t="s">
         <v>1</v>
@@ -5581,10 +5593,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C279" t="s">
         <v>1</v>
@@ -5592,10 +5604,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C280" t="s">
         <v>1</v>
@@ -5603,10 +5615,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C281" t="s">
         <v>1</v>
@@ -5614,10 +5626,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C282" t="s">
         <v>1</v>
@@ -5625,10 +5637,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C283" t="s">
         <v>1</v>
@@ -5636,10 +5648,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C284" t="s">
         <v>1</v>
@@ -5647,10 +5659,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C285" t="s">
         <v>1</v>
@@ -5658,10 +5670,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C286" t="s">
         <v>1</v>
@@ -5669,10 +5681,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C287" t="s">
         <v>1</v>
@@ -5680,10 +5692,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C288" t="s">
         <v>1</v>
@@ -5691,10 +5703,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C289" t="s">
         <v>1</v>
@@ -5702,10 +5714,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C290" t="s">
         <v>1</v>
@@ -5713,10 +5725,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C291" t="s">
         <v>1</v>
@@ -5724,10 +5736,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C292" t="s">
         <v>1</v>
@@ -5735,21 +5747,21 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C293" t="s">
-        <v>294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C294" t="s">
         <v>294</v>
@@ -5757,10 +5769,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
         <v>295</v>
-      </c>
-      <c r="B295" t="s">
-        <v>296</v>
       </c>
       <c r="C295" t="s">
         <v>294</v>
@@ -5768,10 +5780,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
         <v>296</v>
-      </c>
-      <c r="B296" t="s">
-        <v>297</v>
       </c>
       <c r="C296" t="s">
         <v>294</v>
@@ -5779,10 +5791,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
         <v>297</v>
-      </c>
-      <c r="B297" t="s">
-        <v>298</v>
       </c>
       <c r="C297" t="s">
         <v>294</v>
@@ -5790,10 +5802,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
         <v>298</v>
-      </c>
-      <c r="B298" t="s">
-        <v>299</v>
       </c>
       <c r="C298" t="s">
         <v>294</v>
@@ -5801,10 +5813,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
         <v>299</v>
-      </c>
-      <c r="B299" t="s">
-        <v>300</v>
       </c>
       <c r="C299" t="s">
         <v>294</v>
@@ -5812,10 +5824,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
         <v>300</v>
-      </c>
-      <c r="B300" t="s">
-        <v>301</v>
       </c>
       <c r="C300" t="s">
         <v>294</v>
@@ -5823,10 +5835,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
         <v>301</v>
-      </c>
-      <c r="B301" t="s">
-        <v>302</v>
       </c>
       <c r="C301" t="s">
         <v>294</v>
@@ -5834,10 +5846,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
         <v>302</v>
-      </c>
-      <c r="B302" t="s">
-        <v>303</v>
       </c>
       <c r="C302" t="s">
         <v>294</v>
@@ -5845,10 +5857,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
         <v>303</v>
-      </c>
-      <c r="B303" t="s">
-        <v>304</v>
       </c>
       <c r="C303" t="s">
         <v>294</v>
@@ -5856,10 +5868,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
         <v>304</v>
-      </c>
-      <c r="B304" t="s">
-        <v>305</v>
       </c>
       <c r="C304" t="s">
         <v>294</v>
@@ -5867,10 +5879,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
         <v>305</v>
-      </c>
-      <c r="B305" t="s">
-        <v>306</v>
       </c>
       <c r="C305" t="s">
         <v>294</v>
@@ -5878,10 +5890,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
         <v>306</v>
-      </c>
-      <c r="B306" t="s">
-        <v>307</v>
       </c>
       <c r="C306" t="s">
         <v>294</v>
@@ -5889,10 +5901,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
         <v>307</v>
-      </c>
-      <c r="B307" t="s">
-        <v>308</v>
       </c>
       <c r="C307" t="s">
         <v>294</v>
@@ -5900,10 +5912,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
         <v>308</v>
-      </c>
-      <c r="B308" t="s">
-        <v>309</v>
       </c>
       <c r="C308" t="s">
         <v>294</v>
@@ -5911,10 +5923,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
         <v>309</v>
-      </c>
-      <c r="B309" t="s">
-        <v>310</v>
       </c>
       <c r="C309" t="s">
         <v>294</v>
@@ -5922,10 +5934,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
         <v>310</v>
-      </c>
-      <c r="B310" t="s">
-        <v>311</v>
       </c>
       <c r="C310" t="s">
         <v>294</v>
@@ -5933,10 +5945,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
         <v>311</v>
-      </c>
-      <c r="B311" t="s">
-        <v>312</v>
       </c>
       <c r="C311" t="s">
         <v>294</v>
@@ -5944,10 +5956,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
         <v>312</v>
-      </c>
-      <c r="B312" t="s">
-        <v>313</v>
       </c>
       <c r="C312" t="s">
         <v>294</v>
@@ -5955,10 +5967,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
         <v>313</v>
-      </c>
-      <c r="B313" t="s">
-        <v>314</v>
       </c>
       <c r="C313" t="s">
         <v>294</v>
@@ -5966,10 +5978,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
         <v>314</v>
-      </c>
-      <c r="B314" t="s">
-        <v>315</v>
       </c>
       <c r="C314" t="s">
         <v>294</v>
@@ -5977,10 +5989,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
         <v>315</v>
-      </c>
-      <c r="B315" t="s">
-        <v>316</v>
       </c>
       <c r="C315" t="s">
         <v>294</v>
@@ -5988,10 +6000,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
         <v>316</v>
-      </c>
-      <c r="B316" t="s">
-        <v>317</v>
       </c>
       <c r="C316" t="s">
         <v>294</v>
@@ -5999,10 +6011,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
         <v>317</v>
-      </c>
-      <c r="B317" t="s">
-        <v>318</v>
       </c>
       <c r="C317" t="s">
         <v>294</v>
@@ -6010,10 +6022,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
         <v>318</v>
-      </c>
-      <c r="B318" t="s">
-        <v>319</v>
       </c>
       <c r="C318" t="s">
         <v>294</v>
@@ -6021,10 +6033,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
         <v>319</v>
-      </c>
-      <c r="B319" t="s">
-        <v>320</v>
       </c>
       <c r="C319" t="s">
         <v>294</v>
@@ -6032,10 +6044,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
         <v>320</v>
-      </c>
-      <c r="B320" t="s">
-        <v>321</v>
       </c>
       <c r="C320" t="s">
         <v>294</v>
@@ -6043,10 +6055,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
         <v>321</v>
-      </c>
-      <c r="B321" t="s">
-        <v>322</v>
       </c>
       <c r="C321" t="s">
         <v>294</v>
@@ -6054,10 +6066,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
         <v>322</v>
-      </c>
-      <c r="B322" t="s">
-        <v>323</v>
       </c>
       <c r="C322" t="s">
         <v>294</v>
@@ -6065,10 +6077,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
         <v>323</v>
-      </c>
-      <c r="B323" t="s">
-        <v>324</v>
       </c>
       <c r="C323" t="s">
         <v>294</v>
@@ -6076,10 +6088,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
         <v>324</v>
-      </c>
-      <c r="B324" t="s">
-        <v>325</v>
       </c>
       <c r="C324" t="s">
         <v>294</v>
@@ -6087,10 +6099,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
         <v>325</v>
-      </c>
-      <c r="B325" t="s">
-        <v>326</v>
       </c>
       <c r="C325" t="s">
         <v>294</v>
@@ -6098,10 +6110,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
         <v>326</v>
-      </c>
-      <c r="B326" t="s">
-        <v>327</v>
       </c>
       <c r="C326" t="s">
         <v>294</v>
@@ -6109,10 +6121,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
         <v>327</v>
-      </c>
-      <c r="B327" t="s">
-        <v>328</v>
       </c>
       <c r="C327" t="s">
         <v>294</v>
@@ -6120,10 +6132,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
         <v>328</v>
-      </c>
-      <c r="B328" t="s">
-        <v>329</v>
       </c>
       <c r="C328" t="s">
         <v>294</v>
@@ -6131,10 +6143,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
         <v>329</v>
-      </c>
-      <c r="B329" t="s">
-        <v>330</v>
       </c>
       <c r="C329" t="s">
         <v>294</v>
@@ -6142,10 +6154,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
         <v>330</v>
-      </c>
-      <c r="B330" t="s">
-        <v>331</v>
       </c>
       <c r="C330" t="s">
         <v>294</v>
@@ -6153,10 +6165,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
         <v>331</v>
-      </c>
-      <c r="B331" t="s">
-        <v>332</v>
       </c>
       <c r="C331" t="s">
         <v>294</v>
@@ -6164,10 +6176,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
         <v>332</v>
-      </c>
-      <c r="B332" t="s">
-        <v>333</v>
       </c>
       <c r="C332" t="s">
         <v>294</v>
@@ -6175,10 +6187,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
         <v>333</v>
-      </c>
-      <c r="B333" t="s">
-        <v>334</v>
       </c>
       <c r="C333" t="s">
         <v>294</v>
@@ -6186,10 +6198,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
         <v>334</v>
-      </c>
-      <c r="B334" t="s">
-        <v>335</v>
       </c>
       <c r="C334" t="s">
         <v>294</v>
@@ -6197,10 +6209,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
         <v>335</v>
-      </c>
-      <c r="B335" t="s">
-        <v>336</v>
       </c>
       <c r="C335" t="s">
         <v>294</v>
@@ -6208,10 +6220,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
         <v>336</v>
-      </c>
-      <c r="B336" t="s">
-        <v>337</v>
       </c>
       <c r="C336" t="s">
         <v>294</v>
@@ -6219,10 +6231,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
         <v>337</v>
-      </c>
-      <c r="B337" t="s">
-        <v>338</v>
       </c>
       <c r="C337" t="s">
         <v>294</v>
@@ -6230,10 +6242,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
         <v>338</v>
-      </c>
-      <c r="B338" t="s">
-        <v>339</v>
       </c>
       <c r="C338" t="s">
         <v>294</v>
@@ -6241,10 +6253,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
         <v>339</v>
-      </c>
-      <c r="B339" t="s">
-        <v>340</v>
       </c>
       <c r="C339" t="s">
         <v>294</v>
@@ -6252,10 +6264,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
         <v>340</v>
-      </c>
-      <c r="B340" t="s">
-        <v>341</v>
       </c>
       <c r="C340" t="s">
         <v>294</v>
@@ -6263,10 +6275,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
         <v>341</v>
-      </c>
-      <c r="B341" t="s">
-        <v>342</v>
       </c>
       <c r="C341" t="s">
         <v>294</v>
@@ -6274,10 +6286,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
         <v>342</v>
-      </c>
-      <c r="B342" t="s">
-        <v>343</v>
       </c>
       <c r="C342" t="s">
         <v>294</v>
@@ -6285,10 +6297,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
         <v>343</v>
-      </c>
-      <c r="B343" t="s">
-        <v>344</v>
       </c>
       <c r="C343" t="s">
         <v>294</v>
@@ -6296,10 +6308,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
         <v>344</v>
-      </c>
-      <c r="B344" t="s">
-        <v>345</v>
       </c>
       <c r="C344" t="s">
         <v>294</v>
@@ -6307,10 +6319,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
         <v>345</v>
-      </c>
-      <c r="B345" t="s">
-        <v>346</v>
       </c>
       <c r="C345" t="s">
         <v>294</v>
@@ -6318,10 +6330,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
         <v>346</v>
-      </c>
-      <c r="B346" t="s">
-        <v>347</v>
       </c>
       <c r="C346" t="s">
         <v>294</v>
@@ -6329,10 +6341,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
         <v>347</v>
-      </c>
-      <c r="B347" t="s">
-        <v>348</v>
       </c>
       <c r="C347" t="s">
         <v>294</v>
@@ -6340,10 +6352,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
         <v>348</v>
-      </c>
-      <c r="B348" t="s">
-        <v>349</v>
       </c>
       <c r="C348" t="s">
         <v>294</v>
@@ -6351,10 +6363,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
         <v>349</v>
-      </c>
-      <c r="B349" t="s">
-        <v>350</v>
       </c>
       <c r="C349" t="s">
         <v>294</v>
@@ -6362,10 +6374,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
         <v>350</v>
-      </c>
-      <c r="B350" t="s">
-        <v>351</v>
       </c>
       <c r="C350" t="s">
         <v>294</v>
@@ -6373,10 +6385,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
         <v>351</v>
-      </c>
-      <c r="B351" t="s">
-        <v>352</v>
       </c>
       <c r="C351" t="s">
         <v>294</v>
@@ -6384,10 +6396,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
         <v>352</v>
-      </c>
-      <c r="B352" t="s">
-        <v>353</v>
       </c>
       <c r="C352" t="s">
         <v>294</v>
@@ -6395,10 +6407,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
         <v>353</v>
-      </c>
-      <c r="B353" t="s">
-        <v>354</v>
       </c>
       <c r="C353" t="s">
         <v>294</v>
@@ -6406,10 +6418,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
         <v>354</v>
-      </c>
-      <c r="B354" t="s">
-        <v>355</v>
       </c>
       <c r="C354" t="s">
         <v>294</v>
@@ -6417,10 +6429,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
         <v>355</v>
-      </c>
-      <c r="B355" t="s">
-        <v>356</v>
       </c>
       <c r="C355" t="s">
         <v>294</v>
@@ -6428,10 +6440,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
         <v>356</v>
-      </c>
-      <c r="B356" t="s">
-        <v>357</v>
       </c>
       <c r="C356" t="s">
         <v>294</v>
@@ -6439,10 +6451,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
         <v>357</v>
-      </c>
-      <c r="B357" t="s">
-        <v>358</v>
       </c>
       <c r="C357" t="s">
         <v>294</v>
@@ -6450,10 +6462,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
         <v>358</v>
-      </c>
-      <c r="B358" t="s">
-        <v>359</v>
       </c>
       <c r="C358" t="s">
         <v>294</v>
@@ -6461,10 +6473,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
         <v>359</v>
-      </c>
-      <c r="B359" t="s">
-        <v>360</v>
       </c>
       <c r="C359" t="s">
         <v>294</v>
@@ -6472,10 +6484,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
         <v>360</v>
-      </c>
-      <c r="B360" t="s">
-        <v>361</v>
       </c>
       <c r="C360" t="s">
         <v>294</v>
@@ -6483,10 +6495,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
         <v>361</v>
-      </c>
-      <c r="B361" t="s">
-        <v>362</v>
       </c>
       <c r="C361" t="s">
         <v>294</v>
@@ -6494,10 +6506,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
         <v>362</v>
-      </c>
-      <c r="B362" t="s">
-        <v>363</v>
       </c>
       <c r="C362" t="s">
         <v>294</v>
@@ -6505,10 +6517,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
         <v>363</v>
-      </c>
-      <c r="B363" t="s">
-        <v>364</v>
       </c>
       <c r="C363" t="s">
         <v>294</v>
@@ -6516,10 +6528,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
         <v>364</v>
-      </c>
-      <c r="B364" t="s">
-        <v>365</v>
       </c>
       <c r="C364" t="s">
         <v>294</v>
@@ -6527,10 +6539,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
         <v>365</v>
-      </c>
-      <c r="B365" t="s">
-        <v>366</v>
       </c>
       <c r="C365" t="s">
         <v>294</v>
@@ -6538,10 +6550,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
         <v>366</v>
-      </c>
-      <c r="B366" t="s">
-        <v>367</v>
       </c>
       <c r="C366" t="s">
         <v>294</v>
@@ -6549,10 +6561,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
         <v>367</v>
-      </c>
-      <c r="B367" t="s">
-        <v>368</v>
       </c>
       <c r="C367" t="s">
         <v>294</v>
@@ -6560,10 +6572,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
         <v>368</v>
-      </c>
-      <c r="B368" t="s">
-        <v>369</v>
       </c>
       <c r="C368" t="s">
         <v>294</v>
@@ -6571,10 +6583,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
         <v>369</v>
-      </c>
-      <c r="B369" t="s">
-        <v>370</v>
       </c>
       <c r="C369" t="s">
         <v>294</v>
@@ -6582,10 +6594,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
         <v>370</v>
-      </c>
-      <c r="B370" t="s">
-        <v>371</v>
       </c>
       <c r="C370" t="s">
         <v>294</v>
@@ -6593,10 +6605,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
         <v>371</v>
-      </c>
-      <c r="B371" t="s">
-        <v>372</v>
       </c>
       <c r="C371" t="s">
         <v>294</v>
@@ -6604,10 +6616,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
         <v>372</v>
-      </c>
-      <c r="B372" t="s">
-        <v>373</v>
       </c>
       <c r="C372" t="s">
         <v>294</v>
@@ -6615,10 +6627,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
         <v>373</v>
-      </c>
-      <c r="B373" t="s">
-        <v>374</v>
       </c>
       <c r="C373" t="s">
         <v>294</v>
@@ -6626,10 +6638,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
         <v>374</v>
-      </c>
-      <c r="B374" t="s">
-        <v>375</v>
       </c>
       <c r="C374" t="s">
         <v>294</v>
@@ -6637,10 +6649,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
         <v>375</v>
-      </c>
-      <c r="B375" t="s">
-        <v>376</v>
       </c>
       <c r="C375" t="s">
         <v>294</v>
@@ -6648,10 +6660,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
         <v>376</v>
-      </c>
-      <c r="B376" t="s">
-        <v>377</v>
       </c>
       <c r="C376" t="s">
         <v>294</v>
@@ -6659,10 +6671,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
         <v>377</v>
-      </c>
-      <c r="B377" t="s">
-        <v>378</v>
       </c>
       <c r="C377" t="s">
         <v>294</v>
@@ -6670,10 +6682,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
         <v>378</v>
-      </c>
-      <c r="B378" t="s">
-        <v>379</v>
       </c>
       <c r="C378" t="s">
         <v>294</v>
@@ -6681,10 +6693,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
         <v>379</v>
-      </c>
-      <c r="B379" t="s">
-        <v>380</v>
       </c>
       <c r="C379" t="s">
         <v>294</v>
@@ -6692,10 +6704,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
         <v>380</v>
-      </c>
-      <c r="B380" t="s">
-        <v>381</v>
       </c>
       <c r="C380" t="s">
         <v>294</v>
@@ -6703,10 +6715,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
         <v>381</v>
-      </c>
-      <c r="B381" t="s">
-        <v>382</v>
       </c>
       <c r="C381" t="s">
         <v>294</v>
@@ -6714,10 +6726,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
         <v>382</v>
-      </c>
-      <c r="B382" t="s">
-        <v>383</v>
       </c>
       <c r="C382" t="s">
         <v>294</v>
@@ -6725,10 +6737,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
         <v>383</v>
-      </c>
-      <c r="B383" t="s">
-        <v>384</v>
       </c>
       <c r="C383" t="s">
         <v>294</v>
@@ -6736,10 +6748,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
         <v>384</v>
-      </c>
-      <c r="B384" t="s">
-        <v>385</v>
       </c>
       <c r="C384" t="s">
         <v>294</v>
@@ -6747,10 +6759,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
         <v>385</v>
-      </c>
-      <c r="B385" t="s">
-        <v>386</v>
       </c>
       <c r="C385" t="s">
         <v>294</v>
@@ -6758,10 +6770,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
         <v>386</v>
-      </c>
-      <c r="B386" t="s">
-        <v>387</v>
       </c>
       <c r="C386" t="s">
         <v>294</v>
@@ -6769,10 +6781,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
         <v>387</v>
-      </c>
-      <c r="B387" t="s">
-        <v>388</v>
       </c>
       <c r="C387" t="s">
         <v>294</v>
@@ -6780,10 +6792,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
         <v>388</v>
-      </c>
-      <c r="B388" t="s">
-        <v>389</v>
       </c>
       <c r="C388" t="s">
         <v>294</v>
@@ -6791,10 +6803,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
         <v>389</v>
-      </c>
-      <c r="B389" t="s">
-        <v>390</v>
       </c>
       <c r="C389" t="s">
         <v>294</v>
@@ -6802,10 +6814,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
         <v>390</v>
-      </c>
-      <c r="B390" t="s">
-        <v>391</v>
       </c>
       <c r="C390" t="s">
         <v>294</v>
@@ -6813,10 +6825,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
         <v>391</v>
-      </c>
-      <c r="B391" t="s">
-        <v>392</v>
       </c>
       <c r="C391" t="s">
         <v>294</v>
@@ -6824,10 +6836,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
         <v>392</v>
-      </c>
-      <c r="B392" t="s">
-        <v>393</v>
       </c>
       <c r="C392" t="s">
         <v>294</v>
@@ -6835,10 +6847,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
         <v>393</v>
-      </c>
-      <c r="B393" t="s">
-        <v>394</v>
       </c>
       <c r="C393" t="s">
         <v>294</v>
@@ -6846,10 +6858,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
         <v>394</v>
-      </c>
-      <c r="B394" t="s">
-        <v>395</v>
       </c>
       <c r="C394" t="s">
         <v>294</v>
@@ -6857,10 +6869,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
         <v>395</v>
-      </c>
-      <c r="B395" t="s">
-        <v>396</v>
       </c>
       <c r="C395" t="s">
         <v>294</v>
@@ -6868,10 +6880,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
         <v>396</v>
-      </c>
-      <c r="B396" t="s">
-        <v>397</v>
       </c>
       <c r="C396" t="s">
         <v>294</v>
@@ -6879,10 +6891,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
         <v>397</v>
-      </c>
-      <c r="B397" t="s">
-        <v>398</v>
       </c>
       <c r="C397" t="s">
         <v>294</v>
@@ -6890,10 +6902,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
         <v>398</v>
-      </c>
-      <c r="B398" t="s">
-        <v>399</v>
       </c>
       <c r="C398" t="s">
         <v>294</v>
@@ -6901,10 +6913,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
         <v>399</v>
-      </c>
-      <c r="B399" t="s">
-        <v>400</v>
       </c>
       <c r="C399" t="s">
         <v>294</v>
@@ -6912,10 +6924,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
         <v>400</v>
-      </c>
-      <c r="B400" t="s">
-        <v>401</v>
       </c>
       <c r="C400" t="s">
         <v>294</v>
@@ -6923,10 +6935,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
         <v>401</v>
-      </c>
-      <c r="B401" t="s">
-        <v>402</v>
       </c>
       <c r="C401" t="s">
         <v>294</v>
@@ -6934,10 +6946,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
         <v>402</v>
-      </c>
-      <c r="B402" t="s">
-        <v>403</v>
       </c>
       <c r="C402" t="s">
         <v>294</v>
@@ -6945,10 +6957,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
         <v>403</v>
-      </c>
-      <c r="B403" t="s">
-        <v>404</v>
       </c>
       <c r="C403" t="s">
         <v>294</v>
@@ -6956,10 +6968,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
         <v>404</v>
-      </c>
-      <c r="B404" t="s">
-        <v>405</v>
       </c>
       <c r="C404" t="s">
         <v>294</v>
@@ -6967,10 +6979,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
         <v>405</v>
-      </c>
-      <c r="B405" t="s">
-        <v>406</v>
       </c>
       <c r="C405" t="s">
         <v>294</v>
@@ -6978,10 +6990,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
         <v>406</v>
-      </c>
-      <c r="B406" t="s">
-        <v>407</v>
       </c>
       <c r="C406" t="s">
         <v>294</v>
@@ -6989,10 +7001,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
         <v>407</v>
-      </c>
-      <c r="B407" t="s">
-        <v>408</v>
       </c>
       <c r="C407" t="s">
         <v>294</v>
@@ -7000,10 +7012,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
         <v>408</v>
-      </c>
-      <c r="B408" t="s">
-        <v>409</v>
       </c>
       <c r="C408" t="s">
         <v>294</v>
@@ -7011,10 +7023,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
         <v>409</v>
-      </c>
-      <c r="B409" t="s">
-        <v>410</v>
       </c>
       <c r="C409" t="s">
         <v>294</v>
@@ -7022,10 +7034,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
         <v>410</v>
-      </c>
-      <c r="B410" t="s">
-        <v>411</v>
       </c>
       <c r="C410" t="s">
         <v>294</v>
@@ -7033,10 +7045,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
         <v>411</v>
-      </c>
-      <c r="B411" t="s">
-        <v>412</v>
       </c>
       <c r="C411" t="s">
         <v>294</v>
@@ -7044,10 +7056,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
         <v>412</v>
-      </c>
-      <c r="B412" t="s">
-        <v>413</v>
       </c>
       <c r="C412" t="s">
         <v>294</v>
@@ -7055,10 +7067,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
         <v>413</v>
-      </c>
-      <c r="B413" t="s">
-        <v>414</v>
       </c>
       <c r="C413" t="s">
         <v>294</v>
@@ -7066,10 +7078,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
         <v>414</v>
-      </c>
-      <c r="B414" t="s">
-        <v>415</v>
       </c>
       <c r="C414" t="s">
         <v>294</v>
@@ -7077,10 +7089,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
         <v>415</v>
-      </c>
-      <c r="B415" t="s">
-        <v>416</v>
       </c>
       <c r="C415" t="s">
         <v>294</v>
@@ -7088,10 +7100,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
         <v>416</v>
-      </c>
-      <c r="B416" t="s">
-        <v>417</v>
       </c>
       <c r="C416" t="s">
         <v>294</v>
@@ -7099,10 +7111,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
         <v>417</v>
-      </c>
-      <c r="B417" t="s">
-        <v>418</v>
       </c>
       <c r="C417" t="s">
         <v>294</v>
@@ -7110,10 +7122,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
         <v>418</v>
-      </c>
-      <c r="B418" t="s">
-        <v>419</v>
       </c>
       <c r="C418" t="s">
         <v>294</v>
@@ -7121,10 +7133,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
         <v>419</v>
-      </c>
-      <c r="B419" t="s">
-        <v>420</v>
       </c>
       <c r="C419" t="s">
         <v>294</v>
@@ -7132,10 +7144,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
         <v>420</v>
-      </c>
-      <c r="B420" t="s">
-        <v>421</v>
       </c>
       <c r="C420" t="s">
         <v>294</v>
@@ -7143,10 +7155,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
         <v>421</v>
-      </c>
-      <c r="B421" t="s">
-        <v>422</v>
       </c>
       <c r="C421" t="s">
         <v>294</v>
@@ -7154,10 +7166,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
         <v>422</v>
-      </c>
-      <c r="B422" t="s">
-        <v>423</v>
       </c>
       <c r="C422" t="s">
         <v>294</v>
@@ -7165,10 +7177,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
         <v>423</v>
-      </c>
-      <c r="B423" t="s">
-        <v>424</v>
       </c>
       <c r="C423" t="s">
         <v>294</v>
@@ -7176,10 +7188,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
         <v>424</v>
-      </c>
-      <c r="B424" t="s">
-        <v>425</v>
       </c>
       <c r="C424" t="s">
         <v>294</v>
@@ -7187,10 +7199,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
         <v>425</v>
-      </c>
-      <c r="B425" t="s">
-        <v>426</v>
       </c>
       <c r="C425" t="s">
         <v>294</v>
@@ -7198,10 +7210,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
         <v>426</v>
-      </c>
-      <c r="B426" t="s">
-        <v>427</v>
       </c>
       <c r="C426" t="s">
         <v>294</v>
@@ -7209,10 +7221,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" t="s">
         <v>427</v>
-      </c>
-      <c r="B427" t="s">
-        <v>428</v>
       </c>
       <c r="C427" t="s">
         <v>294</v>
@@ -7220,10 +7232,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" t="s">
         <v>428</v>
-      </c>
-      <c r="B428" t="s">
-        <v>429</v>
       </c>
       <c r="C428" t="s">
         <v>294</v>
@@ -7231,10 +7243,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" t="s">
         <v>429</v>
-      </c>
-      <c r="B429" t="s">
-        <v>430</v>
       </c>
       <c r="C429" t="s">
         <v>294</v>
@@ -7242,10 +7254,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" t="s">
         <v>430</v>
-      </c>
-      <c r="B430" t="s">
-        <v>431</v>
       </c>
       <c r="C430" t="s">
         <v>294</v>
@@ -7253,10 +7265,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" t="s">
         <v>431</v>
-      </c>
-      <c r="B431" t="s">
-        <v>432</v>
       </c>
       <c r="C431" t="s">
         <v>294</v>
@@ -7264,10 +7276,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" t="s">
         <v>432</v>
-      </c>
-      <c r="B432" t="s">
-        <v>433</v>
       </c>
       <c r="C432" t="s">
         <v>294</v>
@@ -7275,10 +7287,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" t="s">
         <v>433</v>
-      </c>
-      <c r="B433" t="s">
-        <v>434</v>
       </c>
       <c r="C433" t="s">
         <v>294</v>
@@ -7286,10 +7298,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" t="s">
         <v>434</v>
-      </c>
-      <c r="B434" t="s">
-        <v>435</v>
       </c>
       <c r="C434" t="s">
         <v>294</v>
@@ -7297,10 +7309,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" t="s">
         <v>435</v>
-      </c>
-      <c r="B435" t="s">
-        <v>436</v>
       </c>
       <c r="C435" t="s">
         <v>294</v>
@@ -7308,10 +7320,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" t="s">
         <v>436</v>
-      </c>
-      <c r="B436" t="s">
-        <v>437</v>
       </c>
       <c r="C436" t="s">
         <v>294</v>
@@ -7319,10 +7331,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" t="s">
         <v>437</v>
-      </c>
-      <c r="B437" t="s">
-        <v>438</v>
       </c>
       <c r="C437" t="s">
         <v>294</v>
@@ -7330,10 +7342,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" t="s">
         <v>438</v>
-      </c>
-      <c r="B438" t="s">
-        <v>439</v>
       </c>
       <c r="C438" t="s">
         <v>294</v>
@@ -7341,10 +7353,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" t="s">
         <v>439</v>
-      </c>
-      <c r="B439" t="s">
-        <v>440</v>
       </c>
       <c r="C439" t="s">
         <v>294</v>
@@ -7352,10 +7364,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" t="s">
         <v>440</v>
-      </c>
-      <c r="B440" t="s">
-        <v>441</v>
       </c>
       <c r="C440" t="s">
         <v>294</v>
@@ -7363,10 +7375,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" t="s">
         <v>441</v>
-      </c>
-      <c r="B441" t="s">
-        <v>442</v>
       </c>
       <c r="C441" t="s">
         <v>294</v>
@@ -7374,10 +7386,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" t="s">
         <v>442</v>
-      </c>
-      <c r="B442" t="s">
-        <v>443</v>
       </c>
       <c r="C442" t="s">
         <v>294</v>
@@ -7385,10 +7397,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" t="s">
         <v>443</v>
-      </c>
-      <c r="B443" t="s">
-        <v>444</v>
       </c>
       <c r="C443" t="s">
         <v>294</v>
@@ -7396,10 +7408,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" t="s">
         <v>444</v>
-      </c>
-      <c r="B444" t="s">
-        <v>445</v>
       </c>
       <c r="C444" t="s">
         <v>294</v>
@@ -7407,10 +7419,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" t="s">
         <v>445</v>
-      </c>
-      <c r="B445" t="s">
-        <v>446</v>
       </c>
       <c r="C445" t="s">
         <v>294</v>
@@ -7418,10 +7430,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" t="s">
         <v>446</v>
-      </c>
-      <c r="B446" t="s">
-        <v>447</v>
       </c>
       <c r="C446" t="s">
         <v>294</v>
@@ -7429,10 +7441,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" t="s">
         <v>447</v>
-      </c>
-      <c r="B447" t="s">
-        <v>448</v>
       </c>
       <c r="C447" t="s">
         <v>294</v>
@@ -7440,10 +7452,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" t="s">
         <v>448</v>
-      </c>
-      <c r="B448" t="s">
-        <v>449</v>
       </c>
       <c r="C448" t="s">
         <v>294</v>
@@ -7451,10 +7463,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" t="s">
         <v>449</v>
-      </c>
-      <c r="B449" t="s">
-        <v>450</v>
       </c>
       <c r="C449" t="s">
         <v>294</v>
@@ -7462,10 +7474,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" t="s">
         <v>450</v>
-      </c>
-      <c r="B450" t="s">
-        <v>451</v>
       </c>
       <c r="C450" t="s">
         <v>294</v>
@@ -7473,10 +7485,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" t="s">
         <v>451</v>
-      </c>
-      <c r="B451" t="s">
-        <v>452</v>
       </c>
       <c r="C451" t="s">
         <v>294</v>
@@ -7484,10 +7496,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" t="s">
         <v>452</v>
-      </c>
-      <c r="B452" t="s">
-        <v>453</v>
       </c>
       <c r="C452" t="s">
         <v>294</v>
@@ -7495,10 +7507,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" t="s">
         <v>453</v>
-      </c>
-      <c r="B453" t="s">
-        <v>454</v>
       </c>
       <c r="C453" t="s">
         <v>294</v>
@@ -7506,10 +7518,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" t="s">
         <v>454</v>
-      </c>
-      <c r="B454" t="s">
-        <v>455</v>
       </c>
       <c r="C454" t="s">
         <v>294</v>
@@ -7517,10 +7529,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" t="s">
         <v>455</v>
-      </c>
-      <c r="B455" t="s">
-        <v>456</v>
       </c>
       <c r="C455" t="s">
         <v>294</v>
@@ -7528,10 +7540,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" t="s">
         <v>456</v>
-      </c>
-      <c r="B456" t="s">
-        <v>457</v>
       </c>
       <c r="C456" t="s">
         <v>294</v>
@@ -7539,10 +7551,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" t="s">
         <v>457</v>
-      </c>
-      <c r="B457" t="s">
-        <v>458</v>
       </c>
       <c r="C457" t="s">
         <v>294</v>
@@ -7550,10 +7562,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" t="s">
         <v>458</v>
-      </c>
-      <c r="B458" t="s">
-        <v>459</v>
       </c>
       <c r="C458" t="s">
         <v>294</v>
@@ -7561,10 +7573,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" t="s">
         <v>459</v>
-      </c>
-      <c r="B459" t="s">
-        <v>460</v>
       </c>
       <c r="C459" t="s">
         <v>294</v>
@@ -7572,10 +7584,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" t="s">
         <v>460</v>
-      </c>
-      <c r="B460" t="s">
-        <v>461</v>
       </c>
       <c r="C460" t="s">
         <v>294</v>
@@ -7583,10 +7595,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" t="s">
         <v>461</v>
-      </c>
-      <c r="B461" t="s">
-        <v>462</v>
       </c>
       <c r="C461" t="s">
         <v>294</v>
@@ -7594,10 +7606,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" t="s">
         <v>462</v>
-      </c>
-      <c r="B462" t="s">
-        <v>463</v>
       </c>
       <c r="C462" t="s">
         <v>294</v>
@@ -7605,10 +7617,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" t="s">
         <v>463</v>
-      </c>
-      <c r="B463" t="s">
-        <v>464</v>
       </c>
       <c r="C463" t="s">
         <v>294</v>
@@ -7616,10 +7628,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" t="s">
         <v>464</v>
-      </c>
-      <c r="B464" t="s">
-        <v>465</v>
       </c>
       <c r="C464" t="s">
         <v>294</v>
@@ -7627,10 +7639,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" t="s">
         <v>465</v>
-      </c>
-      <c r="B465" t="s">
-        <v>466</v>
       </c>
       <c r="C465" t="s">
         <v>294</v>
@@ -7638,10 +7650,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" t="s">
         <v>466</v>
-      </c>
-      <c r="B466" t="s">
-        <v>467</v>
       </c>
       <c r="C466" t="s">
         <v>294</v>
@@ -7649,10 +7661,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" t="s">
         <v>467</v>
-      </c>
-      <c r="B467" t="s">
-        <v>468</v>
       </c>
       <c r="C467" t="s">
         <v>294</v>
@@ -7660,10 +7672,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" t="s">
         <v>468</v>
-      </c>
-      <c r="B468" t="s">
-        <v>469</v>
       </c>
       <c r="C468" t="s">
         <v>294</v>
@@ -7671,10 +7683,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" t="s">
         <v>469</v>
-      </c>
-      <c r="B469" t="s">
-        <v>470</v>
       </c>
       <c r="C469" t="s">
         <v>294</v>
@@ -7682,10 +7694,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" t="s">
         <v>470</v>
-      </c>
-      <c r="B470" t="s">
-        <v>471</v>
       </c>
       <c r="C470" t="s">
         <v>294</v>
@@ -7693,10 +7705,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471" t="s">
         <v>471</v>
-      </c>
-      <c r="B471" t="s">
-        <v>472</v>
       </c>
       <c r="C471" t="s">
         <v>294</v>
@@ -7704,10 +7716,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472" t="s">
         <v>472</v>
-      </c>
-      <c r="B472" t="s">
-        <v>473</v>
       </c>
       <c r="C472" t="s">
         <v>294</v>
@@ -7715,10 +7727,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473" t="s">
         <v>473</v>
-      </c>
-      <c r="B473" t="s">
-        <v>474</v>
       </c>
       <c r="C473" t="s">
         <v>294</v>
@@ -7726,10 +7738,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474" t="s">
         <v>474</v>
-      </c>
-      <c r="B474" t="s">
-        <v>475</v>
       </c>
       <c r="C474" t="s">
         <v>294</v>
@@ -7737,10 +7749,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475" t="s">
         <v>475</v>
-      </c>
-      <c r="B475" t="s">
-        <v>476</v>
       </c>
       <c r="C475" t="s">
         <v>294</v>
@@ -7748,10 +7760,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476" t="s">
         <v>476</v>
-      </c>
-      <c r="B476" t="s">
-        <v>477</v>
       </c>
       <c r="C476" t="s">
         <v>294</v>
@@ -7759,10 +7771,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477" t="s">
         <v>477</v>
-      </c>
-      <c r="B477" t="s">
-        <v>478</v>
       </c>
       <c r="C477" t="s">
         <v>294</v>
@@ -7770,10 +7782,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478" t="s">
         <v>478</v>
-      </c>
-      <c r="B478" t="s">
-        <v>479</v>
       </c>
       <c r="C478" t="s">
         <v>294</v>
@@ -7781,10 +7793,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479" t="s">
         <v>479</v>
-      </c>
-      <c r="B479" t="s">
-        <v>480</v>
       </c>
       <c r="C479" t="s">
         <v>294</v>
@@ -7792,10 +7804,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480" t="s">
         <v>480</v>
-      </c>
-      <c r="B480" t="s">
-        <v>481</v>
       </c>
       <c r="C480" t="s">
         <v>294</v>
@@ -7803,10 +7815,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481" t="s">
         <v>481</v>
-      </c>
-      <c r="B481" t="s">
-        <v>482</v>
       </c>
       <c r="C481" t="s">
         <v>294</v>
@@ -7814,10 +7826,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482" t="s">
         <v>482</v>
-      </c>
-      <c r="B482" t="s">
-        <v>483</v>
       </c>
       <c r="C482" t="s">
         <v>294</v>
@@ -7825,10 +7837,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483" t="s">
         <v>483</v>
-      </c>
-      <c r="B483" t="s">
-        <v>484</v>
       </c>
       <c r="C483" t="s">
         <v>294</v>
@@ -7836,10 +7848,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484" t="s">
         <v>484</v>
-      </c>
-      <c r="B484" t="s">
-        <v>485</v>
       </c>
       <c r="C484" t="s">
         <v>294</v>
@@ -7847,10 +7859,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485" t="s">
         <v>485</v>
-      </c>
-      <c r="B485" t="s">
-        <v>486</v>
       </c>
       <c r="C485" t="s">
         <v>294</v>
@@ -7858,10 +7870,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486" t="s">
         <v>486</v>
-      </c>
-      <c r="B486" t="s">
-        <v>487</v>
       </c>
       <c r="C486" t="s">
         <v>294</v>
@@ -7869,10 +7881,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487" t="s">
         <v>487</v>
-      </c>
-      <c r="B487" t="s">
-        <v>488</v>
       </c>
       <c r="C487" t="s">
         <v>294</v>
@@ -7880,10 +7892,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488" t="s">
         <v>488</v>
-      </c>
-      <c r="B488" t="s">
-        <v>489</v>
       </c>
       <c r="C488" t="s">
         <v>294</v>
@@ -7891,10 +7903,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489" t="s">
         <v>489</v>
-      </c>
-      <c r="B489" t="s">
-        <v>490</v>
       </c>
       <c r="C489" t="s">
         <v>294</v>
@@ -7902,10 +7914,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490" t="s">
         <v>490</v>
-      </c>
-      <c r="B490" t="s">
-        <v>491</v>
       </c>
       <c r="C490" t="s">
         <v>294</v>
@@ -7913,10 +7925,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491" t="s">
         <v>491</v>
-      </c>
-      <c r="B491" t="s">
-        <v>492</v>
       </c>
       <c r="C491" t="s">
         <v>294</v>
@@ -7924,10 +7936,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492" t="s">
         <v>492</v>
-      </c>
-      <c r="B492" t="s">
-        <v>493</v>
       </c>
       <c r="C492" t="s">
         <v>294</v>
@@ -7935,10 +7947,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493" t="s">
         <v>493</v>
-      </c>
-      <c r="B493" t="s">
-        <v>494</v>
       </c>
       <c r="C493" t="s">
         <v>294</v>
@@ -7946,10 +7958,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494" t="s">
         <v>494</v>
-      </c>
-      <c r="B494" t="s">
-        <v>495</v>
       </c>
       <c r="C494" t="s">
         <v>294</v>
@@ -7957,10 +7969,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495" t="s">
         <v>495</v>
-      </c>
-      <c r="B495" t="s">
-        <v>496</v>
       </c>
       <c r="C495" t="s">
         <v>294</v>
@@ -7968,10 +7980,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496" t="s">
         <v>496</v>
-      </c>
-      <c r="B496" t="s">
-        <v>497</v>
       </c>
       <c r="C496" t="s">
         <v>294</v>
@@ -7979,10 +7991,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497" t="s">
         <v>497</v>
-      </c>
-      <c r="B497" t="s">
-        <v>498</v>
       </c>
       <c r="C497" t="s">
         <v>294</v>
@@ -7990,10 +8002,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498" t="s">
         <v>498</v>
-      </c>
-      <c r="B498" t="s">
-        <v>499</v>
       </c>
       <c r="C498" t="s">
         <v>294</v>
@@ -8001,10 +8013,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499" t="s">
         <v>499</v>
-      </c>
-      <c r="B499" t="s">
-        <v>500</v>
       </c>
       <c r="C499" t="s">
         <v>294</v>
@@ -8012,10 +8024,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500" t="s">
         <v>500</v>
-      </c>
-      <c r="B500" t="s">
-        <v>501</v>
       </c>
       <c r="C500" t="s">
         <v>294</v>
@@ -8023,10 +8035,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501" t="s">
         <v>501</v>
-      </c>
-      <c r="B501" t="s">
-        <v>502</v>
       </c>
       <c r="C501" t="s">
         <v>294</v>
@@ -8034,10 +8046,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="B502" t="s">
         <v>502</v>
-      </c>
-      <c r="B502" t="s">
-        <v>503</v>
       </c>
       <c r="C502" t="s">
         <v>294</v>
@@ -8045,10 +8057,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503" t="s">
         <v>503</v>
-      </c>
-      <c r="B503" t="s">
-        <v>504</v>
       </c>
       <c r="C503" t="s">
         <v>294</v>
@@ -8056,10 +8068,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504" t="s">
         <v>504</v>
-      </c>
-      <c r="B504" t="s">
-        <v>505</v>
       </c>
       <c r="C504" t="s">
         <v>294</v>
@@ -8067,10 +8079,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="B505" t="s">
         <v>505</v>
-      </c>
-      <c r="B505" t="s">
-        <v>506</v>
       </c>
       <c r="C505" t="s">
         <v>294</v>
@@ -8078,10 +8090,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="B506" t="s">
         <v>506</v>
-      </c>
-      <c r="B506" t="s">
-        <v>507</v>
       </c>
       <c r="C506" t="s">
         <v>294</v>
@@ -8089,10 +8101,10 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="B507" t="s">
         <v>507</v>
-      </c>
-      <c r="B507" t="s">
-        <v>508</v>
       </c>
       <c r="C507" t="s">
         <v>294</v>
@@ -8100,10 +8112,10 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="B508" t="s">
         <v>508</v>
-      </c>
-      <c r="B508" t="s">
-        <v>509</v>
       </c>
       <c r="C508" t="s">
         <v>294</v>
@@ -8111,10 +8123,10 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="B509" t="s">
         <v>509</v>
-      </c>
-      <c r="B509" t="s">
-        <v>510</v>
       </c>
       <c r="C509" t="s">
         <v>294</v>
@@ -8122,10 +8134,10 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="B510" t="s">
         <v>510</v>
-      </c>
-      <c r="B510" t="s">
-        <v>511</v>
       </c>
       <c r="C510" t="s">
         <v>294</v>
@@ -8133,10 +8145,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="B511" t="s">
         <v>511</v>
-      </c>
-      <c r="B511" t="s">
-        <v>512</v>
       </c>
       <c r="C511" t="s">
         <v>294</v>
@@ -8144,10 +8156,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="B512" t="s">
         <v>512</v>
-      </c>
-      <c r="B512" t="s">
-        <v>513</v>
       </c>
       <c r="C512" t="s">
         <v>294</v>
@@ -8155,10 +8167,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="B513" t="s">
         <v>513</v>
-      </c>
-      <c r="B513" t="s">
-        <v>514</v>
       </c>
       <c r="C513" t="s">
         <v>294</v>
@@ -8166,10 +8178,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="B514" t="s">
         <v>514</v>
-      </c>
-      <c r="B514" t="s">
-        <v>515</v>
       </c>
       <c r="C514" t="s">
         <v>294</v>
@@ -8177,10 +8189,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="B515" t="s">
         <v>515</v>
-      </c>
-      <c r="B515" t="s">
-        <v>516</v>
       </c>
       <c r="C515" t="s">
         <v>294</v>
@@ -8188,10 +8200,10 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="B516" t="s">
         <v>516</v>
-      </c>
-      <c r="B516" t="s">
-        <v>517</v>
       </c>
       <c r="C516" t="s">
         <v>294</v>
@@ -8199,10 +8211,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="B517" t="s">
         <v>517</v>
-      </c>
-      <c r="B517" t="s">
-        <v>518</v>
       </c>
       <c r="C517" t="s">
         <v>294</v>
@@ -8210,10 +8222,10 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="B518" t="s">
         <v>518</v>
-      </c>
-      <c r="B518" t="s">
-        <v>519</v>
       </c>
       <c r="C518" t="s">
         <v>294</v>
@@ -8221,10 +8233,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="B519" t="s">
         <v>519</v>
-      </c>
-      <c r="B519" t="s">
-        <v>520</v>
       </c>
       <c r="C519" t="s">
         <v>294</v>
@@ -8232,10 +8244,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="B520" t="s">
         <v>520</v>
-      </c>
-      <c r="B520" t="s">
-        <v>521</v>
       </c>
       <c r="C520" t="s">
         <v>294</v>
@@ -8243,10 +8255,10 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="B521" t="s">
         <v>521</v>
-      </c>
-      <c r="B521" t="s">
-        <v>522</v>
       </c>
       <c r="C521" t="s">
         <v>294</v>
@@ -8254,10 +8266,10 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="B522" t="s">
         <v>522</v>
-      </c>
-      <c r="B522" t="s">
-        <v>523</v>
       </c>
       <c r="C522" t="s">
         <v>294</v>
@@ -8265,10 +8277,10 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="B523" t="s">
         <v>523</v>
-      </c>
-      <c r="B523" t="s">
-        <v>524</v>
       </c>
       <c r="C523" t="s">
         <v>294</v>
@@ -8276,10 +8288,10 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="B524" t="s">
         <v>524</v>
-      </c>
-      <c r="B524" t="s">
-        <v>525</v>
       </c>
       <c r="C524" t="s">
         <v>294</v>
@@ -8287,10 +8299,10 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="B525" t="s">
         <v>525</v>
-      </c>
-      <c r="B525" t="s">
-        <v>526</v>
       </c>
       <c r="C525" t="s">
         <v>294</v>
@@ -8298,10 +8310,10 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="B526" t="s">
         <v>526</v>
-      </c>
-      <c r="B526" t="s">
-        <v>527</v>
       </c>
       <c r="C526" t="s">
         <v>294</v>
@@ -8309,10 +8321,10 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="B527" t="s">
         <v>527</v>
-      </c>
-      <c r="B527" t="s">
-        <v>528</v>
       </c>
       <c r="C527" t="s">
         <v>294</v>
@@ -8320,10 +8332,10 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="B528" t="s">
         <v>528</v>
-      </c>
-      <c r="B528" t="s">
-        <v>529</v>
       </c>
       <c r="C528" t="s">
         <v>294</v>
@@ -8331,10 +8343,10 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="B529" t="s">
         <v>529</v>
-      </c>
-      <c r="B529" t="s">
-        <v>530</v>
       </c>
       <c r="C529" t="s">
         <v>294</v>
@@ -8342,10 +8354,10 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="B530" t="s">
         <v>530</v>
-      </c>
-      <c r="B530" t="s">
-        <v>531</v>
       </c>
       <c r="C530" t="s">
         <v>294</v>
@@ -8353,10 +8365,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="B531" t="s">
         <v>531</v>
-      </c>
-      <c r="B531" t="s">
-        <v>532</v>
       </c>
       <c r="C531" t="s">
         <v>294</v>
@@ -8364,10 +8376,10 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="B532" t="s">
         <v>532</v>
-      </c>
-      <c r="B532" t="s">
-        <v>533</v>
       </c>
       <c r="C532" t="s">
         <v>294</v>
@@ -8375,10 +8387,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="B533" t="s">
         <v>533</v>
-      </c>
-      <c r="B533" t="s">
-        <v>534</v>
       </c>
       <c r="C533" t="s">
         <v>294</v>
@@ -8386,10 +8398,10 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="B534" t="s">
         <v>534</v>
-      </c>
-      <c r="B534" t="s">
-        <v>535</v>
       </c>
       <c r="C534" t="s">
         <v>294</v>
@@ -8397,10 +8409,10 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="B535" t="s">
         <v>535</v>
-      </c>
-      <c r="B535" t="s">
-        <v>536</v>
       </c>
       <c r="C535" t="s">
         <v>294</v>
@@ -8408,10 +8420,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="B536" t="s">
         <v>536</v>
-      </c>
-      <c r="B536" t="s">
-        <v>537</v>
       </c>
       <c r="C536" t="s">
         <v>294</v>
@@ -8419,10 +8431,10 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="B537" t="s">
         <v>537</v>
-      </c>
-      <c r="B537" t="s">
-        <v>538</v>
       </c>
       <c r="C537" t="s">
         <v>294</v>
@@ -8430,10 +8442,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538">
+        <v>537</v>
+      </c>
+      <c r="B538" t="s">
         <v>538</v>
-      </c>
-      <c r="B538" t="s">
-        <v>539</v>
       </c>
       <c r="C538" t="s">
         <v>294</v>
@@ -8441,10 +8453,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539">
+        <v>538</v>
+      </c>
+      <c r="B539" t="s">
         <v>539</v>
-      </c>
-      <c r="B539" t="s">
-        <v>540</v>
       </c>
       <c r="C539" t="s">
         <v>294</v>
@@ -8452,10 +8464,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540">
+        <v>539</v>
+      </c>
+      <c r="B540" t="s">
         <v>540</v>
-      </c>
-      <c r="B540" t="s">
-        <v>541</v>
       </c>
       <c r="C540" t="s">
         <v>294</v>
@@ -8463,10 +8475,10 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541">
+        <v>540</v>
+      </c>
+      <c r="B541" t="s">
         <v>541</v>
-      </c>
-      <c r="B541" t="s">
-        <v>542</v>
       </c>
       <c r="C541" t="s">
         <v>294</v>
@@ -8474,10 +8486,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542">
+        <v>541</v>
+      </c>
+      <c r="B542" t="s">
         <v>542</v>
-      </c>
-      <c r="B542" t="s">
-        <v>543</v>
       </c>
       <c r="C542" t="s">
         <v>294</v>
@@ -8485,10 +8497,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543">
+        <v>542</v>
+      </c>
+      <c r="B543" t="s">
         <v>543</v>
-      </c>
-      <c r="B543" t="s">
-        <v>544</v>
       </c>
       <c r="C543" t="s">
         <v>294</v>
@@ -8496,10 +8508,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544">
+        <v>543</v>
+      </c>
+      <c r="B544" t="s">
         <v>544</v>
-      </c>
-      <c r="B544" t="s">
-        <v>545</v>
       </c>
       <c r="C544" t="s">
         <v>294</v>
@@ -8507,10 +8519,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545">
+        <v>544</v>
+      </c>
+      <c r="B545" t="s">
         <v>545</v>
-      </c>
-      <c r="B545" t="s">
-        <v>546</v>
       </c>
       <c r="C545" t="s">
         <v>294</v>
@@ -8518,10 +8530,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546">
+        <v>545</v>
+      </c>
+      <c r="B546" t="s">
         <v>546</v>
-      </c>
-      <c r="B546" t="s">
-        <v>547</v>
       </c>
       <c r="C546" t="s">
         <v>294</v>
@@ -8529,10 +8541,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547">
+        <v>546</v>
+      </c>
+      <c r="B547" t="s">
         <v>547</v>
-      </c>
-      <c r="B547" t="s">
-        <v>548</v>
       </c>
       <c r="C547" t="s">
         <v>294</v>
@@ -8540,10 +8552,10 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548">
+        <v>547</v>
+      </c>
+      <c r="B548" t="s">
         <v>548</v>
-      </c>
-      <c r="B548" t="s">
-        <v>549</v>
       </c>
       <c r="C548" t="s">
         <v>294</v>
@@ -8551,10 +8563,10 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549">
+        <v>548</v>
+      </c>
+      <c r="B549" t="s">
         <v>549</v>
-      </c>
-      <c r="B549" t="s">
-        <v>550</v>
       </c>
       <c r="C549" t="s">
         <v>294</v>
@@ -8562,10 +8574,10 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550">
+        <v>549</v>
+      </c>
+      <c r="B550" t="s">
         <v>550</v>
-      </c>
-      <c r="B550" t="s">
-        <v>551</v>
       </c>
       <c r="C550" t="s">
         <v>294</v>
@@ -8573,10 +8585,10 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551">
+        <v>550</v>
+      </c>
+      <c r="B551" t="s">
         <v>551</v>
-      </c>
-      <c r="B551" t="s">
-        <v>552</v>
       </c>
       <c r="C551" t="s">
         <v>294</v>
@@ -8584,10 +8596,10 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552">
+        <v>551</v>
+      </c>
+      <c r="B552" t="s">
         <v>552</v>
-      </c>
-      <c r="B552" t="s">
-        <v>553</v>
       </c>
       <c r="C552" t="s">
         <v>294</v>
@@ -8595,10 +8607,10 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553">
+        <v>552</v>
+      </c>
+      <c r="B553" t="s">
         <v>553</v>
-      </c>
-      <c r="B553" t="s">
-        <v>554</v>
       </c>
       <c r="C553" t="s">
         <v>294</v>
@@ -8606,10 +8618,10 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554">
+        <v>553</v>
+      </c>
+      <c r="B554" t="s">
         <v>554</v>
-      </c>
-      <c r="B554" t="s">
-        <v>555</v>
       </c>
       <c r="C554" t="s">
         <v>294</v>
@@ -8617,10 +8629,10 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555">
+        <v>554</v>
+      </c>
+      <c r="B555" t="s">
         <v>555</v>
-      </c>
-      <c r="B555" t="s">
-        <v>556</v>
       </c>
       <c r="C555" t="s">
         <v>294</v>
@@ -8628,10 +8640,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556">
+        <v>555</v>
+      </c>
+      <c r="B556" t="s">
         <v>556</v>
-      </c>
-      <c r="B556" t="s">
-        <v>557</v>
       </c>
       <c r="C556" t="s">
         <v>294</v>
@@ -8639,10 +8651,10 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557">
+        <v>556</v>
+      </c>
+      <c r="B557" t="s">
         <v>557</v>
-      </c>
-      <c r="B557" t="s">
-        <v>558</v>
       </c>
       <c r="C557" t="s">
         <v>294</v>
@@ -8650,10 +8662,10 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558">
+        <v>557</v>
+      </c>
+      <c r="B558" t="s">
         <v>558</v>
-      </c>
-      <c r="B558" t="s">
-        <v>559</v>
       </c>
       <c r="C558" t="s">
         <v>294</v>
@@ -8661,10 +8673,10 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559">
+        <v>558</v>
+      </c>
+      <c r="B559" t="s">
         <v>559</v>
-      </c>
-      <c r="B559" t="s">
-        <v>560</v>
       </c>
       <c r="C559" t="s">
         <v>294</v>
@@ -8672,10 +8684,10 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560">
+        <v>559</v>
+      </c>
+      <c r="B560" t="s">
         <v>560</v>
-      </c>
-      <c r="B560" t="s">
-        <v>561</v>
       </c>
       <c r="C560" t="s">
         <v>294</v>
@@ -8683,10 +8695,10 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561">
+        <v>560</v>
+      </c>
+      <c r="B561" t="s">
         <v>561</v>
-      </c>
-      <c r="B561" t="s">
-        <v>562</v>
       </c>
       <c r="C561" t="s">
         <v>294</v>
@@ -8694,10 +8706,10 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="B562" t="s">
         <v>562</v>
-      </c>
-      <c r="B562" t="s">
-        <v>563</v>
       </c>
       <c r="C562" t="s">
         <v>294</v>
@@ -8705,10 +8717,10 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563">
+        <v>562</v>
+      </c>
+      <c r="B563" t="s">
         <v>563</v>
-      </c>
-      <c r="B563" t="s">
-        <v>564</v>
       </c>
       <c r="C563" t="s">
         <v>294</v>
@@ -8716,10 +8728,10 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564">
+        <v>563</v>
+      </c>
+      <c r="B564" t="s">
         <v>564</v>
-      </c>
-      <c r="B564" t="s">
-        <v>565</v>
       </c>
       <c r="C564" t="s">
         <v>294</v>
@@ -8727,10 +8739,10 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565">
+        <v>564</v>
+      </c>
+      <c r="B565" t="s">
         <v>565</v>
-      </c>
-      <c r="B565" t="s">
-        <v>566</v>
       </c>
       <c r="C565" t="s">
         <v>294</v>
@@ -8738,10 +8750,10 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566">
+        <v>565</v>
+      </c>
+      <c r="B566" t="s">
         <v>566</v>
-      </c>
-      <c r="B566" t="s">
-        <v>567</v>
       </c>
       <c r="C566" t="s">
         <v>294</v>
@@ -8749,10 +8761,10 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567">
+        <v>566</v>
+      </c>
+      <c r="B567" t="s">
         <v>567</v>
-      </c>
-      <c r="B567" t="s">
-        <v>568</v>
       </c>
       <c r="C567" t="s">
         <v>294</v>
@@ -8760,10 +8772,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568">
+        <v>567</v>
+      </c>
+      <c r="B568" t="s">
         <v>568</v>
-      </c>
-      <c r="B568" t="s">
-        <v>569</v>
       </c>
       <c r="C568" t="s">
         <v>294</v>
@@ -8771,10 +8783,10 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569">
+        <v>568</v>
+      </c>
+      <c r="B569" t="s">
         <v>569</v>
-      </c>
-      <c r="B569" t="s">
-        <v>570</v>
       </c>
       <c r="C569" t="s">
         <v>294</v>
@@ -8782,10 +8794,10 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570">
+        <v>569</v>
+      </c>
+      <c r="B570" t="s">
         <v>570</v>
-      </c>
-      <c r="B570" t="s">
-        <v>571</v>
       </c>
       <c r="C570" t="s">
         <v>294</v>
@@ -8793,10 +8805,10 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571">
+        <v>570</v>
+      </c>
+      <c r="B571" t="s">
         <v>571</v>
-      </c>
-      <c r="B571" t="s">
-        <v>572</v>
       </c>
       <c r="C571" t="s">
         <v>294</v>
@@ -8804,10 +8816,10 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572">
+        <v>571</v>
+      </c>
+      <c r="B572" t="s">
         <v>572</v>
-      </c>
-      <c r="B572" t="s">
-        <v>573</v>
       </c>
       <c r="C572" t="s">
         <v>294</v>
@@ -8815,10 +8827,10 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573">
+        <v>572</v>
+      </c>
+      <c r="B573" t="s">
         <v>573</v>
-      </c>
-      <c r="B573" t="s">
-        <v>574</v>
       </c>
       <c r="C573" t="s">
         <v>294</v>
@@ -8826,10 +8838,10 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574">
+        <v>573</v>
+      </c>
+      <c r="B574" t="s">
         <v>574</v>
-      </c>
-      <c r="B574" t="s">
-        <v>575</v>
       </c>
       <c r="C574" t="s">
         <v>294</v>
@@ -8837,10 +8849,10 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575">
+        <v>574</v>
+      </c>
+      <c r="B575" t="s">
         <v>575</v>
-      </c>
-      <c r="B575" t="s">
-        <v>576</v>
       </c>
       <c r="C575" t="s">
         <v>294</v>
@@ -8848,10 +8860,10 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576">
+        <v>575</v>
+      </c>
+      <c r="B576" t="s">
         <v>576</v>
-      </c>
-      <c r="B576" t="s">
-        <v>577</v>
       </c>
       <c r="C576" t="s">
         <v>294</v>
@@ -8859,10 +8871,10 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577">
+        <v>576</v>
+      </c>
+      <c r="B577" t="s">
         <v>577</v>
-      </c>
-      <c r="B577" t="s">
-        <v>578</v>
       </c>
       <c r="C577" t="s">
         <v>294</v>
@@ -8870,10 +8882,10 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578">
+        <v>577</v>
+      </c>
+      <c r="B578" t="s">
         <v>578</v>
-      </c>
-      <c r="B578" t="s">
-        <v>579</v>
       </c>
       <c r="C578" t="s">
         <v>294</v>
@@ -8881,10 +8893,10 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579">
+        <v>578</v>
+      </c>
+      <c r="B579" t="s">
         <v>579</v>
-      </c>
-      <c r="B579" t="s">
-        <v>580</v>
       </c>
       <c r="C579" t="s">
         <v>294</v>
@@ -8892,10 +8904,10 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580">
+        <v>579</v>
+      </c>
+      <c r="B580" t="s">
         <v>580</v>
-      </c>
-      <c r="B580" t="s">
-        <v>581</v>
       </c>
       <c r="C580" t="s">
         <v>294</v>
@@ -8903,10 +8915,10 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581">
+        <v>580</v>
+      </c>
+      <c r="B581" t="s">
         <v>581</v>
-      </c>
-      <c r="B581" t="s">
-        <v>582</v>
       </c>
       <c r="C581" t="s">
         <v>294</v>
@@ -8914,10 +8926,10 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="B582" t="s">
         <v>582</v>
-      </c>
-      <c r="B582" t="s">
-        <v>583</v>
       </c>
       <c r="C582" t="s">
         <v>294</v>
@@ -8925,10 +8937,10 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="B583" t="s">
         <v>583</v>
-      </c>
-      <c r="B583" t="s">
-        <v>584</v>
       </c>
       <c r="C583" t="s">
         <v>294</v>
@@ -8936,10 +8948,10 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="B584" t="s">
         <v>584</v>
-      </c>
-      <c r="B584" t="s">
-        <v>585</v>
       </c>
       <c r="C584" t="s">
         <v>294</v>
@@ -8947,10 +8959,10 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="B585" t="s">
         <v>585</v>
-      </c>
-      <c r="B585" t="s">
-        <v>586</v>
       </c>
       <c r="C585" t="s">
         <v>294</v>
@@ -8958,10 +8970,10 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586">
+        <v>585</v>
+      </c>
+      <c r="B586" t="s">
         <v>586</v>
-      </c>
-      <c r="B586" t="s">
-        <v>587</v>
       </c>
       <c r="C586" t="s">
         <v>294</v>
@@ -8969,10 +8981,10 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587">
+        <v>586</v>
+      </c>
+      <c r="B587" t="s">
         <v>587</v>
-      </c>
-      <c r="B587" t="s">
-        <v>588</v>
       </c>
       <c r="C587" t="s">
         <v>294</v>
@@ -8980,10 +8992,10 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588">
+        <v>587</v>
+      </c>
+      <c r="B588" t="s">
         <v>588</v>
-      </c>
-      <c r="B588" t="s">
-        <v>589</v>
       </c>
       <c r="C588" t="s">
         <v>294</v>
@@ -8991,10 +9003,10 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589">
+        <v>588</v>
+      </c>
+      <c r="B589" t="s">
         <v>589</v>
-      </c>
-      <c r="B589" t="s">
-        <v>590</v>
       </c>
       <c r="C589" t="s">
         <v>294</v>
@@ -9002,10 +9014,10 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590">
+        <v>589</v>
+      </c>
+      <c r="B590" t="s">
         <v>590</v>
-      </c>
-      <c r="B590" t="s">
-        <v>591</v>
       </c>
       <c r="C590" t="s">
         <v>294</v>
@@ -9013,10 +9025,10 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591">
+        <v>590</v>
+      </c>
+      <c r="B591" t="s">
         <v>591</v>
-      </c>
-      <c r="B591" t="s">
-        <v>592</v>
       </c>
       <c r="C591" t="s">
         <v>294</v>
@@ -9024,10 +9036,10 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592">
+        <v>591</v>
+      </c>
+      <c r="B592" t="s">
         <v>592</v>
-      </c>
-      <c r="B592" t="s">
-        <v>593</v>
       </c>
       <c r="C592" t="s">
         <v>294</v>
@@ -9035,10 +9047,10 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593">
+        <v>592</v>
+      </c>
+      <c r="B593" t="s">
         <v>593</v>
-      </c>
-      <c r="B593" t="s">
-        <v>594</v>
       </c>
       <c r="C593" t="s">
         <v>294</v>
@@ -9046,10 +9058,10 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594">
+        <v>593</v>
+      </c>
+      <c r="B594" t="s">
         <v>594</v>
-      </c>
-      <c r="B594" t="s">
-        <v>595</v>
       </c>
       <c r="C594" t="s">
         <v>294</v>
@@ -9057,10 +9069,10 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595">
+        <v>594</v>
+      </c>
+      <c r="B595" t="s">
         <v>595</v>
-      </c>
-      <c r="B595" t="s">
-        <v>596</v>
       </c>
       <c r="C595" t="s">
         <v>294</v>
@@ -9068,10 +9080,10 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596">
+        <v>595</v>
+      </c>
+      <c r="B596" t="s">
         <v>596</v>
-      </c>
-      <c r="B596" t="s">
-        <v>597</v>
       </c>
       <c r="C596" t="s">
         <v>294</v>
@@ -9079,10 +9091,10 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597">
+        <v>596</v>
+      </c>
+      <c r="B597" t="s">
         <v>597</v>
-      </c>
-      <c r="B597" t="s">
-        <v>598</v>
       </c>
       <c r="C597" t="s">
         <v>294</v>
@@ -9090,10 +9102,10 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598">
+        <v>597</v>
+      </c>
+      <c r="B598" t="s">
         <v>598</v>
-      </c>
-      <c r="B598" t="s">
-        <v>599</v>
       </c>
       <c r="C598" t="s">
         <v>294</v>
@@ -9101,10 +9113,10 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599">
+        <v>598</v>
+      </c>
+      <c r="B599" t="s">
         <v>599</v>
-      </c>
-      <c r="B599" t="s">
-        <v>600</v>
       </c>
       <c r="C599" t="s">
         <v>294</v>
@@ -9112,10 +9124,10 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600">
+        <v>599</v>
+      </c>
+      <c r="B600" t="s">
         <v>600</v>
-      </c>
-      <c r="B600" t="s">
-        <v>601</v>
       </c>
       <c r="C600" t="s">
         <v>294</v>
@@ -9123,10 +9135,10 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601">
+        <v>600</v>
+      </c>
+      <c r="B601" t="s">
         <v>601</v>
-      </c>
-      <c r="B601" t="s">
-        <v>602</v>
       </c>
       <c r="C601" t="s">
         <v>294</v>
@@ -9134,10 +9146,10 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602">
+        <v>601</v>
+      </c>
+      <c r="B602" t="s">
         <v>602</v>
-      </c>
-      <c r="B602" t="s">
-        <v>603</v>
       </c>
       <c r="C602" t="s">
         <v>294</v>
@@ -9145,10 +9157,10 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603">
+        <v>602</v>
+      </c>
+      <c r="B603" t="s">
         <v>603</v>
-      </c>
-      <c r="B603" t="s">
-        <v>604</v>
       </c>
       <c r="C603" t="s">
         <v>294</v>
@@ -9156,10 +9168,10 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604">
+        <v>603</v>
+      </c>
+      <c r="B604" t="s">
         <v>604</v>
-      </c>
-      <c r="B604" t="s">
-        <v>605</v>
       </c>
       <c r="C604" t="s">
         <v>294</v>
@@ -9167,10 +9179,10 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605">
+        <v>604</v>
+      </c>
+      <c r="B605" t="s">
         <v>605</v>
-      </c>
-      <c r="B605" t="s">
-        <v>606</v>
       </c>
       <c r="C605" t="s">
         <v>294</v>
@@ -9178,10 +9190,10 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606">
+        <v>605</v>
+      </c>
+      <c r="B606" t="s">
         <v>606</v>
-      </c>
-      <c r="B606" t="s">
-        <v>607</v>
       </c>
       <c r="C606" t="s">
         <v>294</v>
@@ -9189,10 +9201,10 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607">
+        <v>606</v>
+      </c>
+      <c r="B607" t="s">
         <v>607</v>
-      </c>
-      <c r="B607" t="s">
-        <v>608</v>
       </c>
       <c r="C607" t="s">
         <v>294</v>
@@ -9200,10 +9212,10 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608">
+        <v>607</v>
+      </c>
+      <c r="B608" t="s">
         <v>608</v>
-      </c>
-      <c r="B608" t="s">
-        <v>609</v>
       </c>
       <c r="C608" t="s">
         <v>294</v>
@@ -9211,10 +9223,10 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609">
+        <v>608</v>
+      </c>
+      <c r="B609" t="s">
         <v>609</v>
-      </c>
-      <c r="B609" t="s">
-        <v>610</v>
       </c>
       <c r="C609" t="s">
         <v>294</v>
@@ -9222,10 +9234,10 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610">
+        <v>609</v>
+      </c>
+      <c r="B610" t="s">
         <v>610</v>
-      </c>
-      <c r="B610" t="s">
-        <v>611</v>
       </c>
       <c r="C610" t="s">
         <v>294</v>
@@ -9233,10 +9245,10 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611">
+        <v>610</v>
+      </c>
+      <c r="B611" t="s">
         <v>611</v>
-      </c>
-      <c r="B611" t="s">
-        <v>612</v>
       </c>
       <c r="C611" t="s">
         <v>294</v>
@@ -9244,10 +9256,10 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612">
+        <v>611</v>
+      </c>
+      <c r="B612" t="s">
         <v>612</v>
-      </c>
-      <c r="B612" t="s">
-        <v>613</v>
       </c>
       <c r="C612" t="s">
         <v>294</v>
@@ -9255,10 +9267,10 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613">
+        <v>612</v>
+      </c>
+      <c r="B613" t="s">
         <v>613</v>
-      </c>
-      <c r="B613" t="s">
-        <v>614</v>
       </c>
       <c r="C613" t="s">
         <v>294</v>
@@ -9266,10 +9278,10 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614">
+        <v>613</v>
+      </c>
+      <c r="B614" t="s">
         <v>614</v>
-      </c>
-      <c r="B614" t="s">
-        <v>615</v>
       </c>
       <c r="C614" t="s">
         <v>294</v>
@@ -9277,10 +9289,10 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615">
+        <v>614</v>
+      </c>
+      <c r="B615" t="s">
         <v>615</v>
-      </c>
-      <c r="B615" t="s">
-        <v>616</v>
       </c>
       <c r="C615" t="s">
         <v>294</v>
@@ -9288,10 +9300,10 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616">
+        <v>615</v>
+      </c>
+      <c r="B616" t="s">
         <v>616</v>
-      </c>
-      <c r="B616" t="s">
-        <v>617</v>
       </c>
       <c r="C616" t="s">
         <v>294</v>
@@ -9299,10 +9311,10 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617">
+        <v>616</v>
+      </c>
+      <c r="B617" t="s">
         <v>617</v>
-      </c>
-      <c r="B617" t="s">
-        <v>618</v>
       </c>
       <c r="C617" t="s">
         <v>294</v>
@@ -9310,10 +9322,10 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618">
+        <v>617</v>
+      </c>
+      <c r="B618" t="s">
         <v>618</v>
-      </c>
-      <c r="B618" t="s">
-        <v>619</v>
       </c>
       <c r="C618" t="s">
         <v>294</v>
@@ -9321,10 +9333,10 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619">
+        <v>618</v>
+      </c>
+      <c r="B619" t="s">
         <v>619</v>
-      </c>
-      <c r="B619" t="s">
-        <v>620</v>
       </c>
       <c r="C619" t="s">
         <v>294</v>
@@ -9332,10 +9344,10 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620">
+        <v>619</v>
+      </c>
+      <c r="B620" t="s">
         <v>620</v>
-      </c>
-      <c r="B620" t="s">
-        <v>621</v>
       </c>
       <c r="C620" t="s">
         <v>294</v>
@@ -9343,10 +9355,10 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621">
+        <v>620</v>
+      </c>
+      <c r="B621" t="s">
         <v>621</v>
-      </c>
-      <c r="B621" t="s">
-        <v>622</v>
       </c>
       <c r="C621" t="s">
         <v>294</v>
@@ -9354,10 +9366,10 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622">
+        <v>621</v>
+      </c>
+      <c r="B622" t="s">
         <v>622</v>
-      </c>
-      <c r="B622" t="s">
-        <v>623</v>
       </c>
       <c r="C622" t="s">
         <v>294</v>
@@ -9365,10 +9377,10 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623">
+        <v>622</v>
+      </c>
+      <c r="B623" t="s">
         <v>623</v>
-      </c>
-      <c r="B623" t="s">
-        <v>624</v>
       </c>
       <c r="C623" t="s">
         <v>294</v>
@@ -9376,10 +9388,10 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624">
+        <v>623</v>
+      </c>
+      <c r="B624" t="s">
         <v>624</v>
-      </c>
-      <c r="B624" t="s">
-        <v>625</v>
       </c>
       <c r="C624" t="s">
         <v>294</v>
@@ -9387,10 +9399,10 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625">
+        <v>624</v>
+      </c>
+      <c r="B625" t="s">
         <v>625</v>
-      </c>
-      <c r="B625" t="s">
-        <v>626</v>
       </c>
       <c r="C625" t="s">
         <v>294</v>
@@ -9398,10 +9410,10 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626">
+        <v>625</v>
+      </c>
+      <c r="B626" t="s">
         <v>626</v>
-      </c>
-      <c r="B626" t="s">
-        <v>627</v>
       </c>
       <c r="C626" t="s">
         <v>294</v>
@@ -9409,10 +9421,10 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627">
+        <v>626</v>
+      </c>
+      <c r="B627" t="s">
         <v>627</v>
-      </c>
-      <c r="B627" t="s">
-        <v>628</v>
       </c>
       <c r="C627" t="s">
         <v>294</v>
@@ -9420,10 +9432,10 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628">
+        <v>627</v>
+      </c>
+      <c r="B628" t="s">
         <v>628</v>
-      </c>
-      <c r="B628" t="s">
-        <v>629</v>
       </c>
       <c r="C628" t="s">
         <v>294</v>
@@ -9431,10 +9443,10 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629">
+        <v>628</v>
+      </c>
+      <c r="B629" t="s">
         <v>629</v>
-      </c>
-      <c r="B629" t="s">
-        <v>630</v>
       </c>
       <c r="C629" t="s">
         <v>294</v>
@@ -9442,10 +9454,10 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630">
+        <v>629</v>
+      </c>
+      <c r="B630" t="s">
         <v>630</v>
-      </c>
-      <c r="B630" t="s">
-        <v>631</v>
       </c>
       <c r="C630" t="s">
         <v>294</v>
@@ -9453,10 +9465,10 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631">
+        <v>630</v>
+      </c>
+      <c r="B631" t="s">
         <v>631</v>
-      </c>
-      <c r="B631" t="s">
-        <v>632</v>
       </c>
       <c r="C631" t="s">
         <v>294</v>
@@ -9464,10 +9476,10 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632">
+        <v>631</v>
+      </c>
+      <c r="B632" t="s">
         <v>632</v>
-      </c>
-      <c r="B632" t="s">
-        <v>633</v>
       </c>
       <c r="C632" t="s">
         <v>294</v>
@@ -9475,10 +9487,10 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633">
+        <v>632</v>
+      </c>
+      <c r="B633" t="s">
         <v>633</v>
-      </c>
-      <c r="B633" t="s">
-        <v>634</v>
       </c>
       <c r="C633" t="s">
         <v>294</v>
@@ -9486,10 +9498,10 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634">
+        <v>633</v>
+      </c>
+      <c r="B634" t="s">
         <v>634</v>
-      </c>
-      <c r="B634" t="s">
-        <v>635</v>
       </c>
       <c r="C634" t="s">
         <v>294</v>
@@ -9497,10 +9509,10 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635">
+        <v>634</v>
+      </c>
+      <c r="B635" t="s">
         <v>635</v>
-      </c>
-      <c r="B635" t="s">
-        <v>636</v>
       </c>
       <c r="C635" t="s">
         <v>294</v>
@@ -9508,21 +9520,21 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636">
+        <v>635</v>
+      </c>
+      <c r="B636" t="s">
         <v>636</v>
       </c>
-      <c r="B636" t="s">
-        <v>637</v>
-      </c>
       <c r="C636" t="s">
-        <v>638</v>
+        <v>294</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637">
+        <v>636</v>
+      </c>
+      <c r="B637" t="s">
         <v>637</v>
-      </c>
-      <c r="B637" t="s">
-        <v>639</v>
       </c>
       <c r="C637" t="s">
         <v>638</v>
@@ -9530,10 +9542,10 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C638" t="s">
         <v>638</v>
@@ -9541,10 +9553,10 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C639" t="s">
         <v>638</v>
@@ -9552,10 +9564,10 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C640" t="s">
         <v>638</v>
@@ -9563,10 +9575,10 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C641" t="s">
         <v>638</v>
@@ -9574,10 +9586,10 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C642" t="s">
         <v>638</v>
@@ -9585,10 +9597,10 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C643" t="s">
         <v>638</v>
@@ -9596,10 +9608,10 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C644" t="s">
         <v>638</v>
@@ -9607,10 +9619,10 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C645" t="s">
         <v>638</v>
@@ -9618,10 +9630,10 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C646" t="s">
         <v>638</v>
@@ -9629,10 +9641,10 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C647" t="s">
         <v>638</v>
@@ -9640,10 +9652,10 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C648" t="s">
         <v>638</v>
@@ -9651,10 +9663,10 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C649" t="s">
         <v>638</v>
@@ -9662,10 +9674,10 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C650" t="s">
         <v>638</v>
@@ -9673,10 +9685,10 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C651" t="s">
         <v>638</v>
@@ -9684,10 +9696,10 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C652" t="s">
         <v>638</v>
@@ -9695,10 +9707,10 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C653" t="s">
         <v>638</v>
@@ -9706,10 +9718,10 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C654" t="s">
         <v>638</v>
@@ -9717,10 +9729,10 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C655" t="s">
         <v>638</v>
@@ -9728,10 +9740,10 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C656" t="s">
         <v>638</v>
@@ -9739,10 +9751,10 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C657" t="s">
         <v>638</v>
@@ -9750,10 +9762,10 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C658" t="s">
         <v>638</v>
@@ -9761,10 +9773,10 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C659" t="s">
         <v>638</v>
@@ -9772,10 +9784,10 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C660" t="s">
         <v>638</v>
@@ -9783,10 +9795,10 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C661" t="s">
         <v>638</v>
@@ -9794,10 +9806,10 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C662" t="s">
         <v>638</v>
@@ -9805,10 +9817,10 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C663" t="s">
         <v>638</v>
@@ -9816,10 +9828,10 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C664" t="s">
         <v>638</v>
@@ -9827,10 +9839,10 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C665" t="s">
         <v>638</v>
@@ -9838,10 +9850,10 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C666" t="s">
         <v>638</v>
@@ -9849,10 +9861,10 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C667" t="s">
         <v>638</v>
@@ -9860,10 +9872,10 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C668" t="s">
         <v>638</v>
@@ -9871,10 +9883,10 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C669" t="s">
         <v>638</v>
@@ -9882,10 +9894,10 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C670" t="s">
         <v>638</v>
@@ -9893,10 +9905,10 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C671" t="s">
         <v>638</v>
@@ -9904,10 +9916,10 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C672" t="s">
         <v>638</v>
@@ -9915,10 +9927,10 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C673" t="s">
         <v>638</v>
@@ -9926,10 +9938,10 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C674" t="s">
         <v>638</v>
@@ -9937,10 +9949,10 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C675" t="s">
         <v>638</v>
@@ -9948,10 +9960,10 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C676" t="s">
         <v>638</v>
@@ -9959,10 +9971,10 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C677" t="s">
         <v>638</v>
@@ -9970,10 +9982,10 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C678" t="s">
         <v>638</v>
@@ -9981,10 +9993,10 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C679" t="s">
         <v>638</v>
@@ -9992,10 +10004,10 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C680" t="s">
         <v>638</v>
@@ -10003,10 +10015,10 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C681" t="s">
         <v>638</v>
@@ -10014,10 +10026,10 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C682" t="s">
         <v>638</v>
@@ -10025,10 +10037,10 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C683" t="s">
         <v>638</v>
@@ -10036,10 +10048,10 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C684" t="s">
         <v>638</v>
@@ -10047,10 +10059,10 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C685" t="s">
         <v>638</v>
@@ -10058,10 +10070,10 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C686" t="s">
         <v>638</v>
@@ -10069,10 +10081,10 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C687" t="s">
         <v>638</v>
@@ -10080,10 +10092,10 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C688" t="s">
         <v>638</v>
@@ -10091,10 +10103,10 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C689" t="s">
         <v>638</v>
@@ -10102,10 +10114,10 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B690" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C690" t="s">
         <v>638</v>
@@ -10113,10 +10125,10 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C691" t="s">
         <v>638</v>
@@ -10124,10 +10136,10 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C692" t="s">
         <v>638</v>
@@ -10135,10 +10147,10 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C693" t="s">
         <v>638</v>
@@ -10146,10 +10158,10 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C694" t="s">
         <v>638</v>
@@ -10157,10 +10169,10 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C695" t="s">
         <v>638</v>
@@ -10168,10 +10180,10 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B696" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C696" t="s">
         <v>638</v>
@@ -10179,10 +10191,10 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C697" t="s">
         <v>638</v>
@@ -10190,10 +10202,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C698" t="s">
         <v>638</v>
@@ -10201,10 +10213,10 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C699" t="s">
         <v>638</v>
@@ -10212,10 +10224,10 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B700" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C700" t="s">
         <v>638</v>
@@ -10223,10 +10235,10 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C701" t="s">
         <v>638</v>
@@ -10234,10 +10246,10 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C702" t="s">
         <v>638</v>
@@ -10245,10 +10257,10 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B703" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C703" t="s">
         <v>638</v>
@@ -10256,10 +10268,10 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B704" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C704" t="s">
         <v>638</v>
@@ -10267,10 +10279,10 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C705" t="s">
         <v>638</v>
@@ -10278,10 +10290,10 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B706" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C706" t="s">
         <v>638</v>
@@ -10289,10 +10301,10 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B707" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C707" t="s">
         <v>638</v>
@@ -10300,10 +10312,10 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B708" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C708" t="s">
         <v>638</v>
@@ -10311,10 +10323,10 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B709" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C709" t="s">
         <v>638</v>
@@ -10322,10 +10334,10 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B710" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C710" t="s">
         <v>638</v>
@@ -10333,10 +10345,10 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B711" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C711" t="s">
         <v>638</v>
@@ -10344,10 +10356,10 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B712" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C712" t="s">
         <v>638</v>
@@ -10355,10 +10367,10 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B713" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C713" t="s">
         <v>638</v>
@@ -10366,10 +10378,10 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B714" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C714" t="s">
         <v>638</v>
@@ -10377,10 +10389,10 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B715" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C715" t="s">
         <v>638</v>
@@ -10388,10 +10400,10 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B716" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C716" t="s">
         <v>638</v>
@@ -10399,12 +10411,23 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717">
+        <v>716</v>
+      </c>
+      <c r="B717" t="s">
+        <v>718</v>
+      </c>
+      <c r="C717" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A718">
         <v>717</v>
       </c>
-      <c r="B717" t="s">
+      <c r="B718" t="s">
         <v>719</v>
       </c>
-      <c r="C717" t="s">
+      <c r="C718" t="s">
         <v>638</v>
       </c>
     </row>

--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="728">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -548,6 +548,9 @@
     <t>위치 기반</t>
   </si>
   <si>
+    <t>STT (Speech-to-text)</t>
+  </si>
+  <si>
     <t>유닛 테스트 (unit test)</t>
   </si>
   <si>
@@ -857,6 +860,9 @@
     <t>live encoder</t>
   </si>
   <si>
+    <t>MFCC (Mel-frequency cepstrum)</t>
+  </si>
+  <si>
     <t>mobile application</t>
   </si>
   <si>
@@ -1013,6 +1019,9 @@
     <t>루비 온 레일즈 (Ruby on Rails)</t>
   </si>
   <si>
+    <t>맥 (Mac OS)</t>
+  </si>
+  <si>
     <t>리눅스 (Linux)</t>
   </si>
   <si>
@@ -1523,6 +1532,9 @@
     <t>펄 (Perl)</t>
   </si>
   <si>
+    <t>포트란(Fortran)</t>
+  </si>
+  <si>
     <t>포스트맨 (Postman)</t>
   </si>
   <si>
@@ -1625,9 +1637,6 @@
     <t>Computer Telephony Integration (CTI)</t>
   </si>
   <si>
-    <t>CUDA</t>
-  </si>
-  <si>
     <t>CycleJs</t>
   </si>
   <si>
@@ -1799,9 +1808,6 @@
     <t>OpenVINO</t>
   </si>
   <si>
-    <t>Oracle</t>
-  </si>
-  <si>
     <t>overflow</t>
   </si>
   <si>
@@ -1826,9 +1832,6 @@
     <t>Theano</t>
   </si>
   <si>
-    <t>Pytorch</t>
-  </si>
-  <si>
     <t>Qt Framework</t>
   </si>
   <si>
@@ -2186,15 +2189,27 @@
     <t>xba</t>
   </si>
   <si>
+    <t>cURL</t>
+  </si>
+  <si>
     <t>representation_keyword_sn</t>
+  </si>
+  <si>
+    <t>representation_keyword</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>파이토치 (Pytorch)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>representation_keyword</t>
+    <t>오라클 (Oracle)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category</t>
+    <t>쿠다 (CUDA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2525,23 +2540,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C718"/>
+  <dimension ref="A1:C723"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="B537" sqref="B537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5764,7 +5779,7 @@
         <v>293</v>
       </c>
       <c r="C294" t="s">
-        <v>294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -5772,10 +5787,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C295" t="s">
-        <v>294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -5783,10 +5798,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C296" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -5797,7 +5812,7 @@
         <v>297</v>
       </c>
       <c r="C297" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -5808,7 +5823,7 @@
         <v>298</v>
       </c>
       <c r="C298" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -5819,7 +5834,7 @@
         <v>299</v>
       </c>
       <c r="C299" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -5830,7 +5845,7 @@
         <v>300</v>
       </c>
       <c r="C300" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -5841,7 +5856,7 @@
         <v>301</v>
       </c>
       <c r="C301" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -5852,7 +5867,7 @@
         <v>302</v>
       </c>
       <c r="C302" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -5863,7 +5878,7 @@
         <v>303</v>
       </c>
       <c r="C303" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -5874,7 +5889,7 @@
         <v>304</v>
       </c>
       <c r="C304" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -5885,7 +5900,7 @@
         <v>305</v>
       </c>
       <c r="C305" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -5896,7 +5911,7 @@
         <v>306</v>
       </c>
       <c r="C306" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -5907,7 +5922,7 @@
         <v>307</v>
       </c>
       <c r="C307" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -5918,7 +5933,7 @@
         <v>308</v>
       </c>
       <c r="C308" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -5929,7 +5944,7 @@
         <v>309</v>
       </c>
       <c r="C309" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -5940,7 +5955,7 @@
         <v>310</v>
       </c>
       <c r="C310" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -5951,7 +5966,7 @@
         <v>311</v>
       </c>
       <c r="C311" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -5962,7 +5977,7 @@
         <v>312</v>
       </c>
       <c r="C312" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -5973,7 +5988,7 @@
         <v>313</v>
       </c>
       <c r="C313" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -5984,7 +5999,7 @@
         <v>314</v>
       </c>
       <c r="C314" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -5995,7 +6010,7 @@
         <v>315</v>
       </c>
       <c r="C315" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -6006,7 +6021,7 @@
         <v>316</v>
       </c>
       <c r="C316" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -6017,7 +6032,7 @@
         <v>317</v>
       </c>
       <c r="C317" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -6028,7 +6043,7 @@
         <v>318</v>
       </c>
       <c r="C318" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -6039,7 +6054,7 @@
         <v>319</v>
       </c>
       <c r="C319" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -6050,7 +6065,7 @@
         <v>320</v>
       </c>
       <c r="C320" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -6061,7 +6076,7 @@
         <v>321</v>
       </c>
       <c r="C321" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -6072,7 +6087,7 @@
         <v>322</v>
       </c>
       <c r="C322" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -6083,7 +6098,7 @@
         <v>323</v>
       </c>
       <c r="C323" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -6094,7 +6109,7 @@
         <v>324</v>
       </c>
       <c r="C324" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -6105,7 +6120,7 @@
         <v>325</v>
       </c>
       <c r="C325" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -6116,7 +6131,7 @@
         <v>326</v>
       </c>
       <c r="C326" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -6127,7 +6142,7 @@
         <v>327</v>
       </c>
       <c r="C327" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -6138,7 +6153,7 @@
         <v>328</v>
       </c>
       <c r="C328" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -6149,7 +6164,7 @@
         <v>329</v>
       </c>
       <c r="C329" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -6160,7 +6175,7 @@
         <v>330</v>
       </c>
       <c r="C330" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -6171,7 +6186,7 @@
         <v>331</v>
       </c>
       <c r="C331" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -6182,7 +6197,7 @@
         <v>332</v>
       </c>
       <c r="C332" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -6193,7 +6208,7 @@
         <v>333</v>
       </c>
       <c r="C333" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -6204,7 +6219,7 @@
         <v>334</v>
       </c>
       <c r="C334" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -6215,7 +6230,7 @@
         <v>335</v>
       </c>
       <c r="C335" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -6226,7 +6241,7 @@
         <v>336</v>
       </c>
       <c r="C336" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -6237,7 +6252,7 @@
         <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -6248,7 +6263,7 @@
         <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -6259,7 +6274,7 @@
         <v>339</v>
       </c>
       <c r="C339" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -6270,7 +6285,7 @@
         <v>340</v>
       </c>
       <c r="C340" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -6281,7 +6296,7 @@
         <v>341</v>
       </c>
       <c r="C341" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -6292,7 +6307,7 @@
         <v>342</v>
       </c>
       <c r="C342" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -6303,7 +6318,7 @@
         <v>343</v>
       </c>
       <c r="C343" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -6314,7 +6329,7 @@
         <v>344</v>
       </c>
       <c r="C344" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -6325,7 +6340,7 @@
         <v>345</v>
       </c>
       <c r="C345" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -6336,7 +6351,7 @@
         <v>346</v>
       </c>
       <c r="C346" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -6347,7 +6362,7 @@
         <v>347</v>
       </c>
       <c r="C347" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -6358,7 +6373,7 @@
         <v>348</v>
       </c>
       <c r="C348" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -6369,7 +6384,7 @@
         <v>349</v>
       </c>
       <c r="C349" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -6380,7 +6395,7 @@
         <v>350</v>
       </c>
       <c r="C350" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -6391,7 +6406,7 @@
         <v>351</v>
       </c>
       <c r="C351" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -6402,7 +6417,7 @@
         <v>352</v>
       </c>
       <c r="C352" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -6413,7 +6428,7 @@
         <v>353</v>
       </c>
       <c r="C353" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -6424,7 +6439,7 @@
         <v>354</v>
       </c>
       <c r="C354" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -6435,7 +6450,7 @@
         <v>355</v>
       </c>
       <c r="C355" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -6446,7 +6461,7 @@
         <v>356</v>
       </c>
       <c r="C356" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -6457,7 +6472,7 @@
         <v>357</v>
       </c>
       <c r="C357" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -6468,7 +6483,7 @@
         <v>358</v>
       </c>
       <c r="C358" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -6479,7 +6494,7 @@
         <v>359</v>
       </c>
       <c r="C359" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -6490,7 +6505,7 @@
         <v>360</v>
       </c>
       <c r="C360" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -6501,7 +6516,7 @@
         <v>361</v>
       </c>
       <c r="C361" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -6512,7 +6527,7 @@
         <v>362</v>
       </c>
       <c r="C362" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -6523,7 +6538,7 @@
         <v>363</v>
       </c>
       <c r="C363" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -6534,7 +6549,7 @@
         <v>364</v>
       </c>
       <c r="C364" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -6545,7 +6560,7 @@
         <v>365</v>
       </c>
       <c r="C365" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -6556,7 +6571,7 @@
         <v>366</v>
       </c>
       <c r="C366" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -6567,7 +6582,7 @@
         <v>367</v>
       </c>
       <c r="C367" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -6578,7 +6593,7 @@
         <v>368</v>
       </c>
       <c r="C368" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -6589,7 +6604,7 @@
         <v>369</v>
       </c>
       <c r="C369" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -6600,7 +6615,7 @@
         <v>370</v>
       </c>
       <c r="C370" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -6611,7 +6626,7 @@
         <v>371</v>
       </c>
       <c r="C371" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -6622,7 +6637,7 @@
         <v>372</v>
       </c>
       <c r="C372" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -6633,7 +6648,7 @@
         <v>373</v>
       </c>
       <c r="C373" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -6644,7 +6659,7 @@
         <v>374</v>
       </c>
       <c r="C374" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -6655,7 +6670,7 @@
         <v>375</v>
       </c>
       <c r="C375" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -6666,7 +6681,7 @@
         <v>376</v>
       </c>
       <c r="C376" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -6677,7 +6692,7 @@
         <v>377</v>
       </c>
       <c r="C377" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -6688,7 +6703,7 @@
         <v>378</v>
       </c>
       <c r="C378" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -6699,7 +6714,7 @@
         <v>379</v>
       </c>
       <c r="C379" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -6710,7 +6725,7 @@
         <v>380</v>
       </c>
       <c r="C380" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -6721,7 +6736,7 @@
         <v>381</v>
       </c>
       <c r="C381" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -6732,7 +6747,7 @@
         <v>382</v>
       </c>
       <c r="C382" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -6743,7 +6758,7 @@
         <v>383</v>
       </c>
       <c r="C383" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -6754,7 +6769,7 @@
         <v>384</v>
       </c>
       <c r="C384" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6765,7 +6780,7 @@
         <v>385</v>
       </c>
       <c r="C385" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -6776,7 +6791,7 @@
         <v>386</v>
       </c>
       <c r="C386" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -6787,7 +6802,7 @@
         <v>387</v>
       </c>
       <c r="C387" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -6798,7 +6813,7 @@
         <v>388</v>
       </c>
       <c r="C388" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -6809,7 +6824,7 @@
         <v>389</v>
       </c>
       <c r="C389" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -6820,7 +6835,7 @@
         <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -6831,7 +6846,7 @@
         <v>391</v>
       </c>
       <c r="C391" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -6842,7 +6857,7 @@
         <v>392</v>
       </c>
       <c r="C392" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -6853,7 +6868,7 @@
         <v>393</v>
       </c>
       <c r="C393" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -6864,7 +6879,7 @@
         <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -6875,7 +6890,7 @@
         <v>395</v>
       </c>
       <c r="C395" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -6886,7 +6901,7 @@
         <v>396</v>
       </c>
       <c r="C396" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -6897,7 +6912,7 @@
         <v>397</v>
       </c>
       <c r="C397" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -6908,7 +6923,7 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -6919,7 +6934,7 @@
         <v>399</v>
       </c>
       <c r="C399" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -6930,7 +6945,7 @@
         <v>400</v>
       </c>
       <c r="C400" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -6941,7 +6956,7 @@
         <v>401</v>
       </c>
       <c r="C401" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -6952,7 +6967,7 @@
         <v>402</v>
       </c>
       <c r="C402" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -6963,7 +6978,7 @@
         <v>403</v>
       </c>
       <c r="C403" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -6974,7 +6989,7 @@
         <v>404</v>
       </c>
       <c r="C404" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -6985,7 +7000,7 @@
         <v>405</v>
       </c>
       <c r="C405" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -6996,7 +7011,7 @@
         <v>406</v>
       </c>
       <c r="C406" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -7007,7 +7022,7 @@
         <v>407</v>
       </c>
       <c r="C407" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -7018,7 +7033,7 @@
         <v>408</v>
       </c>
       <c r="C408" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -7029,7 +7044,7 @@
         <v>409</v>
       </c>
       <c r="C409" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -7040,7 +7055,7 @@
         <v>410</v>
       </c>
       <c r="C410" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -7051,7 +7066,7 @@
         <v>411</v>
       </c>
       <c r="C411" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -7062,7 +7077,7 @@
         <v>412</v>
       </c>
       <c r="C412" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -7073,7 +7088,7 @@
         <v>413</v>
       </c>
       <c r="C413" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -7084,7 +7099,7 @@
         <v>414</v>
       </c>
       <c r="C414" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -7095,7 +7110,7 @@
         <v>415</v>
       </c>
       <c r="C415" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -7106,7 +7121,7 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -7117,7 +7132,7 @@
         <v>417</v>
       </c>
       <c r="C417" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -7128,7 +7143,7 @@
         <v>418</v>
       </c>
       <c r="C418" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -7139,7 +7154,7 @@
         <v>419</v>
       </c>
       <c r="C419" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -7150,7 +7165,7 @@
         <v>420</v>
       </c>
       <c r="C420" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -7161,7 +7176,7 @@
         <v>421</v>
       </c>
       <c r="C421" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -7172,7 +7187,7 @@
         <v>422</v>
       </c>
       <c r="C422" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -7183,7 +7198,7 @@
         <v>423</v>
       </c>
       <c r="C423" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -7194,7 +7209,7 @@
         <v>424</v>
       </c>
       <c r="C424" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -7205,7 +7220,7 @@
         <v>425</v>
       </c>
       <c r="C425" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -7216,7 +7231,7 @@
         <v>426</v>
       </c>
       <c r="C426" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -7227,7 +7242,7 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -7238,7 +7253,7 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -7249,7 +7264,7 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -7260,7 +7275,7 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -7271,7 +7286,7 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -7282,7 +7297,7 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -7293,7 +7308,7 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -7304,7 +7319,7 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -7315,7 +7330,7 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -7326,7 +7341,7 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -7337,7 +7352,7 @@
         <v>437</v>
       </c>
       <c r="C437" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -7348,7 +7363,7 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -7359,7 +7374,7 @@
         <v>439</v>
       </c>
       <c r="C439" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -7370,7 +7385,7 @@
         <v>440</v>
       </c>
       <c r="C440" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -7381,7 +7396,7 @@
         <v>441</v>
       </c>
       <c r="C441" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -7392,7 +7407,7 @@
         <v>442</v>
       </c>
       <c r="C442" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -7403,7 +7418,7 @@
         <v>443</v>
       </c>
       <c r="C443" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -7414,7 +7429,7 @@
         <v>444</v>
       </c>
       <c r="C444" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -7425,7 +7440,7 @@
         <v>445</v>
       </c>
       <c r="C445" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -7436,7 +7451,7 @@
         <v>446</v>
       </c>
       <c r="C446" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -7447,7 +7462,7 @@
         <v>447</v>
       </c>
       <c r="C447" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -7458,7 +7473,7 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -7469,7 +7484,7 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -7480,7 +7495,7 @@
         <v>450</v>
       </c>
       <c r="C450" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -7491,7 +7506,7 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -7502,7 +7517,7 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -7513,7 +7528,7 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -7524,7 +7539,7 @@
         <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -7535,7 +7550,7 @@
         <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -7546,7 +7561,7 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -7557,7 +7572,7 @@
         <v>457</v>
       </c>
       <c r="C457" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -7568,7 +7583,7 @@
         <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -7579,7 +7594,7 @@
         <v>459</v>
       </c>
       <c r="C459" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -7590,7 +7605,7 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -7601,7 +7616,7 @@
         <v>461</v>
       </c>
       <c r="C461" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -7612,7 +7627,7 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -7623,7 +7638,7 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -7634,7 +7649,7 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -7645,7 +7660,7 @@
         <v>465</v>
       </c>
       <c r="C465" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -7656,7 +7671,7 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -7667,7 +7682,7 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -7678,7 +7693,7 @@
         <v>468</v>
       </c>
       <c r="C468" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -7689,7 +7704,7 @@
         <v>469</v>
       </c>
       <c r="C469" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -7700,7 +7715,7 @@
         <v>470</v>
       </c>
       <c r="C470" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -7711,7 +7726,7 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -7722,7 +7737,7 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -7733,7 +7748,7 @@
         <v>473</v>
       </c>
       <c r="C473" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -7744,7 +7759,7 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -7755,7 +7770,7 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -7766,7 +7781,7 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -7777,7 +7792,7 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -7788,7 +7803,7 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -7799,7 +7814,7 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -7810,7 +7825,7 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -7821,7 +7836,7 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -7832,7 +7847,7 @@
         <v>482</v>
       </c>
       <c r="C482" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -7843,7 +7858,7 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -7854,7 +7869,7 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -7865,7 +7880,7 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -7876,7 +7891,7 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -7887,7 +7902,7 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -7898,7 +7913,7 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -7909,7 +7924,7 @@
         <v>489</v>
       </c>
       <c r="C489" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -7920,7 +7935,7 @@
         <v>490</v>
       </c>
       <c r="C490" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -7931,7 +7946,7 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -7942,7 +7957,7 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -7953,7 +7968,7 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -7964,7 +7979,7 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -7975,7 +7990,7 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -7986,7 +8001,7 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -7997,7 +8012,7 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -8008,7 +8023,7 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -8019,7 +8034,7 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -8030,7 +8045,7 @@
         <v>500</v>
       </c>
       <c r="C500" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -8041,7 +8056,7 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -8052,7 +8067,7 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -8063,7 +8078,7 @@
         <v>503</v>
       </c>
       <c r="C503" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -8074,7 +8089,7 @@
         <v>504</v>
       </c>
       <c r="C504" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -8085,7 +8100,7 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -8096,7 +8111,7 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -8107,7 +8122,7 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -8118,7 +8133,7 @@
         <v>508</v>
       </c>
       <c r="C508" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -8129,7 +8144,7 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -8140,7 +8155,7 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -8151,7 +8166,7 @@
         <v>511</v>
       </c>
       <c r="C511" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -8162,7 +8177,7 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -8173,7 +8188,7 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -8184,7 +8199,7 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -8195,7 +8210,7 @@
         <v>515</v>
       </c>
       <c r="C515" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -8206,7 +8221,7 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -8217,7 +8232,7 @@
         <v>517</v>
       </c>
       <c r="C517" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -8228,7 +8243,7 @@
         <v>518</v>
       </c>
       <c r="C518" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -8239,7 +8254,7 @@
         <v>519</v>
       </c>
       <c r="C519" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -8250,7 +8265,7 @@
         <v>520</v>
       </c>
       <c r="C520" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -8261,7 +8276,7 @@
         <v>521</v>
       </c>
       <c r="C521" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -8272,7 +8287,7 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -8283,7 +8298,7 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -8294,7 +8309,7 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -8305,7 +8320,7 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -8316,7 +8331,7 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -8327,7 +8342,7 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -8338,7 +8353,7 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -8349,7 +8364,7 @@
         <v>529</v>
       </c>
       <c r="C529" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -8360,7 +8375,7 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -8371,7 +8386,7 @@
         <v>531</v>
       </c>
       <c r="C531" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -8382,7 +8397,7 @@
         <v>532</v>
       </c>
       <c r="C532" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -8393,7 +8408,7 @@
         <v>533</v>
       </c>
       <c r="C533" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -8404,7 +8419,7 @@
         <v>534</v>
       </c>
       <c r="C534" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -8415,7 +8430,7 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -8426,7 +8441,7 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -8434,10 +8449,10 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>537</v>
+        <v>727</v>
       </c>
       <c r="C537" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -8445,10 +8460,10 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C538" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -8456,10 +8471,10 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C539" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -8467,10 +8482,10 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C540" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -8478,10 +8493,10 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C541" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -8489,10 +8504,10 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C542" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -8500,10 +8515,10 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C543" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -8511,10 +8526,10 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C544" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -8522,10 +8537,10 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C545" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
@@ -8533,10 +8548,10 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C546" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -8544,10 +8559,10 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C547" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -8555,10 +8570,10 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C548" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
@@ -8566,10 +8581,10 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C549" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -8577,10 +8592,10 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C550" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -8588,10 +8603,10 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C551" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -8599,10 +8614,10 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C552" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
@@ -8610,10 +8625,10 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C553" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
@@ -8621,10 +8636,10 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C554" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -8632,10 +8647,10 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C555" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -8643,10 +8658,10 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C556" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -8654,10 +8669,10 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C557" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -8665,10 +8680,10 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C558" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -8676,10 +8691,10 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C559" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -8687,10 +8702,10 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C560" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -8698,10 +8713,10 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C561" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
@@ -8709,10 +8724,10 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C562" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -8720,10 +8735,10 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C563" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -8731,10 +8746,10 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C564" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -8742,10 +8757,10 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C565" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -8753,10 +8768,10 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C566" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
@@ -8764,10 +8779,10 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C567" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
@@ -8775,10 +8790,10 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C568" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
@@ -8786,10 +8801,10 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C569" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
@@ -8797,10 +8812,10 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C570" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -8808,10 +8823,10 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C571" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
@@ -8819,10 +8834,10 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C572" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
@@ -8830,10 +8845,10 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C573" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -8841,10 +8856,10 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C574" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
@@ -8852,10 +8867,10 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C575" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -8863,10 +8878,10 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C576" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -8874,10 +8889,10 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C577" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -8885,10 +8900,10 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C578" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -8896,10 +8911,10 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C579" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -8907,10 +8922,10 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C580" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -8918,10 +8933,10 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C581" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -8929,10 +8944,10 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C582" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -8940,10 +8955,10 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C583" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -8951,10 +8966,10 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C584" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -8962,10 +8977,10 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C585" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -8973,10 +8988,10 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C586" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
@@ -8984,10 +8999,10 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C587" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -8995,10 +9010,10 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C588" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -9006,10 +9021,10 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C589" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -9017,10 +9032,10 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C590" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
@@ -9028,10 +9043,10 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C591" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -9039,10 +9054,10 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C592" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -9050,10 +9065,10 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C593" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -9061,10 +9076,10 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C594" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -9072,10 +9087,10 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>595</v>
+        <v>726</v>
       </c>
       <c r="C595" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -9083,10 +9098,10 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C596" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -9094,10 +9109,10 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C597" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -9105,10 +9120,10 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C598" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -9116,10 +9131,10 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C599" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -9127,10 +9142,10 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C600" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -9138,10 +9153,10 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C601" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -9149,10 +9164,10 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C602" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -9160,10 +9175,10 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C603" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -9171,10 +9186,10 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>604</v>
+        <v>725</v>
       </c>
       <c r="C604" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -9182,10 +9197,10 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C605" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -9193,10 +9208,10 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C606" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -9204,10 +9219,10 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C607" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -9215,10 +9230,10 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C608" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -9226,10 +9241,10 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C609" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -9237,10 +9252,10 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C610" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -9248,10 +9263,10 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C611" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -9259,10 +9274,10 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C612" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -9270,10 +9285,10 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C613" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -9281,10 +9296,10 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C614" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -9292,10 +9307,10 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C615" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -9303,10 +9318,10 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C616" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -9314,10 +9329,10 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C617" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -9325,10 +9340,10 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C618" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -9336,10 +9351,10 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C619" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -9347,10 +9362,10 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C620" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -9358,10 +9373,10 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C621" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -9369,10 +9384,10 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C622" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -9380,10 +9395,10 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C623" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -9391,10 +9406,10 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C624" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -9402,10 +9417,10 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C625" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -9413,10 +9428,10 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C626" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -9424,10 +9439,10 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C627" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -9435,10 +9450,10 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C628" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -9446,10 +9461,10 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C629" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -9457,10 +9472,10 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C630" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -9468,10 +9483,10 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C631" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -9479,10 +9494,10 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C632" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -9490,10 +9505,10 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C633" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -9501,10 +9516,10 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C634" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -9512,10 +9527,10 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C635" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -9523,10 +9538,10 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C636" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -9534,10 +9549,10 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C637" t="s">
-        <v>638</v>
+        <v>296</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -9545,10 +9560,10 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C638" t="s">
-        <v>638</v>
+        <v>296</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -9556,10 +9571,10 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C639" t="s">
-        <v>638</v>
+        <v>296</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -9567,10 +9582,10 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C640" t="s">
-        <v>638</v>
+        <v>296</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -9578,10 +9593,10 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C641" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -9589,10 +9604,10 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C642" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -9600,10 +9615,10 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C643" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -9611,10 +9626,10 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C644" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -9622,10 +9637,10 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C645" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -9633,10 +9648,10 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C646" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -9644,10 +9659,10 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C647" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -9655,10 +9670,10 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C648" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -9666,10 +9681,10 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C649" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -9677,10 +9692,10 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C650" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -9688,10 +9703,10 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C651" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -9699,10 +9714,10 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C652" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -9710,10 +9725,10 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C653" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -9721,10 +9736,10 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C654" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -9732,10 +9747,10 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C655" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
@@ -9743,10 +9758,10 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C656" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -9754,10 +9769,10 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C657" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -9765,10 +9780,10 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C658" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -9776,10 +9791,10 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C659" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -9787,10 +9802,10 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C660" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -9798,10 +9813,10 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C661" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -9809,10 +9824,10 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C662" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -9820,10 +9835,10 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C663" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -9831,10 +9846,10 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C664" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -9842,10 +9857,10 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C665" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -9853,10 +9868,10 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C666" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -9864,10 +9879,10 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C667" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -9875,10 +9890,10 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C668" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -9886,10 +9901,10 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C669" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -9897,10 +9912,10 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C670" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -9908,10 +9923,10 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C671" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -9919,10 +9934,10 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C672" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -9930,10 +9945,10 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C673" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -9941,10 +9956,10 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C674" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -9952,10 +9967,10 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C675" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -9963,10 +9978,10 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C676" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -9974,10 +9989,10 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C677" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -9985,10 +10000,10 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C678" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -9996,10 +10011,10 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C679" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -10007,10 +10022,10 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C680" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -10018,10 +10033,10 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C681" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -10029,10 +10044,10 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C682" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -10040,10 +10055,10 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C683" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -10051,10 +10066,10 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C684" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -10062,10 +10077,10 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C685" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -10073,10 +10088,10 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C686" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -10084,10 +10099,10 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C687" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -10095,10 +10110,10 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C688" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -10106,10 +10121,10 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C689" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -10117,10 +10132,10 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C690" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -10128,10 +10143,10 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C691" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
@@ -10139,10 +10154,10 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C692" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -10150,10 +10165,10 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C693" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -10161,10 +10176,10 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C694" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -10172,10 +10187,10 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C695" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -10183,10 +10198,10 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C696" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
@@ -10194,10 +10209,10 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C697" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -10205,10 +10220,10 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C698" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
@@ -10216,10 +10231,10 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C699" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
@@ -10227,10 +10242,10 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C700" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
@@ -10238,10 +10253,10 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C701" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
@@ -10249,10 +10264,10 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C702" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
@@ -10260,10 +10275,10 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C703" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
@@ -10271,10 +10286,10 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C704" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
@@ -10282,10 +10297,10 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C705" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
@@ -10293,10 +10308,10 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C706" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
@@ -10304,10 +10319,10 @@
         <v>706</v>
       </c>
       <c r="B707" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C707" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
@@ -10315,10 +10330,10 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C708" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
@@ -10326,10 +10341,10 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C709" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
@@ -10337,10 +10352,10 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C710" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
@@ -10348,10 +10363,10 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C711" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
@@ -10359,10 +10374,10 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C712" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
@@ -10370,10 +10385,10 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C713" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
@@ -10381,10 +10396,10 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C714" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
@@ -10392,10 +10407,10 @@
         <v>714</v>
       </c>
       <c r="B715" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C715" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
@@ -10403,10 +10418,10 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C716" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
@@ -10414,10 +10429,10 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C717" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
@@ -10425,14 +10440,70 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
+        <v>716</v>
+      </c>
+      <c r="C718" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>718</v>
+      </c>
+      <c r="B719" t="s">
+        <v>717</v>
+      </c>
+      <c r="C719" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A720">
         <v>719</v>
       </c>
-      <c r="C718" t="s">
-        <v>638</v>
+      <c r="B720" t="s">
+        <v>718</v>
+      </c>
+      <c r="C720" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>720</v>
+      </c>
+      <c r="B721" t="s">
+        <v>719</v>
+      </c>
+      <c r="C721" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>721</v>
+      </c>
+      <c r="B722" t="s">
+        <v>720</v>
+      </c>
+      <c r="C722" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>722</v>
+      </c>
+      <c r="B723" t="s">
+        <v>721</v>
+      </c>
+      <c r="C723" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="783">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -221,6 +221,9 @@
     <t>멀티 스레드 (Multi-thread)</t>
   </si>
   <si>
+    <t>메시지 큐 (Message queue)</t>
+  </si>
+  <si>
     <t>멀티 플랫폼 (Multi-platform)</t>
   </si>
   <si>
@@ -275,6 +278,9 @@
     <t>방송 미들웨어</t>
   </si>
   <si>
+    <t>배포</t>
+  </si>
+  <si>
     <t>배포 자동화 (Continuous Deployment)</t>
   </si>
   <si>
@@ -296,6 +302,9 @@
     <t>보안 (Security)</t>
   </si>
   <si>
+    <t>부하분산 (Load balancing)</t>
+  </si>
+  <si>
     <t>분산 버전 관리 시스템 (DVCS)</t>
   </si>
   <si>
@@ -317,6 +326,9 @@
     <t>블록체인 (Block chain)</t>
   </si>
   <si>
+    <t>부하테스트</t>
+  </si>
+  <si>
     <t>비동기 처리 (Asynchronous)</t>
   </si>
   <si>
@@ -473,6 +485,9 @@
     <t>앱 제작</t>
   </si>
   <si>
+    <t>의존성 주입 (Dependency Injection)</t>
+  </si>
+  <si>
     <t>어드민 시스템 (admin system)</t>
   </si>
   <si>
@@ -482,13 +497,19 @@
     <t>어플리케이션 제작</t>
   </si>
   <si>
+    <t>웹 서버 (Web server)</t>
+  </si>
+  <si>
     <t>영상 분석</t>
   </si>
   <si>
     <t>영상 분할 (Segmentation)</t>
   </si>
   <si>
-    <t>영상 인식</t>
+    <t>영상 인식 (Recognition)</t>
+  </si>
+  <si>
+    <t>영상 정합 (Registration)</t>
   </si>
   <si>
     <t>예측 모델 개발</t>
@@ -497,6 +518,9 @@
     <t>오토 레이아웃 (Auto layout)</t>
   </si>
   <si>
+    <t>아두이노 (ARDUINO)</t>
+  </si>
+  <si>
     <t>오토 스케일링 (Auto scaling)</t>
   </si>
   <si>
@@ -560,6 +584,9 @@
     <t>응용 플랫폼 개발</t>
   </si>
   <si>
+    <t>의료 영상처리 (Medical imaging)</t>
+  </si>
+  <si>
     <t>의료영상저장전송시스템 (PACS)</t>
   </si>
   <si>
@@ -575,6 +602,9 @@
     <t>인공지능 (Artificial Intelligence)</t>
   </si>
   <si>
+    <t>오토마타 이론 (Automata Theory)</t>
+  </si>
+  <si>
     <t>임베디드 시스템</t>
   </si>
   <si>
@@ -671,6 +701,9 @@
     <t>클라우드 환경</t>
   </si>
   <si>
+    <t>크로미엄 (Chromium)</t>
+  </si>
+  <si>
     <t>클린 코드</t>
   </si>
   <si>
@@ -782,6 +815,9 @@
     <t>AutoML</t>
   </si>
   <si>
+    <t>Atomic Design Pattern</t>
+  </si>
+  <si>
     <t>BLE</t>
   </si>
   <si>
@@ -791,7 +827,10 @@
     <t>CI/CD</t>
   </si>
   <si>
-    <t>client-side</t>
+    <t>Client-side rendering (CSR)</t>
+  </si>
+  <si>
+    <t>Server-side rendering (SSR)</t>
   </si>
   <si>
     <t>Clustering</t>
@@ -809,7 +848,10 @@
     <t>dc/os</t>
   </si>
   <si>
-    <t>Digital image processing</t>
+    <t>영상처리 (Digital image processing)</t>
+  </si>
+  <si>
+    <t>자바 개발 키트 (JDK)</t>
   </si>
   <si>
     <t>Distributed Cloud</t>
@@ -821,6 +863,9 @@
     <t>esp32</t>
   </si>
   <si>
+    <t>함수형 컴포넌트 (Functional Component)</t>
+  </si>
+  <si>
     <t>Functional Programming</t>
   </si>
   <si>
@@ -839,12 +884,24 @@
     <t>GUI</t>
   </si>
   <si>
+    <t>pipeline</t>
+  </si>
+  <si>
     <t>GPU Programming (GPGPU)</t>
   </si>
   <si>
     <t>IaC (infrastructure as code)</t>
   </si>
   <si>
+    <t>Multi-programming</t>
+  </si>
+  <si>
+    <t>다중 모듈 프로그래밍 (Multi-module programming)</t>
+  </si>
+  <si>
+    <t>Multi-processing</t>
+  </si>
+  <si>
     <t>image enhancement</t>
   </si>
   <si>
@@ -854,9 +911,15 @@
     <t>IR</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
     <t>json</t>
   </si>
   <si>
+    <t>JSON Web Token (JWT)</t>
+  </si>
+  <si>
     <t>live encoder</t>
   </si>
   <si>
@@ -869,6 +932,12 @@
     <t>mobile player</t>
   </si>
   <si>
+    <t>Eureka</t>
+  </si>
+  <si>
+    <t>Netflix zuul</t>
+  </si>
+  <si>
     <t>MW</t>
   </si>
   <si>
@@ -887,6 +956,12 @@
     <t>sensor fusion</t>
   </si>
   <si>
+    <t>Android MVI (Model-View-Intent)</t>
+  </si>
+  <si>
+    <t>Android ROOM</t>
+  </si>
+  <si>
     <t>single-page application</t>
   </si>
   <si>
@@ -899,6 +974,12 @@
     <t>TCP</t>
   </si>
   <si>
+    <t>github action</t>
+  </si>
+  <si>
+    <t>NAVER Cloud Platform (NCP)</t>
+  </si>
+  <si>
     <t>Tracking</t>
   </si>
   <si>
@@ -908,6 +989,12 @@
     <t>W3C</t>
   </si>
   <si>
+    <t>정보보호관리체계 (ISMS)</t>
+  </si>
+  <si>
+    <t>클라우드 보안 인증제 (CSAP)</t>
+  </si>
+  <si>
     <t>web SDK</t>
   </si>
   <si>
@@ -950,6 +1037,9 @@
     <t>깃 (Git)</t>
   </si>
   <si>
+    <t>깃허브 (Github)</t>
+  </si>
+  <si>
     <t>깃랩 (GitLab)</t>
   </si>
   <si>
@@ -1034,6 +1124,15 @@
     <t>리액트 (ReactJS)</t>
   </si>
   <si>
+    <t>허드슨 (Hudson)</t>
+  </si>
+  <si>
+    <t>리액트-Helmet (React-Helmet)</t>
+  </si>
+  <si>
+    <t>리액트-Hooks (React-Hooks)</t>
+  </si>
+  <si>
     <t>리액트 Styled Components</t>
   </si>
   <si>
@@ -1112,6 +1211,15 @@
     <t>몽고 DB (MongoDB)</t>
   </si>
   <si>
+    <t>Visual Studio Code</t>
+  </si>
+  <si>
+    <t>Android studio</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
     <t>바벨 (Babel)</t>
   </si>
   <si>
@@ -1133,7 +1241,7 @@
     <t>사이킷런 (scikit-learn)</t>
   </si>
   <si>
-    <t>서버사이드 렌더링 (SSR)</t>
+    <t>서비스워커(Service Worker API)</t>
   </si>
   <si>
     <t>서브버전 (SVN, Subversion)</t>
@@ -1148,6 +1256,9 @@
     <t>쉘 스크립트 (Shell Script)</t>
   </si>
   <si>
+    <t>스벨트(Svelte)</t>
+  </si>
+  <si>
     <t>스웨거 (Swagger)</t>
   </si>
   <si>
@@ -1232,6 +1343,12 @@
     <t>심포니 (Symfony)</t>
   </si>
   <si>
+    <t>아나콘다 (Anaconda)</t>
+  </si>
+  <si>
+    <t>쥬피터 (Jupyter)</t>
+  </si>
+  <si>
     <t>아마존 관계형 데이터베이스 서비스 (Amazon RDS)</t>
   </si>
   <si>
@@ -1307,6 +1424,9 @@
     <t>아파치 HBase (Apache Hbase)</t>
   </si>
   <si>
+    <t>아파치 제이미터 (Apache JMeter)</t>
+  </si>
+  <si>
     <t>아파치 Ignite (Apache Ignite)</t>
   </si>
   <si>
@@ -1361,6 +1481,9 @@
     <t>오픈시프트 (OpenShift)</t>
   </si>
   <si>
+    <t>오픈스택 (OpenStack)</t>
+  </si>
+  <si>
     <t>오픈아이디 (OpenID)</t>
   </si>
   <si>
@@ -1370,6 +1493,9 @@
     <t>우분투 (Ubuntu)</t>
   </si>
   <si>
+    <t>아이오닉 (Ionic)</t>
+  </si>
+  <si>
     <t>워드프레스 (WordPress)</t>
   </si>
   <si>
@@ -1415,6 +1541,9 @@
     <t>자바스크립트 (Javascript)</t>
   </si>
   <si>
+    <t>자바서버 페이지 표준 태그 라이브러리 (JSTL)</t>
+  </si>
+  <si>
     <t>자연어 이해 (NLU, Natural Language Understanding)</t>
   </si>
   <si>
@@ -1430,9 +1559,6 @@
     <t>전자건강기록 (EMR)</t>
   </si>
   <si>
-    <t>정보보호관리체계 (ISMS)</t>
-  </si>
-  <si>
     <t>제우스 (JEUS)</t>
   </si>
   <si>
@@ -1616,6 +1742,9 @@
     <t>C언어</t>
   </si>
   <si>
+    <t>어셈블리어 (Assembly language)</t>
+  </si>
+  <si>
     <t>Caffe (Deep Learning Framework)</t>
   </si>
   <si>
@@ -1637,6 +1766,12 @@
     <t>Computer Telephony Integration (CTI)</t>
   </si>
   <si>
+    <t>cURL</t>
+  </si>
+  <si>
+    <t>쿠다 (CUDA)</t>
+  </si>
+  <si>
     <t>CycleJs</t>
   </si>
   <si>
@@ -1658,6 +1793,9 @@
     <t>EMCA 스크립트 (ECMAScript)</t>
   </si>
   <si>
+    <t>ES5 (ECMAScript5)</t>
+  </si>
+  <si>
     <t>ES6 (ECMAScript6)</t>
   </si>
   <si>
@@ -1700,7 +1838,7 @@
     <t>HashiCrop Vault</t>
   </si>
   <si>
-    <t>Highcharts</t>
+    <t>하이차트 (Highcharts)</t>
   </si>
   <si>
     <t>HTTP</t>
@@ -1718,6 +1856,9 @@
     <t>iOS</t>
   </si>
   <si>
+    <t>Jsoup</t>
+  </si>
+  <si>
     <t>JBoss</t>
   </si>
   <si>
@@ -1727,6 +1868,9 @@
     <t>JPA (Java Persistence API)</t>
   </si>
   <si>
+    <t>queryDSL</t>
+  </si>
+  <si>
     <t>Kendo UI</t>
   </si>
   <si>
@@ -1763,6 +1907,12 @@
     <t>MySQL</t>
   </si>
   <si>
+    <t>Gatsby</t>
+  </si>
+  <si>
+    <t>nGrinder</t>
+  </si>
+  <si>
     <t>NestJS</t>
   </si>
   <si>
@@ -1808,6 +1958,9 @@
     <t>OpenVINO</t>
   </si>
   <si>
+    <t>오라클 (Oracle)</t>
+  </si>
+  <si>
     <t>overflow</t>
   </si>
   <si>
@@ -1832,12 +1985,18 @@
     <t>Theano</t>
   </si>
   <si>
+    <t>파이토치 (Pytorch)</t>
+  </si>
+  <si>
     <t>Qt Framework</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>정규 표현식 (Regular expression)</t>
+  </si>
+  <si>
     <t>React Native</t>
   </si>
   <si>
@@ -1847,6 +2006,9 @@
     <t>Redash</t>
   </si>
   <si>
+    <t>SOAP (Simple Object Access Protocol)</t>
+  </si>
+  <si>
     <t>REST API</t>
   </si>
   <si>
@@ -1856,6 +2018,9 @@
     <t>RESTful API</t>
   </si>
   <si>
+    <t>Tint</t>
+  </si>
+  <si>
     <t>Retrofit</t>
   </si>
   <si>
@@ -1871,6 +2036,9 @@
     <t>Sass</t>
   </si>
   <si>
+    <t>Sas</t>
+  </si>
+  <si>
     <t>Scouter</t>
   </si>
   <si>
@@ -1895,6 +2063,9 @@
     <t>SQL</t>
   </si>
   <si>
+    <t>SQLite</t>
+  </si>
+  <si>
     <t>TensorRT</t>
   </si>
   <si>
@@ -1937,6 +2108,12 @@
     <t>Yarn</t>
   </si>
   <si>
+    <t>Alarm DB Logger Manager</t>
+  </si>
+  <si>
+    <t>Zabbix</t>
+  </si>
+  <si>
     <t>Z-Wave</t>
   </si>
   <si>
@@ -2189,9 +2366,6 @@
     <t>xba</t>
   </si>
   <si>
-    <t>cURL</t>
-  </si>
-  <si>
     <t>representation_keyword_sn</t>
   </si>
   <si>
@@ -2199,18 +2373,6 @@
   </si>
   <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>파이토치 (Pytorch)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오라클 (Oracle)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠다 (CUDA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2540,23 +2702,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C723"/>
+  <dimension ref="A1:C778"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="B537" sqref="B537"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>722</v>
+        <v>780</v>
       </c>
       <c r="B1" t="s">
-        <v>723</v>
+        <v>781</v>
       </c>
       <c r="C1" t="s">
-        <v>724</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5801,7 +5963,7 @@
         <v>295</v>
       </c>
       <c r="C296" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -5809,10 +5971,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C297" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -5820,10 +5982,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C298" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -5831,10 +5993,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C299" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -5842,10 +6004,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C300" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -5853,10 +6015,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C301" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -5864,10 +6026,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -5875,10 +6037,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C303" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -5886,10 +6048,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C304" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -5897,10 +6059,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C305" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -5908,10 +6070,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C306" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -5919,10 +6081,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C307" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -5930,10 +6092,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C308" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -5941,10 +6103,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C309" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -5952,10 +6114,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C310" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -5963,10 +6125,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C311" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -5974,10 +6136,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C312" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -5985,10 +6147,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -5996,10 +6158,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C314" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -6007,10 +6169,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -6018,10 +6180,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C316" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -6029,10 +6191,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -6040,10 +6202,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -6051,10 +6213,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -6062,10 +6224,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -6073,10 +6235,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -6084,10 +6246,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -6095,10 +6257,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -6106,10 +6268,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -6117,10 +6279,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -6131,7 +6293,7 @@
         <v>326</v>
       </c>
       <c r="C326" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -6142,7 +6304,7 @@
         <v>327</v>
       </c>
       <c r="C327" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -6153,7 +6315,7 @@
         <v>328</v>
       </c>
       <c r="C328" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -6164,7 +6326,7 @@
         <v>329</v>
       </c>
       <c r="C329" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -6175,7 +6337,7 @@
         <v>330</v>
       </c>
       <c r="C330" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -6186,7 +6348,7 @@
         <v>331</v>
       </c>
       <c r="C331" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -6197,7 +6359,7 @@
         <v>332</v>
       </c>
       <c r="C332" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -6208,7 +6370,7 @@
         <v>333</v>
       </c>
       <c r="C333" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -6219,7 +6381,7 @@
         <v>334</v>
       </c>
       <c r="C334" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -6230,7 +6392,7 @@
         <v>335</v>
       </c>
       <c r="C335" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -6241,7 +6403,7 @@
         <v>336</v>
       </c>
       <c r="C336" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -6252,7 +6414,7 @@
         <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -6263,7 +6425,7 @@
         <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -6274,7 +6436,7 @@
         <v>339</v>
       </c>
       <c r="C339" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -6285,7 +6447,7 @@
         <v>340</v>
       </c>
       <c r="C340" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -6296,7 +6458,7 @@
         <v>341</v>
       </c>
       <c r="C341" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -6307,7 +6469,7 @@
         <v>342</v>
       </c>
       <c r="C342" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -6318,7 +6480,7 @@
         <v>343</v>
       </c>
       <c r="C343" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -6329,7 +6491,7 @@
         <v>344</v>
       </c>
       <c r="C344" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -6340,7 +6502,7 @@
         <v>345</v>
       </c>
       <c r="C345" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -6351,7 +6513,7 @@
         <v>346</v>
       </c>
       <c r="C346" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -6362,7 +6524,7 @@
         <v>347</v>
       </c>
       <c r="C347" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -6373,7 +6535,7 @@
         <v>348</v>
       </c>
       <c r="C348" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -6384,7 +6546,7 @@
         <v>349</v>
       </c>
       <c r="C349" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -6395,7 +6557,7 @@
         <v>350</v>
       </c>
       <c r="C350" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -6406,7 +6568,7 @@
         <v>351</v>
       </c>
       <c r="C351" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -6417,7 +6579,7 @@
         <v>352</v>
       </c>
       <c r="C352" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -6428,7 +6590,7 @@
         <v>353</v>
       </c>
       <c r="C353" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -6439,7 +6601,7 @@
         <v>354</v>
       </c>
       <c r="C354" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -6450,7 +6612,7 @@
         <v>355</v>
       </c>
       <c r="C355" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -6461,7 +6623,7 @@
         <v>356</v>
       </c>
       <c r="C356" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -6472,7 +6634,7 @@
         <v>357</v>
       </c>
       <c r="C357" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -6483,7 +6645,7 @@
         <v>358</v>
       </c>
       <c r="C358" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -6494,7 +6656,7 @@
         <v>359</v>
       </c>
       <c r="C359" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -6505,7 +6667,7 @@
         <v>360</v>
       </c>
       <c r="C360" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -6516,7 +6678,7 @@
         <v>361</v>
       </c>
       <c r="C361" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -6527,7 +6689,7 @@
         <v>362</v>
       </c>
       <c r="C362" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -6538,7 +6700,7 @@
         <v>363</v>
       </c>
       <c r="C363" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -6549,7 +6711,7 @@
         <v>364</v>
       </c>
       <c r="C364" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -6560,7 +6722,7 @@
         <v>365</v>
       </c>
       <c r="C365" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -6571,7 +6733,7 @@
         <v>366</v>
       </c>
       <c r="C366" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -6582,7 +6744,7 @@
         <v>367</v>
       </c>
       <c r="C367" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -6593,7 +6755,7 @@
         <v>368</v>
       </c>
       <c r="C368" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -6604,7 +6766,7 @@
         <v>369</v>
       </c>
       <c r="C369" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -6615,7 +6777,7 @@
         <v>370</v>
       </c>
       <c r="C370" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -6626,7 +6788,7 @@
         <v>371</v>
       </c>
       <c r="C371" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -6637,7 +6799,7 @@
         <v>372</v>
       </c>
       <c r="C372" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -6648,7 +6810,7 @@
         <v>373</v>
       </c>
       <c r="C373" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -6659,7 +6821,7 @@
         <v>374</v>
       </c>
       <c r="C374" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -6670,7 +6832,7 @@
         <v>375</v>
       </c>
       <c r="C375" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -6681,7 +6843,7 @@
         <v>376</v>
       </c>
       <c r="C376" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -6692,7 +6854,7 @@
         <v>377</v>
       </c>
       <c r="C377" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -6703,7 +6865,7 @@
         <v>378</v>
       </c>
       <c r="C378" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -6714,7 +6876,7 @@
         <v>379</v>
       </c>
       <c r="C379" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -6725,7 +6887,7 @@
         <v>380</v>
       </c>
       <c r="C380" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -6736,7 +6898,7 @@
         <v>381</v>
       </c>
       <c r="C381" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -6747,7 +6909,7 @@
         <v>382</v>
       </c>
       <c r="C382" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -6758,7 +6920,7 @@
         <v>383</v>
       </c>
       <c r="C383" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -6769,7 +6931,7 @@
         <v>384</v>
       </c>
       <c r="C384" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6780,7 +6942,7 @@
         <v>385</v>
       </c>
       <c r="C385" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -6791,7 +6953,7 @@
         <v>386</v>
       </c>
       <c r="C386" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -6802,7 +6964,7 @@
         <v>387</v>
       </c>
       <c r="C387" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -6813,7 +6975,7 @@
         <v>388</v>
       </c>
       <c r="C388" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -6824,7 +6986,7 @@
         <v>389</v>
       </c>
       <c r="C389" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -6835,7 +6997,7 @@
         <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -6846,7 +7008,7 @@
         <v>391</v>
       </c>
       <c r="C391" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -6857,7 +7019,7 @@
         <v>392</v>
       </c>
       <c r="C392" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -6868,7 +7030,7 @@
         <v>393</v>
       </c>
       <c r="C393" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -6879,7 +7041,7 @@
         <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -6890,7 +7052,7 @@
         <v>395</v>
       </c>
       <c r="C395" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -6901,7 +7063,7 @@
         <v>396</v>
       </c>
       <c r="C396" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -6912,7 +7074,7 @@
         <v>397</v>
       </c>
       <c r="C397" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -6923,7 +7085,7 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -6934,7 +7096,7 @@
         <v>399</v>
       </c>
       <c r="C399" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -6945,7 +7107,7 @@
         <v>400</v>
       </c>
       <c r="C400" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -6956,7 +7118,7 @@
         <v>401</v>
       </c>
       <c r="C401" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -6967,7 +7129,7 @@
         <v>402</v>
       </c>
       <c r="C402" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -6978,7 +7140,7 @@
         <v>403</v>
       </c>
       <c r="C403" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -6989,7 +7151,7 @@
         <v>404</v>
       </c>
       <c r="C404" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -7000,7 +7162,7 @@
         <v>405</v>
       </c>
       <c r="C405" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -7011,7 +7173,7 @@
         <v>406</v>
       </c>
       <c r="C406" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -7022,7 +7184,7 @@
         <v>407</v>
       </c>
       <c r="C407" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -7033,7 +7195,7 @@
         <v>408</v>
       </c>
       <c r="C408" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -7044,7 +7206,7 @@
         <v>409</v>
       </c>
       <c r="C409" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -7055,7 +7217,7 @@
         <v>410</v>
       </c>
       <c r="C410" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -7066,7 +7228,7 @@
         <v>411</v>
       </c>
       <c r="C411" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -7077,7 +7239,7 @@
         <v>412</v>
       </c>
       <c r="C412" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -7088,7 +7250,7 @@
         <v>413</v>
       </c>
       <c r="C413" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -7099,7 +7261,7 @@
         <v>414</v>
       </c>
       <c r="C414" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -7110,7 +7272,7 @@
         <v>415</v>
       </c>
       <c r="C415" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -7121,7 +7283,7 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -7132,7 +7294,7 @@
         <v>417</v>
       </c>
       <c r="C417" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -7143,7 +7305,7 @@
         <v>418</v>
       </c>
       <c r="C418" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -7154,7 +7316,7 @@
         <v>419</v>
       </c>
       <c r="C419" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -7165,7 +7327,7 @@
         <v>420</v>
       </c>
       <c r="C420" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -7176,7 +7338,7 @@
         <v>421</v>
       </c>
       <c r="C421" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -7187,7 +7349,7 @@
         <v>422</v>
       </c>
       <c r="C422" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -7198,7 +7360,7 @@
         <v>423</v>
       </c>
       <c r="C423" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -7209,7 +7371,7 @@
         <v>424</v>
       </c>
       <c r="C424" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -7220,7 +7382,7 @@
         <v>425</v>
       </c>
       <c r="C425" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -7231,7 +7393,7 @@
         <v>426</v>
       </c>
       <c r="C426" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -7242,7 +7404,7 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -7253,7 +7415,7 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -7264,7 +7426,7 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -7275,7 +7437,7 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -7286,7 +7448,7 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -7297,7 +7459,7 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -7308,7 +7470,7 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -7319,7 +7481,7 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -7330,7 +7492,7 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -7341,7 +7503,7 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -7352,7 +7514,7 @@
         <v>437</v>
       </c>
       <c r="C437" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -7363,7 +7525,7 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -7374,7 +7536,7 @@
         <v>439</v>
       </c>
       <c r="C439" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -7385,7 +7547,7 @@
         <v>440</v>
       </c>
       <c r="C440" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -7396,7 +7558,7 @@
         <v>441</v>
       </c>
       <c r="C441" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -7407,7 +7569,7 @@
         <v>442</v>
       </c>
       <c r="C442" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -7418,7 +7580,7 @@
         <v>443</v>
       </c>
       <c r="C443" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -7429,7 +7591,7 @@
         <v>444</v>
       </c>
       <c r="C444" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -7440,7 +7602,7 @@
         <v>445</v>
       </c>
       <c r="C445" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -7451,7 +7613,7 @@
         <v>446</v>
       </c>
       <c r="C446" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -7462,7 +7624,7 @@
         <v>447</v>
       </c>
       <c r="C447" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -7473,7 +7635,7 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -7484,7 +7646,7 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -7495,7 +7657,7 @@
         <v>450</v>
       </c>
       <c r="C450" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -7506,7 +7668,7 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -7517,7 +7679,7 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -7528,7 +7690,7 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -7539,7 +7701,7 @@
         <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -7550,7 +7712,7 @@
         <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -7561,7 +7723,7 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -7572,7 +7734,7 @@
         <v>457</v>
       </c>
       <c r="C457" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -7583,7 +7745,7 @@
         <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -7594,7 +7756,7 @@
         <v>459</v>
       </c>
       <c r="C459" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -7605,7 +7767,7 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -7616,7 +7778,7 @@
         <v>461</v>
       </c>
       <c r="C461" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -7627,7 +7789,7 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -7638,7 +7800,7 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -7649,7 +7811,7 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -7660,7 +7822,7 @@
         <v>465</v>
       </c>
       <c r="C465" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -7671,7 +7833,7 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -7682,7 +7844,7 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -7693,7 +7855,7 @@
         <v>468</v>
       </c>
       <c r="C468" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -7704,7 +7866,7 @@
         <v>469</v>
       </c>
       <c r="C469" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -7715,7 +7877,7 @@
         <v>470</v>
       </c>
       <c r="C470" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -7726,7 +7888,7 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -7737,7 +7899,7 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -7748,7 +7910,7 @@
         <v>473</v>
       </c>
       <c r="C473" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -7759,7 +7921,7 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -7770,7 +7932,7 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -7781,7 +7943,7 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -7792,7 +7954,7 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -7803,7 +7965,7 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -7814,7 +7976,7 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -7825,7 +7987,7 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -7836,7 +7998,7 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -7847,7 +8009,7 @@
         <v>482</v>
       </c>
       <c r="C482" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -7858,7 +8020,7 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -7869,7 +8031,7 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -7880,7 +8042,7 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -7891,7 +8053,7 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -7902,7 +8064,7 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -7913,7 +8075,7 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -7924,7 +8086,7 @@
         <v>489</v>
       </c>
       <c r="C489" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -7935,7 +8097,7 @@
         <v>490</v>
       </c>
       <c r="C490" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -7946,7 +8108,7 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -7957,7 +8119,7 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -7968,7 +8130,7 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -7979,7 +8141,7 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -7990,7 +8152,7 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -8001,7 +8163,7 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -8012,7 +8174,7 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -8023,7 +8185,7 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -8034,7 +8196,7 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -8045,7 +8207,7 @@
         <v>500</v>
       </c>
       <c r="C500" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -8056,7 +8218,7 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -8067,7 +8229,7 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -8078,7 +8240,7 @@
         <v>503</v>
       </c>
       <c r="C503" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -8089,7 +8251,7 @@
         <v>504</v>
       </c>
       <c r="C504" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -8100,7 +8262,7 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -8111,7 +8273,7 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -8122,7 +8284,7 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -8133,7 +8295,7 @@
         <v>508</v>
       </c>
       <c r="C508" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -8144,7 +8306,7 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -8155,7 +8317,7 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -8166,7 +8328,7 @@
         <v>511</v>
       </c>
       <c r="C511" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -8177,7 +8339,7 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -8188,7 +8350,7 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -8199,7 +8361,7 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -8210,7 +8372,7 @@
         <v>515</v>
       </c>
       <c r="C515" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -8221,7 +8383,7 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -8232,7 +8394,7 @@
         <v>517</v>
       </c>
       <c r="C517" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -8243,7 +8405,7 @@
         <v>518</v>
       </c>
       <c r="C518" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -8254,7 +8416,7 @@
         <v>519</v>
       </c>
       <c r="C519" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -8265,7 +8427,7 @@
         <v>520</v>
       </c>
       <c r="C520" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -8276,7 +8438,7 @@
         <v>521</v>
       </c>
       <c r="C521" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -8287,7 +8449,7 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -8298,7 +8460,7 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -8309,7 +8471,7 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -8320,7 +8482,7 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -8331,7 +8493,7 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -8342,7 +8504,7 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -8353,7 +8515,7 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -8364,7 +8526,7 @@
         <v>529</v>
       </c>
       <c r="C529" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -8375,7 +8537,7 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -8386,7 +8548,7 @@
         <v>531</v>
       </c>
       <c r="C531" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -8397,7 +8559,7 @@
         <v>532</v>
       </c>
       <c r="C532" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -8408,7 +8570,7 @@
         <v>533</v>
       </c>
       <c r="C533" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -8419,7 +8581,7 @@
         <v>534</v>
       </c>
       <c r="C534" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -8430,7 +8592,7 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -8441,7 +8603,7 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -8449,10 +8611,10 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>727</v>
+        <v>537</v>
       </c>
       <c r="C537" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -8460,10 +8622,10 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C538" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -8471,10 +8633,10 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C539" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -8482,10 +8644,10 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C540" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -8493,10 +8655,10 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C541" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -8504,10 +8666,10 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C542" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -8515,10 +8677,10 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C543" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -8526,10 +8688,10 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -8537,10 +8699,10 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C545" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
@@ -8548,10 +8710,10 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C546" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -8559,10 +8721,10 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C547" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -8570,10 +8732,10 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C548" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
@@ -8581,10 +8743,10 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C549" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -8592,10 +8754,10 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C550" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -8603,10 +8765,10 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C551" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -8614,10 +8776,10 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C552" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
@@ -8625,10 +8787,10 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C553" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
@@ -8636,10 +8798,10 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C554" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -8647,10 +8809,10 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C555" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -8658,10 +8820,10 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C556" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -8669,10 +8831,10 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C557" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -8680,10 +8842,10 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C558" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -8691,10 +8853,10 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C559" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -8702,10 +8864,10 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C560" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -8713,10 +8875,10 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C561" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
@@ -8724,10 +8886,10 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C562" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -8735,10 +8897,10 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C563" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -8746,10 +8908,10 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C564" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -8757,10 +8919,10 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C565" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -8768,10 +8930,10 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C566" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
@@ -8779,10 +8941,10 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C567" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
@@ -8790,10 +8952,10 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C568" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
@@ -8801,10 +8963,10 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C569" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
@@ -8812,10 +8974,10 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C570" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -8823,10 +8985,10 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C571" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
@@ -8834,10 +8996,10 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C572" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
@@ -8845,10 +9007,10 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C573" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -8856,10 +9018,10 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C574" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
@@ -8867,10 +9029,10 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C575" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -8878,10 +9040,10 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C576" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -8889,10 +9051,10 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C577" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -8900,10 +9062,10 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C578" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -8911,10 +9073,10 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C579" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -8922,10 +9084,10 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C580" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -8933,10 +9095,10 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C581" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -8944,10 +9106,10 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C582" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -8955,10 +9117,10 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C583" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -8966,10 +9128,10 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C584" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -8977,10 +9139,10 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C585" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -8988,10 +9150,10 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C586" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
@@ -8999,10 +9161,10 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C587" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -9010,10 +9172,10 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C588" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -9021,10 +9183,10 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C589" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -9032,10 +9194,10 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C590" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
@@ -9043,10 +9205,10 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C591" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -9054,10 +9216,10 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C592" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -9065,10 +9227,10 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C593" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -9076,10 +9238,10 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C594" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -9087,10 +9249,10 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>726</v>
+        <v>595</v>
       </c>
       <c r="C595" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -9098,10 +9260,10 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C596" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -9109,10 +9271,10 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C597" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -9120,10 +9282,10 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C598" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -9131,10 +9293,10 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C599" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -9142,10 +9304,10 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C600" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -9153,10 +9315,10 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C601" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -9164,10 +9326,10 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C602" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -9175,10 +9337,10 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C603" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -9186,10 +9348,10 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>725</v>
+        <v>604</v>
       </c>
       <c r="C604" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -9197,10 +9359,10 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C605" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -9208,10 +9370,10 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C606" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -9219,10 +9381,10 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C607" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -9230,10 +9392,10 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C608" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -9241,10 +9403,10 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C609" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -9252,10 +9414,10 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C610" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -9263,10 +9425,10 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C611" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -9274,10 +9436,10 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C612" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -9285,10 +9447,10 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C613" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -9296,10 +9458,10 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C614" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -9307,10 +9469,10 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C615" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -9318,10 +9480,10 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C616" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -9329,10 +9491,10 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C617" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -9340,10 +9502,10 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C618" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -9351,10 +9513,10 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C619" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -9362,10 +9524,10 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C620" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -9373,10 +9535,10 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C621" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -9384,10 +9546,10 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C622" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -9395,10 +9557,10 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C623" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -9406,10 +9568,10 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C624" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -9417,10 +9579,10 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C625" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -9428,10 +9590,10 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C626" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -9439,10 +9601,10 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C627" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -9450,10 +9612,10 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C628" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -9461,10 +9623,10 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C629" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -9472,10 +9634,10 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C630" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -9483,10 +9645,10 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C631" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -9494,10 +9656,10 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C632" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -9505,10 +9667,10 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C633" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -9516,10 +9678,10 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C634" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -9527,10 +9689,10 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C635" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -9538,10 +9700,10 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C636" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -9549,10 +9711,10 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C637" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -9560,10 +9722,10 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C638" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -9571,10 +9733,10 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C639" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -9582,10 +9744,10 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C640" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -9593,10 +9755,10 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C641" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -9604,10 +9766,10 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C642" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -9615,10 +9777,10 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C643" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -9626,10 +9788,10 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C644" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -9637,10 +9799,10 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C645" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -9648,10 +9810,10 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C646" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -9659,10 +9821,10 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C647" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -9670,10 +9832,10 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C648" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -9681,10 +9843,10 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C649" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -9692,10 +9854,10 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C650" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -9703,10 +9865,10 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C651" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -9714,10 +9876,10 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C652" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -9725,10 +9887,10 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C653" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -9736,10 +9898,10 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C654" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -9747,10 +9909,10 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C655" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
@@ -9758,10 +9920,10 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C656" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -9769,10 +9931,10 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C657" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -9780,10 +9942,10 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C658" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -9791,10 +9953,10 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C659" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -9802,10 +9964,10 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C660" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -9813,10 +9975,10 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C661" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -9824,10 +9986,10 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C662" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -9835,10 +9997,10 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C663" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -9846,10 +10008,10 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C664" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -9857,10 +10019,10 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C665" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -9868,10 +10030,10 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C666" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -9879,10 +10041,10 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C667" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -9890,10 +10052,10 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C668" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -9901,10 +10063,10 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C669" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -9912,10 +10074,10 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C670" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -9923,10 +10085,10 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C671" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -9934,10 +10096,10 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C672" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -9945,10 +10107,10 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C673" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -9956,10 +10118,10 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C674" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -9967,10 +10129,10 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C675" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -9978,10 +10140,10 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C676" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -9989,10 +10151,10 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C677" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -10000,10 +10162,10 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C678" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -10011,10 +10173,10 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C679" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -10022,10 +10184,10 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C680" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -10033,10 +10195,10 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C681" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -10044,10 +10206,10 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C682" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -10055,10 +10217,10 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C683" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -10066,10 +10228,10 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C684" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -10077,10 +10239,10 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C685" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -10088,10 +10250,10 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C686" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -10099,10 +10261,10 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C687" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -10110,10 +10272,10 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C688" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -10121,10 +10283,10 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C689" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -10132,10 +10294,10 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C690" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -10143,10 +10305,10 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C691" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
@@ -10154,10 +10316,10 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C692" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -10165,10 +10327,10 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C693" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -10176,10 +10338,10 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C694" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -10187,10 +10349,10 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C695" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -10198,10 +10360,10 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C696" t="s">
-        <v>639</v>
+        <v>325</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
@@ -10209,10 +10371,10 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C697" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -10220,10 +10382,10 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C698" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
@@ -10231,10 +10393,10 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C699" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
@@ -10242,10 +10404,10 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
+        <v>701</v>
+      </c>
+      <c r="C700" t="s">
         <v>698</v>
-      </c>
-      <c r="C700" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
@@ -10253,10 +10415,10 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C701" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
@@ -10264,10 +10426,10 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C702" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
@@ -10275,10 +10437,10 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C703" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
@@ -10286,10 +10448,10 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C704" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
@@ -10297,10 +10459,10 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C705" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
@@ -10308,10 +10470,10 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C706" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
@@ -10319,10 +10481,10 @@
         <v>706</v>
       </c>
       <c r="B707" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C707" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
@@ -10330,10 +10492,10 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C708" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
@@ -10341,10 +10503,10 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C709" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
@@ -10352,10 +10514,10 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C710" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
@@ -10363,10 +10525,10 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C711" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
@@ -10374,10 +10536,10 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C712" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
@@ -10385,10 +10547,10 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C713" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
@@ -10396,10 +10558,10 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C714" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
@@ -10407,10 +10569,10 @@
         <v>714</v>
       </c>
       <c r="B715" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C715" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
@@ -10418,10 +10580,10 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C716" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
@@ -10429,10 +10591,10 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C717" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
@@ -10440,10 +10602,10 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C718" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -10451,10 +10613,10 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C719" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
@@ -10462,10 +10624,10 @@
         <v>719</v>
       </c>
       <c r="B720" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C720" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
@@ -10473,10 +10635,10 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C721" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
@@ -10484,10 +10646,10 @@
         <v>721</v>
       </c>
       <c r="B722" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C722" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
@@ -10495,15 +10657,619 @@
         <v>722</v>
       </c>
       <c r="B723" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C723" t="s">
-        <v>296</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>723</v>
+      </c>
+      <c r="B724" t="s">
+        <v>725</v>
+      </c>
+      <c r="C724" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>724</v>
+      </c>
+      <c r="B725" t="s">
+        <v>726</v>
+      </c>
+      <c r="C725" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>725</v>
+      </c>
+      <c r="B726" t="s">
+        <v>727</v>
+      </c>
+      <c r="C726" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>726</v>
+      </c>
+      <c r="B727" t="s">
+        <v>728</v>
+      </c>
+      <c r="C727" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>727</v>
+      </c>
+      <c r="B728" t="s">
+        <v>729</v>
+      </c>
+      <c r="C728" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>728</v>
+      </c>
+      <c r="B729" t="s">
+        <v>730</v>
+      </c>
+      <c r="C729" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>729</v>
+      </c>
+      <c r="B730" t="s">
+        <v>731</v>
+      </c>
+      <c r="C730" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>730</v>
+      </c>
+      <c r="B731" t="s">
+        <v>732</v>
+      </c>
+      <c r="C731" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>731</v>
+      </c>
+      <c r="B732" t="s">
+        <v>733</v>
+      </c>
+      <c r="C732" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>732</v>
+      </c>
+      <c r="B733" t="s">
+        <v>734</v>
+      </c>
+      <c r="C733" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>733</v>
+      </c>
+      <c r="B734" t="s">
+        <v>735</v>
+      </c>
+      <c r="C734" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>734</v>
+      </c>
+      <c r="B735" t="s">
+        <v>736</v>
+      </c>
+      <c r="C735" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>735</v>
+      </c>
+      <c r="B736" t="s">
+        <v>737</v>
+      </c>
+      <c r="C736" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>736</v>
+      </c>
+      <c r="B737" t="s">
+        <v>738</v>
+      </c>
+      <c r="C737" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>737</v>
+      </c>
+      <c r="B738" t="s">
+        <v>739</v>
+      </c>
+      <c r="C738" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>738</v>
+      </c>
+      <c r="B739" t="s">
+        <v>740</v>
+      </c>
+      <c r="C739" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>739</v>
+      </c>
+      <c r="B740" t="s">
+        <v>741</v>
+      </c>
+      <c r="C740" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>740</v>
+      </c>
+      <c r="B741" t="s">
+        <v>742</v>
+      </c>
+      <c r="C741" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>741</v>
+      </c>
+      <c r="B742" t="s">
+        <v>743</v>
+      </c>
+      <c r="C742" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>742</v>
+      </c>
+      <c r="B743" t="s">
+        <v>744</v>
+      </c>
+      <c r="C743" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>743</v>
+      </c>
+      <c r="B744" t="s">
+        <v>745</v>
+      </c>
+      <c r="C744" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>744</v>
+      </c>
+      <c r="B745" t="s">
+        <v>746</v>
+      </c>
+      <c r="C745" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>745</v>
+      </c>
+      <c r="B746" t="s">
+        <v>747</v>
+      </c>
+      <c r="C746" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>746</v>
+      </c>
+      <c r="B747" t="s">
+        <v>748</v>
+      </c>
+      <c r="C747" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>747</v>
+      </c>
+      <c r="B748" t="s">
+        <v>749</v>
+      </c>
+      <c r="C748" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>748</v>
+      </c>
+      <c r="B749" t="s">
+        <v>750</v>
+      </c>
+      <c r="C749" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>749</v>
+      </c>
+      <c r="B750" t="s">
+        <v>751</v>
+      </c>
+      <c r="C750" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>750</v>
+      </c>
+      <c r="B751" t="s">
+        <v>752</v>
+      </c>
+      <c r="C751" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>751</v>
+      </c>
+      <c r="B752" t="s">
+        <v>753</v>
+      </c>
+      <c r="C752" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>752</v>
+      </c>
+      <c r="B753" t="s">
+        <v>754</v>
+      </c>
+      <c r="C753" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>753</v>
+      </c>
+      <c r="B754" t="s">
+        <v>755</v>
+      </c>
+      <c r="C754" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>754</v>
+      </c>
+      <c r="B755" t="s">
+        <v>756</v>
+      </c>
+      <c r="C755" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>755</v>
+      </c>
+      <c r="B756" t="s">
+        <v>757</v>
+      </c>
+      <c r="C756" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>756</v>
+      </c>
+      <c r="B757" t="s">
+        <v>758</v>
+      </c>
+      <c r="C757" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>757</v>
+      </c>
+      <c r="B758" t="s">
+        <v>759</v>
+      </c>
+      <c r="C758" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>758</v>
+      </c>
+      <c r="B759" t="s">
+        <v>760</v>
+      </c>
+      <c r="C759" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>759</v>
+      </c>
+      <c r="B760" t="s">
+        <v>761</v>
+      </c>
+      <c r="C760" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>760</v>
+      </c>
+      <c r="B761" t="s">
+        <v>762</v>
+      </c>
+      <c r="C761" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>761</v>
+      </c>
+      <c r="B762" t="s">
+        <v>763</v>
+      </c>
+      <c r="C762" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>762</v>
+      </c>
+      <c r="B763" t="s">
+        <v>764</v>
+      </c>
+      <c r="C763" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>763</v>
+      </c>
+      <c r="B764" t="s">
+        <v>765</v>
+      </c>
+      <c r="C764" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>764</v>
+      </c>
+      <c r="B765" t="s">
+        <v>766</v>
+      </c>
+      <c r="C765" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>765</v>
+      </c>
+      <c r="B766" t="s">
+        <v>767</v>
+      </c>
+      <c r="C766" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>766</v>
+      </c>
+      <c r="B767" t="s">
+        <v>768</v>
+      </c>
+      <c r="C767" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>767</v>
+      </c>
+      <c r="B768" t="s">
+        <v>769</v>
+      </c>
+      <c r="C768" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>768</v>
+      </c>
+      <c r="B769" t="s">
+        <v>770</v>
+      </c>
+      <c r="C769" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>769</v>
+      </c>
+      <c r="B770" t="s">
+        <v>771</v>
+      </c>
+      <c r="C770" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>770</v>
+      </c>
+      <c r="B771" t="s">
+        <v>772</v>
+      </c>
+      <c r="C771" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>771</v>
+      </c>
+      <c r="B772" t="s">
+        <v>773</v>
+      </c>
+      <c r="C772" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>772</v>
+      </c>
+      <c r="B773" t="s">
+        <v>774</v>
+      </c>
+      <c r="C773" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>773</v>
+      </c>
+      <c r="B774" t="s">
+        <v>775</v>
+      </c>
+      <c r="C774" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>774</v>
+      </c>
+      <c r="B775" t="s">
+        <v>776</v>
+      </c>
+      <c r="C775" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>775</v>
+      </c>
+      <c r="B776" t="s">
+        <v>777</v>
+      </c>
+      <c r="C776" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>776</v>
+      </c>
+      <c r="B777" t="s">
+        <v>778</v>
+      </c>
+      <c r="C777" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>777</v>
+      </c>
+      <c r="B778" t="s">
+        <v>779</v>
+      </c>
+      <c r="C778" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="782">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -909,9 +909,6 @@
   </si>
   <si>
     <t>IR</t>
-  </si>
-  <si>
-    <t>log</t>
   </si>
   <si>
     <t>json</t>
@@ -2705,20 +2702,20 @@
   <dimension ref="A1:C778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1" t="s">
         <v>780</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>781</v>
-      </c>
-      <c r="C1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6271,7 +6268,7 @@
         <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>1</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -6279,10 +6276,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C325" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -6293,7 +6290,7 @@
         <v>326</v>
       </c>
       <c r="C326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -6304,7 +6301,7 @@
         <v>327</v>
       </c>
       <c r="C327" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -6315,7 +6312,7 @@
         <v>328</v>
       </c>
       <c r="C328" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -6326,7 +6323,7 @@
         <v>329</v>
       </c>
       <c r="C329" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -6337,7 +6334,7 @@
         <v>330</v>
       </c>
       <c r="C330" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -6348,7 +6345,7 @@
         <v>331</v>
       </c>
       <c r="C331" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -6359,7 +6356,7 @@
         <v>332</v>
       </c>
       <c r="C332" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -6370,7 +6367,7 @@
         <v>333</v>
       </c>
       <c r="C333" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -6381,7 +6378,7 @@
         <v>334</v>
       </c>
       <c r="C334" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -6392,7 +6389,7 @@
         <v>335</v>
       </c>
       <c r="C335" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -6403,7 +6400,7 @@
         <v>336</v>
       </c>
       <c r="C336" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -6414,7 +6411,7 @@
         <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -6425,7 +6422,7 @@
         <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -6436,7 +6433,7 @@
         <v>339</v>
       </c>
       <c r="C339" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -6447,7 +6444,7 @@
         <v>340</v>
       </c>
       <c r="C340" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -6458,7 +6455,7 @@
         <v>341</v>
       </c>
       <c r="C341" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -6469,7 +6466,7 @@
         <v>342</v>
       </c>
       <c r="C342" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -6480,7 +6477,7 @@
         <v>343</v>
       </c>
       <c r="C343" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -6491,7 +6488,7 @@
         <v>344</v>
       </c>
       <c r="C344" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -6502,7 +6499,7 @@
         <v>345</v>
       </c>
       <c r="C345" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -6513,7 +6510,7 @@
         <v>346</v>
       </c>
       <c r="C346" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -6524,7 +6521,7 @@
         <v>347</v>
       </c>
       <c r="C347" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -6535,7 +6532,7 @@
         <v>348</v>
       </c>
       <c r="C348" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -6546,7 +6543,7 @@
         <v>349</v>
       </c>
       <c r="C349" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -6557,7 +6554,7 @@
         <v>350</v>
       </c>
       <c r="C350" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -6568,7 +6565,7 @@
         <v>351</v>
       </c>
       <c r="C351" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -6579,7 +6576,7 @@
         <v>352</v>
       </c>
       <c r="C352" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -6590,7 +6587,7 @@
         <v>353</v>
       </c>
       <c r="C353" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -6601,7 +6598,7 @@
         <v>354</v>
       </c>
       <c r="C354" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -6612,7 +6609,7 @@
         <v>355</v>
       </c>
       <c r="C355" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -6623,7 +6620,7 @@
         <v>356</v>
       </c>
       <c r="C356" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -6634,7 +6631,7 @@
         <v>357</v>
       </c>
       <c r="C357" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -6645,7 +6642,7 @@
         <v>358</v>
       </c>
       <c r="C358" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -6656,7 +6653,7 @@
         <v>359</v>
       </c>
       <c r="C359" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -6667,7 +6664,7 @@
         <v>360</v>
       </c>
       <c r="C360" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -6678,7 +6675,7 @@
         <v>361</v>
       </c>
       <c r="C361" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -6689,7 +6686,7 @@
         <v>362</v>
       </c>
       <c r="C362" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -6700,7 +6697,7 @@
         <v>363</v>
       </c>
       <c r="C363" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -6711,7 +6708,7 @@
         <v>364</v>
       </c>
       <c r="C364" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -6722,7 +6719,7 @@
         <v>365</v>
       </c>
       <c r="C365" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -6733,7 +6730,7 @@
         <v>366</v>
       </c>
       <c r="C366" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -6744,7 +6741,7 @@
         <v>367</v>
       </c>
       <c r="C367" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -6755,7 +6752,7 @@
         <v>368</v>
       </c>
       <c r="C368" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -6766,7 +6763,7 @@
         <v>369</v>
       </c>
       <c r="C369" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -6777,7 +6774,7 @@
         <v>370</v>
       </c>
       <c r="C370" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -6788,7 +6785,7 @@
         <v>371</v>
       </c>
       <c r="C371" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -6799,7 +6796,7 @@
         <v>372</v>
       </c>
       <c r="C372" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -6810,7 +6807,7 @@
         <v>373</v>
       </c>
       <c r="C373" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -6821,7 +6818,7 @@
         <v>374</v>
       </c>
       <c r="C374" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -6832,7 +6829,7 @@
         <v>375</v>
       </c>
       <c r="C375" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -6843,7 +6840,7 @@
         <v>376</v>
       </c>
       <c r="C376" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -6854,7 +6851,7 @@
         <v>377</v>
       </c>
       <c r="C377" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -6865,7 +6862,7 @@
         <v>378</v>
       </c>
       <c r="C378" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -6876,7 +6873,7 @@
         <v>379</v>
       </c>
       <c r="C379" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -6887,7 +6884,7 @@
         <v>380</v>
       </c>
       <c r="C380" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -6898,7 +6895,7 @@
         <v>381</v>
       </c>
       <c r="C381" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -6909,7 +6906,7 @@
         <v>382</v>
       </c>
       <c r="C382" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -6920,7 +6917,7 @@
         <v>383</v>
       </c>
       <c r="C383" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -6931,7 +6928,7 @@
         <v>384</v>
       </c>
       <c r="C384" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6942,7 +6939,7 @@
         <v>385</v>
       </c>
       <c r="C385" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -6953,7 +6950,7 @@
         <v>386</v>
       </c>
       <c r="C386" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -6964,7 +6961,7 @@
         <v>387</v>
       </c>
       <c r="C387" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -6975,7 +6972,7 @@
         <v>388</v>
       </c>
       <c r="C388" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -6986,7 +6983,7 @@
         <v>389</v>
       </c>
       <c r="C389" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -6997,7 +6994,7 @@
         <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -7008,7 +7005,7 @@
         <v>391</v>
       </c>
       <c r="C391" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -7019,7 +7016,7 @@
         <v>392</v>
       </c>
       <c r="C392" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -7030,7 +7027,7 @@
         <v>393</v>
       </c>
       <c r="C393" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -7041,7 +7038,7 @@
         <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -7052,7 +7049,7 @@
         <v>395</v>
       </c>
       <c r="C395" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -7063,7 +7060,7 @@
         <v>396</v>
       </c>
       <c r="C396" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -7074,7 +7071,7 @@
         <v>397</v>
       </c>
       <c r="C397" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -7085,7 +7082,7 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -7096,7 +7093,7 @@
         <v>399</v>
       </c>
       <c r="C399" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -7107,7 +7104,7 @@
         <v>400</v>
       </c>
       <c r="C400" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -7118,7 +7115,7 @@
         <v>401</v>
       </c>
       <c r="C401" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -7129,7 +7126,7 @@
         <v>402</v>
       </c>
       <c r="C402" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -7140,7 +7137,7 @@
         <v>403</v>
       </c>
       <c r="C403" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -7151,7 +7148,7 @@
         <v>404</v>
       </c>
       <c r="C404" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -7162,7 +7159,7 @@
         <v>405</v>
       </c>
       <c r="C405" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -7173,7 +7170,7 @@
         <v>406</v>
       </c>
       <c r="C406" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -7184,7 +7181,7 @@
         <v>407</v>
       </c>
       <c r="C407" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -7195,7 +7192,7 @@
         <v>408</v>
       </c>
       <c r="C408" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -7206,7 +7203,7 @@
         <v>409</v>
       </c>
       <c r="C409" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -7217,7 +7214,7 @@
         <v>410</v>
       </c>
       <c r="C410" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -7228,7 +7225,7 @@
         <v>411</v>
       </c>
       <c r="C411" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -7239,7 +7236,7 @@
         <v>412</v>
       </c>
       <c r="C412" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -7250,7 +7247,7 @@
         <v>413</v>
       </c>
       <c r="C413" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -7261,7 +7258,7 @@
         <v>414</v>
       </c>
       <c r="C414" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -7272,7 +7269,7 @@
         <v>415</v>
       </c>
       <c r="C415" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -7283,7 +7280,7 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -7294,7 +7291,7 @@
         <v>417</v>
       </c>
       <c r="C417" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -7305,7 +7302,7 @@
         <v>418</v>
       </c>
       <c r="C418" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -7316,7 +7313,7 @@
         <v>419</v>
       </c>
       <c r="C419" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -7327,7 +7324,7 @@
         <v>420</v>
       </c>
       <c r="C420" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -7338,7 +7335,7 @@
         <v>421</v>
       </c>
       <c r="C421" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -7349,7 +7346,7 @@
         <v>422</v>
       </c>
       <c r="C422" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -7360,7 +7357,7 @@
         <v>423</v>
       </c>
       <c r="C423" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -7371,7 +7368,7 @@
         <v>424</v>
       </c>
       <c r="C424" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -7382,7 +7379,7 @@
         <v>425</v>
       </c>
       <c r="C425" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -7393,7 +7390,7 @@
         <v>426</v>
       </c>
       <c r="C426" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -7404,7 +7401,7 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -7415,7 +7412,7 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -7426,7 +7423,7 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -7437,7 +7434,7 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -7448,7 +7445,7 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -7459,7 +7456,7 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -7470,7 +7467,7 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -7481,7 +7478,7 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -7492,7 +7489,7 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -7503,7 +7500,7 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -7514,7 +7511,7 @@
         <v>437</v>
       </c>
       <c r="C437" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -7525,7 +7522,7 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -7536,7 +7533,7 @@
         <v>439</v>
       </c>
       <c r="C439" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -7547,7 +7544,7 @@
         <v>440</v>
       </c>
       <c r="C440" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -7558,7 +7555,7 @@
         <v>441</v>
       </c>
       <c r="C441" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -7569,7 +7566,7 @@
         <v>442</v>
       </c>
       <c r="C442" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -7580,7 +7577,7 @@
         <v>443</v>
       </c>
       <c r="C443" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -7591,7 +7588,7 @@
         <v>444</v>
       </c>
       <c r="C444" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -7602,7 +7599,7 @@
         <v>445</v>
       </c>
       <c r="C445" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -7613,7 +7610,7 @@
         <v>446</v>
       </c>
       <c r="C446" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -7624,7 +7621,7 @@
         <v>447</v>
       </c>
       <c r="C447" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -7635,7 +7632,7 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -7646,7 +7643,7 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -7657,7 +7654,7 @@
         <v>450</v>
       </c>
       <c r="C450" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -7668,7 +7665,7 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -7679,7 +7676,7 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -7690,7 +7687,7 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -7701,7 +7698,7 @@
         <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -7712,7 +7709,7 @@
         <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -7723,7 +7720,7 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -7734,7 +7731,7 @@
         <v>457</v>
       </c>
       <c r="C457" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -7745,7 +7742,7 @@
         <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -7756,7 +7753,7 @@
         <v>459</v>
       </c>
       <c r="C459" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -7767,7 +7764,7 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -7778,7 +7775,7 @@
         <v>461</v>
       </c>
       <c r="C461" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -7789,7 +7786,7 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -7800,7 +7797,7 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -7811,7 +7808,7 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -7822,7 +7819,7 @@
         <v>465</v>
       </c>
       <c r="C465" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -7833,7 +7830,7 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -7844,7 +7841,7 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -7855,7 +7852,7 @@
         <v>468</v>
       </c>
       <c r="C468" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -7866,7 +7863,7 @@
         <v>469</v>
       </c>
       <c r="C469" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -7877,7 +7874,7 @@
         <v>470</v>
       </c>
       <c r="C470" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -7888,7 +7885,7 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -7899,7 +7896,7 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -7910,7 +7907,7 @@
         <v>473</v>
       </c>
       <c r="C473" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -7921,7 +7918,7 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -7932,7 +7929,7 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -7943,7 +7940,7 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -7954,7 +7951,7 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -7965,7 +7962,7 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -7976,7 +7973,7 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -7987,7 +7984,7 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -7998,7 +7995,7 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -8009,7 +8006,7 @@
         <v>482</v>
       </c>
       <c r="C482" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -8020,7 +8017,7 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -8031,7 +8028,7 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -8042,7 +8039,7 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -8053,7 +8050,7 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -8064,7 +8061,7 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -8075,7 +8072,7 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -8086,7 +8083,7 @@
         <v>489</v>
       </c>
       <c r="C489" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -8097,7 +8094,7 @@
         <v>490</v>
       </c>
       <c r="C490" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -8108,7 +8105,7 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -8119,7 +8116,7 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -8130,7 +8127,7 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -8141,7 +8138,7 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -8152,7 +8149,7 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -8163,7 +8160,7 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -8174,7 +8171,7 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -8185,7 +8182,7 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -8196,7 +8193,7 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -8207,7 +8204,7 @@
         <v>500</v>
       </c>
       <c r="C500" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -8218,7 +8215,7 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -8229,7 +8226,7 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -8240,7 +8237,7 @@
         <v>503</v>
       </c>
       <c r="C503" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -8251,7 +8248,7 @@
         <v>504</v>
       </c>
       <c r="C504" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -8262,7 +8259,7 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -8273,7 +8270,7 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -8284,7 +8281,7 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -8295,7 +8292,7 @@
         <v>508</v>
       </c>
       <c r="C508" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -8306,7 +8303,7 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -8317,7 +8314,7 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -8328,7 +8325,7 @@
         <v>511</v>
       </c>
       <c r="C511" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -8339,7 +8336,7 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -8350,7 +8347,7 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -8361,7 +8358,7 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -8372,7 +8369,7 @@
         <v>515</v>
       </c>
       <c r="C515" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -8383,7 +8380,7 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -8394,7 +8391,7 @@
         <v>517</v>
       </c>
       <c r="C517" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -8405,7 +8402,7 @@
         <v>518</v>
       </c>
       <c r="C518" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -8416,7 +8413,7 @@
         <v>519</v>
       </c>
       <c r="C519" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -8427,7 +8424,7 @@
         <v>520</v>
       </c>
       <c r="C520" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -8438,7 +8435,7 @@
         <v>521</v>
       </c>
       <c r="C521" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -8449,7 +8446,7 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -8460,7 +8457,7 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -8471,7 +8468,7 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -8482,7 +8479,7 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -8493,7 +8490,7 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -8504,7 +8501,7 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -8515,7 +8512,7 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -8526,7 +8523,7 @@
         <v>529</v>
       </c>
       <c r="C529" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -8537,7 +8534,7 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -8548,7 +8545,7 @@
         <v>531</v>
       </c>
       <c r="C531" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -8559,7 +8556,7 @@
         <v>532</v>
       </c>
       <c r="C532" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -8570,7 +8567,7 @@
         <v>533</v>
       </c>
       <c r="C533" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -8581,7 +8578,7 @@
         <v>534</v>
       </c>
       <c r="C534" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -8592,7 +8589,7 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -8603,7 +8600,7 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -8614,7 +8611,7 @@
         <v>537</v>
       </c>
       <c r="C537" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -8625,7 +8622,7 @@
         <v>538</v>
       </c>
       <c r="C538" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -8636,7 +8633,7 @@
         <v>539</v>
       </c>
       <c r="C539" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -8647,7 +8644,7 @@
         <v>540</v>
       </c>
       <c r="C540" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -8658,7 +8655,7 @@
         <v>541</v>
       </c>
       <c r="C541" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -8669,7 +8666,7 @@
         <v>542</v>
       </c>
       <c r="C542" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -8680,7 +8677,7 @@
         <v>543</v>
       </c>
       <c r="C543" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -8691,7 +8688,7 @@
         <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -8702,7 +8699,7 @@
         <v>545</v>
       </c>
       <c r="C545" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
@@ -8713,7 +8710,7 @@
         <v>546</v>
       </c>
       <c r="C546" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -8724,7 +8721,7 @@
         <v>547</v>
       </c>
       <c r="C547" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -8735,7 +8732,7 @@
         <v>548</v>
       </c>
       <c r="C548" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
@@ -8746,7 +8743,7 @@
         <v>549</v>
       </c>
       <c r="C549" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -8757,7 +8754,7 @@
         <v>550</v>
       </c>
       <c r="C550" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -8768,7 +8765,7 @@
         <v>551</v>
       </c>
       <c r="C551" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -8779,7 +8776,7 @@
         <v>552</v>
       </c>
       <c r="C552" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
@@ -8790,7 +8787,7 @@
         <v>553</v>
       </c>
       <c r="C553" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
@@ -8801,7 +8798,7 @@
         <v>554</v>
       </c>
       <c r="C554" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -8812,7 +8809,7 @@
         <v>555</v>
       </c>
       <c r="C555" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -8823,7 +8820,7 @@
         <v>556</v>
       </c>
       <c r="C556" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -8834,7 +8831,7 @@
         <v>557</v>
       </c>
       <c r="C557" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -8845,7 +8842,7 @@
         <v>558</v>
       </c>
       <c r="C558" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -8856,7 +8853,7 @@
         <v>559</v>
       </c>
       <c r="C559" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -8867,7 +8864,7 @@
         <v>560</v>
       </c>
       <c r="C560" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -8878,7 +8875,7 @@
         <v>561</v>
       </c>
       <c r="C561" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
@@ -8889,7 +8886,7 @@
         <v>562</v>
       </c>
       <c r="C562" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -8900,7 +8897,7 @@
         <v>563</v>
       </c>
       <c r="C563" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -8911,7 +8908,7 @@
         <v>564</v>
       </c>
       <c r="C564" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -8922,7 +8919,7 @@
         <v>565</v>
       </c>
       <c r="C565" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -8933,7 +8930,7 @@
         <v>566</v>
       </c>
       <c r="C566" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
@@ -8944,7 +8941,7 @@
         <v>567</v>
       </c>
       <c r="C567" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
@@ -8955,7 +8952,7 @@
         <v>568</v>
       </c>
       <c r="C568" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
@@ -8966,7 +8963,7 @@
         <v>569</v>
       </c>
       <c r="C569" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
@@ -8977,7 +8974,7 @@
         <v>570</v>
       </c>
       <c r="C570" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -8988,7 +8985,7 @@
         <v>571</v>
       </c>
       <c r="C571" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
@@ -8999,7 +8996,7 @@
         <v>572</v>
       </c>
       <c r="C572" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
@@ -9010,7 +9007,7 @@
         <v>573</v>
       </c>
       <c r="C573" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -9021,7 +9018,7 @@
         <v>574</v>
       </c>
       <c r="C574" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
@@ -9032,7 +9029,7 @@
         <v>575</v>
       </c>
       <c r="C575" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -9043,7 +9040,7 @@
         <v>576</v>
       </c>
       <c r="C576" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -9054,7 +9051,7 @@
         <v>577</v>
       </c>
       <c r="C577" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -9065,7 +9062,7 @@
         <v>578</v>
       </c>
       <c r="C578" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -9076,7 +9073,7 @@
         <v>579</v>
       </c>
       <c r="C579" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -9087,7 +9084,7 @@
         <v>580</v>
       </c>
       <c r="C580" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -9098,7 +9095,7 @@
         <v>581</v>
       </c>
       <c r="C581" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -9109,7 +9106,7 @@
         <v>582</v>
       </c>
       <c r="C582" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -9120,7 +9117,7 @@
         <v>583</v>
       </c>
       <c r="C583" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -9131,7 +9128,7 @@
         <v>584</v>
       </c>
       <c r="C584" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -9142,7 +9139,7 @@
         <v>585</v>
       </c>
       <c r="C585" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -9153,7 +9150,7 @@
         <v>586</v>
       </c>
       <c r="C586" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
@@ -9164,7 +9161,7 @@
         <v>587</v>
       </c>
       <c r="C587" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -9175,7 +9172,7 @@
         <v>588</v>
       </c>
       <c r="C588" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -9186,7 +9183,7 @@
         <v>589</v>
       </c>
       <c r="C589" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -9197,7 +9194,7 @@
         <v>590</v>
       </c>
       <c r="C590" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
@@ -9208,7 +9205,7 @@
         <v>591</v>
       </c>
       <c r="C591" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -9219,7 +9216,7 @@
         <v>592</v>
       </c>
       <c r="C592" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -9230,7 +9227,7 @@
         <v>593</v>
       </c>
       <c r="C593" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -9241,7 +9238,7 @@
         <v>594</v>
       </c>
       <c r="C594" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -9252,7 +9249,7 @@
         <v>595</v>
       </c>
       <c r="C595" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -9263,7 +9260,7 @@
         <v>596</v>
       </c>
       <c r="C596" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -9274,7 +9271,7 @@
         <v>597</v>
       </c>
       <c r="C597" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -9285,7 +9282,7 @@
         <v>598</v>
       </c>
       <c r="C598" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -9296,7 +9293,7 @@
         <v>599</v>
       </c>
       <c r="C599" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -9307,7 +9304,7 @@
         <v>600</v>
       </c>
       <c r="C600" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -9318,7 +9315,7 @@
         <v>601</v>
       </c>
       <c r="C601" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -9329,7 +9326,7 @@
         <v>602</v>
       </c>
       <c r="C602" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -9340,7 +9337,7 @@
         <v>603</v>
       </c>
       <c r="C603" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -9351,7 +9348,7 @@
         <v>604</v>
       </c>
       <c r="C604" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -9362,7 +9359,7 @@
         <v>605</v>
       </c>
       <c r="C605" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -9373,7 +9370,7 @@
         <v>606</v>
       </c>
       <c r="C606" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -9384,7 +9381,7 @@
         <v>607</v>
       </c>
       <c r="C607" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -9395,7 +9392,7 @@
         <v>608</v>
       </c>
       <c r="C608" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -9406,7 +9403,7 @@
         <v>609</v>
       </c>
       <c r="C609" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -9417,7 +9414,7 @@
         <v>610</v>
       </c>
       <c r="C610" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -9428,7 +9425,7 @@
         <v>611</v>
       </c>
       <c r="C611" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -9439,7 +9436,7 @@
         <v>612</v>
       </c>
       <c r="C612" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -9450,7 +9447,7 @@
         <v>613</v>
       </c>
       <c r="C613" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -9461,7 +9458,7 @@
         <v>614</v>
       </c>
       <c r="C614" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -9472,7 +9469,7 @@
         <v>615</v>
       </c>
       <c r="C615" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -9483,7 +9480,7 @@
         <v>616</v>
       </c>
       <c r="C616" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -9494,7 +9491,7 @@
         <v>617</v>
       </c>
       <c r="C617" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -9505,7 +9502,7 @@
         <v>618</v>
       </c>
       <c r="C618" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -9516,7 +9513,7 @@
         <v>619</v>
       </c>
       <c r="C619" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -9527,7 +9524,7 @@
         <v>620</v>
       </c>
       <c r="C620" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -9538,7 +9535,7 @@
         <v>621</v>
       </c>
       <c r="C621" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -9549,7 +9546,7 @@
         <v>622</v>
       </c>
       <c r="C622" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -9560,7 +9557,7 @@
         <v>623</v>
       </c>
       <c r="C623" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -9571,7 +9568,7 @@
         <v>624</v>
       </c>
       <c r="C624" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -9582,7 +9579,7 @@
         <v>625</v>
       </c>
       <c r="C625" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -9593,7 +9590,7 @@
         <v>626</v>
       </c>
       <c r="C626" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -9604,7 +9601,7 @@
         <v>627</v>
       </c>
       <c r="C627" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -9615,7 +9612,7 @@
         <v>628</v>
       </c>
       <c r="C628" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -9626,7 +9623,7 @@
         <v>629</v>
       </c>
       <c r="C629" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -9637,7 +9634,7 @@
         <v>630</v>
       </c>
       <c r="C630" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -9648,7 +9645,7 @@
         <v>631</v>
       </c>
       <c r="C631" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -9659,7 +9656,7 @@
         <v>632</v>
       </c>
       <c r="C632" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -9670,7 +9667,7 @@
         <v>633</v>
       </c>
       <c r="C633" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -9681,7 +9678,7 @@
         <v>634</v>
       </c>
       <c r="C634" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -9692,7 +9689,7 @@
         <v>635</v>
       </c>
       <c r="C635" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -9703,7 +9700,7 @@
         <v>636</v>
       </c>
       <c r="C636" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -9714,7 +9711,7 @@
         <v>637</v>
       </c>
       <c r="C637" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -9725,7 +9722,7 @@
         <v>638</v>
       </c>
       <c r="C638" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -9736,7 +9733,7 @@
         <v>639</v>
       </c>
       <c r="C639" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -9747,7 +9744,7 @@
         <v>640</v>
       </c>
       <c r="C640" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -9758,7 +9755,7 @@
         <v>641</v>
       </c>
       <c r="C641" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -9769,7 +9766,7 @@
         <v>642</v>
       </c>
       <c r="C642" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -9780,7 +9777,7 @@
         <v>643</v>
       </c>
       <c r="C643" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -9791,7 +9788,7 @@
         <v>644</v>
       </c>
       <c r="C644" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -9802,7 +9799,7 @@
         <v>645</v>
       </c>
       <c r="C645" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -9813,7 +9810,7 @@
         <v>646</v>
       </c>
       <c r="C646" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -9824,7 +9821,7 @@
         <v>647</v>
       </c>
       <c r="C647" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -9835,7 +9832,7 @@
         <v>648</v>
       </c>
       <c r="C648" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -9846,7 +9843,7 @@
         <v>649</v>
       </c>
       <c r="C649" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -9857,7 +9854,7 @@
         <v>650</v>
       </c>
       <c r="C650" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -9868,7 +9865,7 @@
         <v>651</v>
       </c>
       <c r="C651" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -9879,7 +9876,7 @@
         <v>652</v>
       </c>
       <c r="C652" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -9890,7 +9887,7 @@
         <v>653</v>
       </c>
       <c r="C653" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -9901,7 +9898,7 @@
         <v>654</v>
       </c>
       <c r="C654" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -9912,7 +9909,7 @@
         <v>655</v>
       </c>
       <c r="C655" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
@@ -9923,7 +9920,7 @@
         <v>656</v>
       </c>
       <c r="C656" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -9934,7 +9931,7 @@
         <v>657</v>
       </c>
       <c r="C657" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -9945,7 +9942,7 @@
         <v>658</v>
       </c>
       <c r="C658" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -9956,7 +9953,7 @@
         <v>659</v>
       </c>
       <c r="C659" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -9967,7 +9964,7 @@
         <v>660</v>
       </c>
       <c r="C660" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -9978,7 +9975,7 @@
         <v>661</v>
       </c>
       <c r="C661" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -9989,7 +9986,7 @@
         <v>662</v>
       </c>
       <c r="C662" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -10000,7 +9997,7 @@
         <v>663</v>
       </c>
       <c r="C663" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -10011,7 +10008,7 @@
         <v>664</v>
       </c>
       <c r="C664" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -10022,7 +10019,7 @@
         <v>665</v>
       </c>
       <c r="C665" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -10033,7 +10030,7 @@
         <v>666</v>
       </c>
       <c r="C666" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -10044,7 +10041,7 @@
         <v>667</v>
       </c>
       <c r="C667" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -10055,7 +10052,7 @@
         <v>668</v>
       </c>
       <c r="C668" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -10066,7 +10063,7 @@
         <v>669</v>
       </c>
       <c r="C669" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -10077,7 +10074,7 @@
         <v>670</v>
       </c>
       <c r="C670" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -10088,7 +10085,7 @@
         <v>671</v>
       </c>
       <c r="C671" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -10099,7 +10096,7 @@
         <v>672</v>
       </c>
       <c r="C672" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -10110,7 +10107,7 @@
         <v>673</v>
       </c>
       <c r="C673" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -10121,7 +10118,7 @@
         <v>674</v>
       </c>
       <c r="C674" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -10132,7 +10129,7 @@
         <v>675</v>
       </c>
       <c r="C675" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -10143,7 +10140,7 @@
         <v>676</v>
       </c>
       <c r="C676" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -10154,7 +10151,7 @@
         <v>677</v>
       </c>
       <c r="C677" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -10165,7 +10162,7 @@
         <v>678</v>
       </c>
       <c r="C678" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -10176,7 +10173,7 @@
         <v>679</v>
       </c>
       <c r="C679" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -10187,7 +10184,7 @@
         <v>680</v>
       </c>
       <c r="C680" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -10198,7 +10195,7 @@
         <v>681</v>
       </c>
       <c r="C681" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -10209,7 +10206,7 @@
         <v>682</v>
       </c>
       <c r="C682" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -10220,7 +10217,7 @@
         <v>683</v>
       </c>
       <c r="C683" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -10231,7 +10228,7 @@
         <v>684</v>
       </c>
       <c r="C684" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -10242,7 +10239,7 @@
         <v>685</v>
       </c>
       <c r="C685" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -10253,7 +10250,7 @@
         <v>686</v>
       </c>
       <c r="C686" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -10264,7 +10261,7 @@
         <v>687</v>
       </c>
       <c r="C687" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -10275,7 +10272,7 @@
         <v>688</v>
       </c>
       <c r="C688" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -10286,7 +10283,7 @@
         <v>689</v>
       </c>
       <c r="C689" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -10297,7 +10294,7 @@
         <v>690</v>
       </c>
       <c r="C690" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -10308,7 +10305,7 @@
         <v>691</v>
       </c>
       <c r="C691" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
@@ -10319,7 +10316,7 @@
         <v>692</v>
       </c>
       <c r="C692" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -10330,7 +10327,7 @@
         <v>693</v>
       </c>
       <c r="C693" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -10341,7 +10338,7 @@
         <v>694</v>
       </c>
       <c r="C694" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -10352,7 +10349,7 @@
         <v>695</v>
       </c>
       <c r="C695" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -10363,7 +10360,7 @@
         <v>696</v>
       </c>
       <c r="C696" t="s">
-        <v>325</v>
+        <v>697</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
@@ -10371,10 +10368,10 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
+        <v>698</v>
+      </c>
+      <c r="C697" t="s">
         <v>697</v>
-      </c>
-      <c r="C697" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -10385,7 +10382,7 @@
         <v>699</v>
       </c>
       <c r="C698" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
@@ -10396,7 +10393,7 @@
         <v>700</v>
       </c>
       <c r="C699" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
@@ -10407,7 +10404,7 @@
         <v>701</v>
       </c>
       <c r="C700" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
@@ -10418,7 +10415,7 @@
         <v>702</v>
       </c>
       <c r="C701" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
@@ -10429,7 +10426,7 @@
         <v>703</v>
       </c>
       <c r="C702" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
@@ -10440,7 +10437,7 @@
         <v>704</v>
       </c>
       <c r="C703" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
@@ -10451,7 +10448,7 @@
         <v>705</v>
       </c>
       <c r="C704" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
@@ -10462,7 +10459,7 @@
         <v>706</v>
       </c>
       <c r="C705" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
@@ -10473,7 +10470,7 @@
         <v>707</v>
       </c>
       <c r="C706" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
@@ -10484,7 +10481,7 @@
         <v>708</v>
       </c>
       <c r="C707" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
@@ -10495,7 +10492,7 @@
         <v>709</v>
       </c>
       <c r="C708" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
@@ -10506,7 +10503,7 @@
         <v>710</v>
       </c>
       <c r="C709" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
@@ -10517,7 +10514,7 @@
         <v>711</v>
       </c>
       <c r="C710" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
@@ -10528,7 +10525,7 @@
         <v>712</v>
       </c>
       <c r="C711" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
@@ -10539,7 +10536,7 @@
         <v>713</v>
       </c>
       <c r="C712" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
@@ -10550,7 +10547,7 @@
         <v>714</v>
       </c>
       <c r="C713" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
@@ -10561,7 +10558,7 @@
         <v>715</v>
       </c>
       <c r="C714" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
@@ -10572,7 +10569,7 @@
         <v>716</v>
       </c>
       <c r="C715" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
@@ -10583,7 +10580,7 @@
         <v>717</v>
       </c>
       <c r="C716" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
@@ -10594,7 +10591,7 @@
         <v>718</v>
       </c>
       <c r="C717" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
@@ -10605,7 +10602,7 @@
         <v>719</v>
       </c>
       <c r="C718" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -10616,7 +10613,7 @@
         <v>720</v>
       </c>
       <c r="C719" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
@@ -10627,7 +10624,7 @@
         <v>721</v>
       </c>
       <c r="C720" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
@@ -10638,7 +10635,7 @@
         <v>722</v>
       </c>
       <c r="C721" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
@@ -10649,7 +10646,7 @@
         <v>723</v>
       </c>
       <c r="C722" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
@@ -10660,7 +10657,7 @@
         <v>724</v>
       </c>
       <c r="C723" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
@@ -10671,7 +10668,7 @@
         <v>725</v>
       </c>
       <c r="C724" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
@@ -10682,7 +10679,7 @@
         <v>726</v>
       </c>
       <c r="C725" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
@@ -10693,7 +10690,7 @@
         <v>727</v>
       </c>
       <c r="C726" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
@@ -10704,7 +10701,7 @@
         <v>728</v>
       </c>
       <c r="C727" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
@@ -10715,7 +10712,7 @@
         <v>729</v>
       </c>
       <c r="C728" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
@@ -10726,7 +10723,7 @@
         <v>730</v>
       </c>
       <c r="C729" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
@@ -10737,7 +10734,7 @@
         <v>731</v>
       </c>
       <c r="C730" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
@@ -10748,7 +10745,7 @@
         <v>732</v>
       </c>
       <c r="C731" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
@@ -10759,7 +10756,7 @@
         <v>733</v>
       </c>
       <c r="C732" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
@@ -10770,7 +10767,7 @@
         <v>734</v>
       </c>
       <c r="C733" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
@@ -10781,7 +10778,7 @@
         <v>735</v>
       </c>
       <c r="C734" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
@@ -10792,7 +10789,7 @@
         <v>736</v>
       </c>
       <c r="C735" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
@@ -10803,7 +10800,7 @@
         <v>737</v>
       </c>
       <c r="C736" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
@@ -10814,7 +10811,7 @@
         <v>738</v>
       </c>
       <c r="C737" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
@@ -10825,7 +10822,7 @@
         <v>739</v>
       </c>
       <c r="C738" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
@@ -10836,7 +10833,7 @@
         <v>740</v>
       </c>
       <c r="C739" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
@@ -10847,7 +10844,7 @@
         <v>741</v>
       </c>
       <c r="C740" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
@@ -10858,7 +10855,7 @@
         <v>742</v>
       </c>
       <c r="C741" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
@@ -10869,7 +10866,7 @@
         <v>743</v>
       </c>
       <c r="C742" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -10880,7 +10877,7 @@
         <v>744</v>
       </c>
       <c r="C743" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
@@ -10891,7 +10888,7 @@
         <v>745</v>
       </c>
       <c r="C744" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
@@ -10902,7 +10899,7 @@
         <v>746</v>
       </c>
       <c r="C745" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
@@ -10913,7 +10910,7 @@
         <v>747</v>
       </c>
       <c r="C746" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
@@ -10924,7 +10921,7 @@
         <v>748</v>
       </c>
       <c r="C747" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
@@ -10935,7 +10932,7 @@
         <v>749</v>
       </c>
       <c r="C748" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
@@ -10946,7 +10943,7 @@
         <v>750</v>
       </c>
       <c r="C749" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
@@ -10957,7 +10954,7 @@
         <v>751</v>
       </c>
       <c r="C750" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
@@ -10968,7 +10965,7 @@
         <v>752</v>
       </c>
       <c r="C751" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
@@ -10979,7 +10976,7 @@
         <v>753</v>
       </c>
       <c r="C752" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
@@ -10990,7 +10987,7 @@
         <v>754</v>
       </c>
       <c r="C753" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
@@ -11001,7 +10998,7 @@
         <v>755</v>
       </c>
       <c r="C754" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
@@ -11012,7 +11009,7 @@
         <v>756</v>
       </c>
       <c r="C755" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
@@ -11023,7 +11020,7 @@
         <v>757</v>
       </c>
       <c r="C756" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
@@ -11034,7 +11031,7 @@
         <v>758</v>
       </c>
       <c r="C757" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
@@ -11045,7 +11042,7 @@
         <v>759</v>
       </c>
       <c r="C758" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
@@ -11056,7 +11053,7 @@
         <v>760</v>
       </c>
       <c r="C759" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
@@ -11067,7 +11064,7 @@
         <v>761</v>
       </c>
       <c r="C760" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
@@ -11078,7 +11075,7 @@
         <v>762</v>
       </c>
       <c r="C761" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
@@ -11089,7 +11086,7 @@
         <v>763</v>
       </c>
       <c r="C762" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
@@ -11100,7 +11097,7 @@
         <v>764</v>
       </c>
       <c r="C763" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
@@ -11111,7 +11108,7 @@
         <v>765</v>
       </c>
       <c r="C764" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
@@ -11122,7 +11119,7 @@
         <v>766</v>
       </c>
       <c r="C765" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
@@ -11133,7 +11130,7 @@
         <v>767</v>
       </c>
       <c r="C766" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
@@ -11144,7 +11141,7 @@
         <v>768</v>
       </c>
       <c r="C767" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
@@ -11155,7 +11152,7 @@
         <v>769</v>
       </c>
       <c r="C768" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
@@ -11166,7 +11163,7 @@
         <v>770</v>
       </c>
       <c r="C769" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
@@ -11177,7 +11174,7 @@
         <v>771</v>
       </c>
       <c r="C770" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
@@ -11188,7 +11185,7 @@
         <v>772</v>
       </c>
       <c r="C771" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
@@ -11199,7 +11196,7 @@
         <v>773</v>
       </c>
       <c r="C772" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
@@ -11210,7 +11207,7 @@
         <v>774</v>
       </c>
       <c r="C773" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
@@ -11221,7 +11218,7 @@
         <v>775</v>
       </c>
       <c r="C774" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
@@ -11232,7 +11229,7 @@
         <v>776</v>
       </c>
       <c r="C775" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
@@ -11243,7 +11240,7 @@
         <v>777</v>
       </c>
       <c r="C776" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
@@ -11254,7 +11251,7 @@
         <v>778</v>
       </c>
       <c r="C777" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
@@ -11262,10 +11259,10 @@
         <v>777</v>
       </c>
       <c r="B778" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C778" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>

--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="782">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -2699,10 +2699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C778"/>
+  <dimension ref="A1:C777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11254,17 +11254,6 @@
         <v>697</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A778">
-        <v>777</v>
-      </c>
-      <c r="B778" t="s">
-        <v>778</v>
-      </c>
-      <c r="C778" t="s">
-        <v>697</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="785">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -101,6 +101,9 @@
     <t>네트워크 프로그래밍 (Network Programming)</t>
   </si>
   <si>
+    <t>다트 (Dart)</t>
+  </si>
+  <si>
     <t>대시보드 개발</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
     <t>데브옵스 (DevOps)</t>
   </si>
   <si>
-    <t>데이터 구조</t>
-  </si>
-  <si>
     <t>데이터 분석</t>
   </si>
   <si>
@@ -650,9 +650,6 @@
     <t>챗봇 (Chat bot)</t>
   </si>
   <si>
-    <t>첨단 운전자 보조 시스템 (advanced driving assistance systems)</t>
-  </si>
-  <si>
     <t>추정재무제표</t>
   </si>
   <si>
@@ -797,9 +794,6 @@
     <t>API 개발</t>
   </si>
   <si>
-    <t>API 서버</t>
-  </si>
-  <si>
     <t>API 서버 개발</t>
   </si>
   <si>
@@ -1004,9 +998,6 @@
     <t>걸프 (GulpJS)</t>
   </si>
   <si>
-    <t>고가용성 (HA)</t>
-  </si>
-  <si>
     <t>관계형 데이터베이스 (RDB, Relational Database)</t>
   </si>
   <si>
@@ -1106,6 +1097,12 @@
     <t>루비 온 레일즈 (Ruby on Rails)</t>
   </si>
   <si>
+    <t>루아 (Lua)</t>
+  </si>
+  <si>
+    <t>루비 (Ruby)</t>
+  </si>
+  <si>
     <t>맥 (Mac OS)</t>
   </si>
   <si>
@@ -1454,6 +1451,9 @@
     <t>어도비 XD (Adobe XD)</t>
   </si>
   <si>
+    <t>얼랭 (ERLANG)</t>
+  </si>
+  <si>
     <t>언리얼 엔진 (Unreal Engine)</t>
   </si>
   <si>
@@ -1523,6 +1523,9 @@
     <t>일래스틱 서치 (elastic search)</t>
   </si>
   <si>
+    <t>엘릭서 (Elixir)</t>
+  </si>
+  <si>
     <t>일렉트론 (Electron)</t>
   </si>
   <si>
@@ -1673,6 +1676,9 @@
     <t>피그마 (Figma)</t>
   </si>
   <si>
+    <t>코볼 (COBOL)</t>
+  </si>
+  <si>
     <t>하이버네이트 (Hibernate)</t>
   </si>
   <si>
@@ -1682,6 +1688,9 @@
     <t>하이퍼텍스트 마크업 언어 (HTML)</t>
   </si>
   <si>
+    <t>하스켈 (Haskell)</t>
+  </si>
+  <si>
     <t>화면설계서 (Wireframe)</t>
   </si>
   <si>
@@ -1742,6 +1751,9 @@
     <t>어셈블리어 (Assembly language)</t>
   </si>
   <si>
+    <t>웹어셈블리 (WebAssembly)</t>
+  </si>
+  <si>
     <t>Caffe (Deep Learning Framework)</t>
   </si>
   <si>
@@ -2028,9 +2040,6 @@
   </si>
   <si>
     <t>rx2</t>
-  </si>
-  <si>
-    <t>Sass</t>
   </si>
   <si>
     <t>Sas</t>
@@ -2699,23 +2708,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C777"/>
+  <dimension ref="A1:C780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6246,7 +6260,7 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>1</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -6254,10 +6268,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C323" t="s">
-        <v>1</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -6265,10 +6279,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C324" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -6279,7 +6293,7 @@
         <v>325</v>
       </c>
       <c r="C325" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -6290,7 +6304,7 @@
         <v>326</v>
       </c>
       <c r="C326" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -6301,7 +6315,7 @@
         <v>327</v>
       </c>
       <c r="C327" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -6312,7 +6326,7 @@
         <v>328</v>
       </c>
       <c r="C328" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -6323,7 +6337,7 @@
         <v>329</v>
       </c>
       <c r="C329" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -6334,7 +6348,7 @@
         <v>330</v>
       </c>
       <c r="C330" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -6345,7 +6359,7 @@
         <v>331</v>
       </c>
       <c r="C331" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -6356,7 +6370,7 @@
         <v>332</v>
       </c>
       <c r="C332" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -6367,7 +6381,7 @@
         <v>333</v>
       </c>
       <c r="C333" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -6378,7 +6392,7 @@
         <v>334</v>
       </c>
       <c r="C334" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -6389,7 +6403,7 @@
         <v>335</v>
       </c>
       <c r="C335" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -6400,7 +6414,7 @@
         <v>336</v>
       </c>
       <c r="C336" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -6411,7 +6425,7 @@
         <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -6422,7 +6436,7 @@
         <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -6433,7 +6447,7 @@
         <v>339</v>
       </c>
       <c r="C339" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -6444,7 +6458,7 @@
         <v>340</v>
       </c>
       <c r="C340" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -6455,7 +6469,7 @@
         <v>341</v>
       </c>
       <c r="C341" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -6466,7 +6480,7 @@
         <v>342</v>
       </c>
       <c r="C342" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -6477,7 +6491,7 @@
         <v>343</v>
       </c>
       <c r="C343" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -6488,7 +6502,7 @@
         <v>344</v>
       </c>
       <c r="C344" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -6499,7 +6513,7 @@
         <v>345</v>
       </c>
       <c r="C345" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -6510,7 +6524,7 @@
         <v>346</v>
       </c>
       <c r="C346" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -6521,7 +6535,7 @@
         <v>347</v>
       </c>
       <c r="C347" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -6532,7 +6546,7 @@
         <v>348</v>
       </c>
       <c r="C348" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -6543,7 +6557,7 @@
         <v>349</v>
       </c>
       <c r="C349" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -6554,7 +6568,7 @@
         <v>350</v>
       </c>
       <c r="C350" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -6565,7 +6579,7 @@
         <v>351</v>
       </c>
       <c r="C351" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -6576,7 +6590,7 @@
         <v>352</v>
       </c>
       <c r="C352" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -6587,7 +6601,7 @@
         <v>353</v>
       </c>
       <c r="C353" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -6598,7 +6612,7 @@
         <v>354</v>
       </c>
       <c r="C354" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -6609,7 +6623,7 @@
         <v>355</v>
       </c>
       <c r="C355" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -6620,7 +6634,7 @@
         <v>356</v>
       </c>
       <c r="C356" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -6631,7 +6645,7 @@
         <v>357</v>
       </c>
       <c r="C357" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -6642,7 +6656,7 @@
         <v>358</v>
       </c>
       <c r="C358" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -6653,7 +6667,7 @@
         <v>359</v>
       </c>
       <c r="C359" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -6664,7 +6678,7 @@
         <v>360</v>
       </c>
       <c r="C360" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -6675,7 +6689,7 @@
         <v>361</v>
       </c>
       <c r="C361" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -6686,7 +6700,7 @@
         <v>362</v>
       </c>
       <c r="C362" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -6697,7 +6711,7 @@
         <v>363</v>
       </c>
       <c r="C363" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -6708,7 +6722,7 @@
         <v>364</v>
       </c>
       <c r="C364" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -6719,7 +6733,7 @@
         <v>365</v>
       </c>
       <c r="C365" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -6730,7 +6744,7 @@
         <v>366</v>
       </c>
       <c r="C366" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -6741,7 +6755,7 @@
         <v>367</v>
       </c>
       <c r="C367" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -6752,7 +6766,7 @@
         <v>368</v>
       </c>
       <c r="C368" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -6763,7 +6777,7 @@
         <v>369</v>
       </c>
       <c r="C369" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -6774,7 +6788,7 @@
         <v>370</v>
       </c>
       <c r="C370" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -6785,7 +6799,7 @@
         <v>371</v>
       </c>
       <c r="C371" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -6796,7 +6810,7 @@
         <v>372</v>
       </c>
       <c r="C372" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -6807,7 +6821,7 @@
         <v>373</v>
       </c>
       <c r="C373" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -6818,7 +6832,7 @@
         <v>374</v>
       </c>
       <c r="C374" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -6829,7 +6843,7 @@
         <v>375</v>
       </c>
       <c r="C375" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -6840,7 +6854,7 @@
         <v>376</v>
       </c>
       <c r="C376" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -6851,7 +6865,7 @@
         <v>377</v>
       </c>
       <c r="C377" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -6862,7 +6876,7 @@
         <v>378</v>
       </c>
       <c r="C378" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -6873,7 +6887,7 @@
         <v>379</v>
       </c>
       <c r="C379" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -6884,7 +6898,7 @@
         <v>380</v>
       </c>
       <c r="C380" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -6895,7 +6909,7 @@
         <v>381</v>
       </c>
       <c r="C381" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -6906,7 +6920,7 @@
         <v>382</v>
       </c>
       <c r="C382" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -6917,7 +6931,7 @@
         <v>383</v>
       </c>
       <c r="C383" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -6928,7 +6942,7 @@
         <v>384</v>
       </c>
       <c r="C384" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6939,7 +6953,7 @@
         <v>385</v>
       </c>
       <c r="C385" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -6950,7 +6964,7 @@
         <v>386</v>
       </c>
       <c r="C386" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -6961,7 +6975,7 @@
         <v>387</v>
       </c>
       <c r="C387" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -6972,7 +6986,7 @@
         <v>388</v>
       </c>
       <c r="C388" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -6983,7 +6997,7 @@
         <v>389</v>
       </c>
       <c r="C389" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -6994,7 +7008,7 @@
         <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -7005,7 +7019,7 @@
         <v>391</v>
       </c>
       <c r="C391" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -7016,7 +7030,7 @@
         <v>392</v>
       </c>
       <c r="C392" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -7027,7 +7041,7 @@
         <v>393</v>
       </c>
       <c r="C393" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -7038,7 +7052,7 @@
         <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -7049,7 +7063,7 @@
         <v>395</v>
       </c>
       <c r="C395" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -7060,7 +7074,7 @@
         <v>396</v>
       </c>
       <c r="C396" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -7071,7 +7085,7 @@
         <v>397</v>
       </c>
       <c r="C397" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -7082,7 +7096,7 @@
         <v>398</v>
       </c>
       <c r="C398" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -7093,7 +7107,7 @@
         <v>399</v>
       </c>
       <c r="C399" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -7104,7 +7118,7 @@
         <v>400</v>
       </c>
       <c r="C400" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -7115,7 +7129,7 @@
         <v>401</v>
       </c>
       <c r="C401" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -7126,7 +7140,7 @@
         <v>402</v>
       </c>
       <c r="C402" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -7137,7 +7151,7 @@
         <v>403</v>
       </c>
       <c r="C403" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -7148,7 +7162,7 @@
         <v>404</v>
       </c>
       <c r="C404" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -7159,7 +7173,7 @@
         <v>405</v>
       </c>
       <c r="C405" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -7170,7 +7184,7 @@
         <v>406</v>
       </c>
       <c r="C406" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -7181,7 +7195,7 @@
         <v>407</v>
       </c>
       <c r="C407" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -7192,7 +7206,7 @@
         <v>408</v>
       </c>
       <c r="C408" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -7203,7 +7217,7 @@
         <v>409</v>
       </c>
       <c r="C409" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -7214,7 +7228,7 @@
         <v>410</v>
       </c>
       <c r="C410" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -7225,7 +7239,7 @@
         <v>411</v>
       </c>
       <c r="C411" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -7236,7 +7250,7 @@
         <v>412</v>
       </c>
       <c r="C412" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -7247,7 +7261,7 @@
         <v>413</v>
       </c>
       <c r="C413" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -7258,7 +7272,7 @@
         <v>414</v>
       </c>
       <c r="C414" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -7269,7 +7283,7 @@
         <v>415</v>
       </c>
       <c r="C415" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -7280,7 +7294,7 @@
         <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -7291,7 +7305,7 @@
         <v>417</v>
       </c>
       <c r="C417" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -7302,7 +7316,7 @@
         <v>418</v>
       </c>
       <c r="C418" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -7313,7 +7327,7 @@
         <v>419</v>
       </c>
       <c r="C419" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -7324,7 +7338,7 @@
         <v>420</v>
       </c>
       <c r="C420" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -7335,7 +7349,7 @@
         <v>421</v>
       </c>
       <c r="C421" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -7346,7 +7360,7 @@
         <v>422</v>
       </c>
       <c r="C422" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -7357,7 +7371,7 @@
         <v>423</v>
       </c>
       <c r="C423" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -7368,7 +7382,7 @@
         <v>424</v>
       </c>
       <c r="C424" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -7379,7 +7393,7 @@
         <v>425</v>
       </c>
       <c r="C425" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -7390,7 +7404,7 @@
         <v>426</v>
       </c>
       <c r="C426" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -7401,7 +7415,7 @@
         <v>427</v>
       </c>
       <c r="C427" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -7412,7 +7426,7 @@
         <v>428</v>
       </c>
       <c r="C428" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -7423,7 +7437,7 @@
         <v>429</v>
       </c>
       <c r="C429" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -7434,7 +7448,7 @@
         <v>430</v>
       </c>
       <c r="C430" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -7445,7 +7459,7 @@
         <v>431</v>
       </c>
       <c r="C431" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -7456,7 +7470,7 @@
         <v>432</v>
       </c>
       <c r="C432" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -7467,7 +7481,7 @@
         <v>433</v>
       </c>
       <c r="C433" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -7478,7 +7492,7 @@
         <v>434</v>
       </c>
       <c r="C434" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -7489,7 +7503,7 @@
         <v>435</v>
       </c>
       <c r="C435" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -7500,7 +7514,7 @@
         <v>436</v>
       </c>
       <c r="C436" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -7511,7 +7525,7 @@
         <v>437</v>
       </c>
       <c r="C437" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -7522,7 +7536,7 @@
         <v>438</v>
       </c>
       <c r="C438" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -7533,7 +7547,7 @@
         <v>439</v>
       </c>
       <c r="C439" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -7544,7 +7558,7 @@
         <v>440</v>
       </c>
       <c r="C440" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -7555,7 +7569,7 @@
         <v>441</v>
       </c>
       <c r="C441" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -7566,7 +7580,7 @@
         <v>442</v>
       </c>
       <c r="C442" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -7577,7 +7591,7 @@
         <v>443</v>
       </c>
       <c r="C443" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -7588,7 +7602,7 @@
         <v>444</v>
       </c>
       <c r="C444" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -7599,7 +7613,7 @@
         <v>445</v>
       </c>
       <c r="C445" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -7610,7 +7624,7 @@
         <v>446</v>
       </c>
       <c r="C446" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -7621,7 +7635,7 @@
         <v>447</v>
       </c>
       <c r="C447" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -7632,7 +7646,7 @@
         <v>448</v>
       </c>
       <c r="C448" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -7643,7 +7657,7 @@
         <v>449</v>
       </c>
       <c r="C449" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -7654,7 +7668,7 @@
         <v>450</v>
       </c>
       <c r="C450" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -7665,7 +7679,7 @@
         <v>451</v>
       </c>
       <c r="C451" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -7676,7 +7690,7 @@
         <v>452</v>
       </c>
       <c r="C452" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -7687,7 +7701,7 @@
         <v>453</v>
       </c>
       <c r="C453" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -7698,7 +7712,7 @@
         <v>454</v>
       </c>
       <c r="C454" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -7709,7 +7723,7 @@
         <v>455</v>
       </c>
       <c r="C455" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -7720,7 +7734,7 @@
         <v>456</v>
       </c>
       <c r="C456" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -7731,7 +7745,7 @@
         <v>457</v>
       </c>
       <c r="C457" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -7742,7 +7756,7 @@
         <v>458</v>
       </c>
       <c r="C458" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -7753,7 +7767,7 @@
         <v>459</v>
       </c>
       <c r="C459" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -7764,7 +7778,7 @@
         <v>460</v>
       </c>
       <c r="C460" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -7775,7 +7789,7 @@
         <v>461</v>
       </c>
       <c r="C461" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -7786,7 +7800,7 @@
         <v>462</v>
       </c>
       <c r="C462" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -7797,7 +7811,7 @@
         <v>463</v>
       </c>
       <c r="C463" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -7808,7 +7822,7 @@
         <v>464</v>
       </c>
       <c r="C464" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -7819,7 +7833,7 @@
         <v>465</v>
       </c>
       <c r="C465" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -7830,7 +7844,7 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -7841,7 +7855,7 @@
         <v>467</v>
       </c>
       <c r="C467" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -7852,7 +7866,7 @@
         <v>468</v>
       </c>
       <c r="C468" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -7863,7 +7877,7 @@
         <v>469</v>
       </c>
       <c r="C469" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -7874,7 +7888,7 @@
         <v>470</v>
       </c>
       <c r="C470" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -7885,7 +7899,7 @@
         <v>471</v>
       </c>
       <c r="C471" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -7896,7 +7910,7 @@
         <v>472</v>
       </c>
       <c r="C472" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -7907,7 +7921,7 @@
         <v>473</v>
       </c>
       <c r="C473" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -7918,7 +7932,7 @@
         <v>474</v>
       </c>
       <c r="C474" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -7929,7 +7943,7 @@
         <v>475</v>
       </c>
       <c r="C475" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -7940,7 +7954,7 @@
         <v>476</v>
       </c>
       <c r="C476" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -7951,7 +7965,7 @@
         <v>477</v>
       </c>
       <c r="C477" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -7962,7 +7976,7 @@
         <v>478</v>
       </c>
       <c r="C478" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -7973,7 +7987,7 @@
         <v>479</v>
       </c>
       <c r="C479" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -7984,7 +7998,7 @@
         <v>480</v>
       </c>
       <c r="C480" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -7995,7 +8009,7 @@
         <v>481</v>
       </c>
       <c r="C481" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -8006,7 +8020,7 @@
         <v>482</v>
       </c>
       <c r="C482" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -8017,7 +8031,7 @@
         <v>483</v>
       </c>
       <c r="C483" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -8028,7 +8042,7 @@
         <v>484</v>
       </c>
       <c r="C484" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -8039,7 +8053,7 @@
         <v>485</v>
       </c>
       <c r="C485" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -8050,7 +8064,7 @@
         <v>486</v>
       </c>
       <c r="C486" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -8061,7 +8075,7 @@
         <v>487</v>
       </c>
       <c r="C487" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -8072,7 +8086,7 @@
         <v>488</v>
       </c>
       <c r="C488" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -8083,7 +8097,7 @@
         <v>489</v>
       </c>
       <c r="C489" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -8094,7 +8108,7 @@
         <v>490</v>
       </c>
       <c r="C490" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -8105,7 +8119,7 @@
         <v>491</v>
       </c>
       <c r="C491" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -8116,7 +8130,7 @@
         <v>492</v>
       </c>
       <c r="C492" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -8127,7 +8141,7 @@
         <v>493</v>
       </c>
       <c r="C493" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -8138,7 +8152,7 @@
         <v>494</v>
       </c>
       <c r="C494" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -8149,7 +8163,7 @@
         <v>495</v>
       </c>
       <c r="C495" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -8160,7 +8174,7 @@
         <v>496</v>
       </c>
       <c r="C496" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -8171,7 +8185,7 @@
         <v>497</v>
       </c>
       <c r="C497" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -8182,7 +8196,7 @@
         <v>498</v>
       </c>
       <c r="C498" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -8193,7 +8207,7 @@
         <v>499</v>
       </c>
       <c r="C499" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -8204,7 +8218,7 @@
         <v>500</v>
       </c>
       <c r="C500" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -8215,7 +8229,7 @@
         <v>501</v>
       </c>
       <c r="C501" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -8226,7 +8240,7 @@
         <v>502</v>
       </c>
       <c r="C502" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -8237,7 +8251,7 @@
         <v>503</v>
       </c>
       <c r="C503" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -8248,7 +8262,7 @@
         <v>504</v>
       </c>
       <c r="C504" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -8259,7 +8273,7 @@
         <v>505</v>
       </c>
       <c r="C505" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -8270,7 +8284,7 @@
         <v>506</v>
       </c>
       <c r="C506" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -8281,7 +8295,7 @@
         <v>507</v>
       </c>
       <c r="C507" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -8292,7 +8306,7 @@
         <v>508</v>
       </c>
       <c r="C508" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -8303,7 +8317,7 @@
         <v>509</v>
       </c>
       <c r="C509" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -8314,7 +8328,7 @@
         <v>510</v>
       </c>
       <c r="C510" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -8325,7 +8339,7 @@
         <v>511</v>
       </c>
       <c r="C511" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -8336,7 +8350,7 @@
         <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -8347,7 +8361,7 @@
         <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -8358,7 +8372,7 @@
         <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -8369,7 +8383,7 @@
         <v>515</v>
       </c>
       <c r="C515" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -8380,7 +8394,7 @@
         <v>516</v>
       </c>
       <c r="C516" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -8391,7 +8405,7 @@
         <v>517</v>
       </c>
       <c r="C517" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -8402,7 +8416,7 @@
         <v>518</v>
       </c>
       <c r="C518" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -8413,7 +8427,7 @@
         <v>519</v>
       </c>
       <c r="C519" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -8424,7 +8438,7 @@
         <v>520</v>
       </c>
       <c r="C520" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -8435,7 +8449,7 @@
         <v>521</v>
       </c>
       <c r="C521" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -8446,7 +8460,7 @@
         <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -8457,7 +8471,7 @@
         <v>523</v>
       </c>
       <c r="C523" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -8468,7 +8482,7 @@
         <v>524</v>
       </c>
       <c r="C524" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -8479,7 +8493,7 @@
         <v>525</v>
       </c>
       <c r="C525" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -8490,7 +8504,7 @@
         <v>526</v>
       </c>
       <c r="C526" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -8501,7 +8515,7 @@
         <v>527</v>
       </c>
       <c r="C527" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -8512,7 +8526,7 @@
         <v>528</v>
       </c>
       <c r="C528" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -8523,7 +8537,7 @@
         <v>529</v>
       </c>
       <c r="C529" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -8534,7 +8548,7 @@
         <v>530</v>
       </c>
       <c r="C530" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -8545,7 +8559,7 @@
         <v>531</v>
       </c>
       <c r="C531" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -8556,7 +8570,7 @@
         <v>532</v>
       </c>
       <c r="C532" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -8567,7 +8581,7 @@
         <v>533</v>
       </c>
       <c r="C533" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -8578,7 +8592,7 @@
         <v>534</v>
       </c>
       <c r="C534" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -8589,7 +8603,7 @@
         <v>535</v>
       </c>
       <c r="C535" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -8600,7 +8614,7 @@
         <v>536</v>
       </c>
       <c r="C536" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -8611,7 +8625,7 @@
         <v>537</v>
       </c>
       <c r="C537" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -8622,7 +8636,7 @@
         <v>538</v>
       </c>
       <c r="C538" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -8633,7 +8647,7 @@
         <v>539</v>
       </c>
       <c r="C539" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -8644,7 +8658,7 @@
         <v>540</v>
       </c>
       <c r="C540" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -8655,7 +8669,7 @@
         <v>541</v>
       </c>
       <c r="C541" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -8666,7 +8680,7 @@
         <v>542</v>
       </c>
       <c r="C542" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -8677,7 +8691,7 @@
         <v>543</v>
       </c>
       <c r="C543" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -8688,7 +8702,7 @@
         <v>544</v>
       </c>
       <c r="C544" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -8699,7 +8713,7 @@
         <v>545</v>
       </c>
       <c r="C545" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
@@ -8710,7 +8724,7 @@
         <v>546</v>
       </c>
       <c r="C546" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -8721,7 +8735,7 @@
         <v>547</v>
       </c>
       <c r="C547" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -8732,7 +8746,7 @@
         <v>548</v>
       </c>
       <c r="C548" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
@@ -8743,7 +8757,7 @@
         <v>549</v>
       </c>
       <c r="C549" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -8754,7 +8768,7 @@
         <v>550</v>
       </c>
       <c r="C550" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -8765,7 +8779,7 @@
         <v>551</v>
       </c>
       <c r="C551" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -8776,7 +8790,7 @@
         <v>552</v>
       </c>
       <c r="C552" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
@@ -8787,7 +8801,7 @@
         <v>553</v>
       </c>
       <c r="C553" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
@@ -8798,7 +8812,7 @@
         <v>554</v>
       </c>
       <c r="C554" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -8809,7 +8823,7 @@
         <v>555</v>
       </c>
       <c r="C555" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -8820,7 +8834,7 @@
         <v>556</v>
       </c>
       <c r="C556" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -8831,7 +8845,7 @@
         <v>557</v>
       </c>
       <c r="C557" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -8842,7 +8856,7 @@
         <v>558</v>
       </c>
       <c r="C558" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -8853,7 +8867,7 @@
         <v>559</v>
       </c>
       <c r="C559" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -8864,7 +8878,7 @@
         <v>560</v>
       </c>
       <c r="C560" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -8875,7 +8889,7 @@
         <v>561</v>
       </c>
       <c r="C561" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
@@ -8886,7 +8900,7 @@
         <v>562</v>
       </c>
       <c r="C562" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -8897,7 +8911,7 @@
         <v>563</v>
       </c>
       <c r="C563" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -8908,7 +8922,7 @@
         <v>564</v>
       </c>
       <c r="C564" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -8919,7 +8933,7 @@
         <v>565</v>
       </c>
       <c r="C565" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -8930,7 +8944,7 @@
         <v>566</v>
       </c>
       <c r="C566" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
@@ -8941,7 +8955,7 @@
         <v>567</v>
       </c>
       <c r="C567" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
@@ -8952,7 +8966,7 @@
         <v>568</v>
       </c>
       <c r="C568" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
@@ -8963,7 +8977,7 @@
         <v>569</v>
       </c>
       <c r="C569" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
@@ -8974,7 +8988,7 @@
         <v>570</v>
       </c>
       <c r="C570" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -8985,7 +8999,7 @@
         <v>571</v>
       </c>
       <c r="C571" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
@@ -8996,7 +9010,7 @@
         <v>572</v>
       </c>
       <c r="C572" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
@@ -9007,7 +9021,7 @@
         <v>573</v>
       </c>
       <c r="C573" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -9018,7 +9032,7 @@
         <v>574</v>
       </c>
       <c r="C574" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
@@ -9029,7 +9043,7 @@
         <v>575</v>
       </c>
       <c r="C575" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -9040,7 +9054,7 @@
         <v>576</v>
       </c>
       <c r="C576" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -9051,7 +9065,7 @@
         <v>577</v>
       </c>
       <c r="C577" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -9062,7 +9076,7 @@
         <v>578</v>
       </c>
       <c r="C578" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -9073,7 +9087,7 @@
         <v>579</v>
       </c>
       <c r="C579" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -9084,7 +9098,7 @@
         <v>580</v>
       </c>
       <c r="C580" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -9095,7 +9109,7 @@
         <v>581</v>
       </c>
       <c r="C581" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -9106,7 +9120,7 @@
         <v>582</v>
       </c>
       <c r="C582" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -9117,7 +9131,7 @@
         <v>583</v>
       </c>
       <c r="C583" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -9128,7 +9142,7 @@
         <v>584</v>
       </c>
       <c r="C584" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -9139,7 +9153,7 @@
         <v>585</v>
       </c>
       <c r="C585" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -9150,7 +9164,7 @@
         <v>586</v>
       </c>
       <c r="C586" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
@@ -9161,7 +9175,7 @@
         <v>587</v>
       </c>
       <c r="C587" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -9172,7 +9186,7 @@
         <v>588</v>
       </c>
       <c r="C588" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -9183,7 +9197,7 @@
         <v>589</v>
       </c>
       <c r="C589" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -9194,7 +9208,7 @@
         <v>590</v>
       </c>
       <c r="C590" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
@@ -9205,7 +9219,7 @@
         <v>591</v>
       </c>
       <c r="C591" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -9216,7 +9230,7 @@
         <v>592</v>
       </c>
       <c r="C592" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -9227,7 +9241,7 @@
         <v>593</v>
       </c>
       <c r="C593" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -9238,7 +9252,7 @@
         <v>594</v>
       </c>
       <c r="C594" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -9249,7 +9263,7 @@
         <v>595</v>
       </c>
       <c r="C595" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -9260,7 +9274,7 @@
         <v>596</v>
       </c>
       <c r="C596" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -9271,7 +9285,7 @@
         <v>597</v>
       </c>
       <c r="C597" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -9282,7 +9296,7 @@
         <v>598</v>
       </c>
       <c r="C598" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -9293,7 +9307,7 @@
         <v>599</v>
       </c>
       <c r="C599" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -9304,7 +9318,7 @@
         <v>600</v>
       </c>
       <c r="C600" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -9315,7 +9329,7 @@
         <v>601</v>
       </c>
       <c r="C601" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -9326,7 +9340,7 @@
         <v>602</v>
       </c>
       <c r="C602" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -9337,7 +9351,7 @@
         <v>603</v>
       </c>
       <c r="C603" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -9348,7 +9362,7 @@
         <v>604</v>
       </c>
       <c r="C604" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -9359,7 +9373,7 @@
         <v>605</v>
       </c>
       <c r="C605" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -9370,7 +9384,7 @@
         <v>606</v>
       </c>
       <c r="C606" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -9381,7 +9395,7 @@
         <v>607</v>
       </c>
       <c r="C607" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -9392,7 +9406,7 @@
         <v>608</v>
       </c>
       <c r="C608" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -9403,7 +9417,7 @@
         <v>609</v>
       </c>
       <c r="C609" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -9414,7 +9428,7 @@
         <v>610</v>
       </c>
       <c r="C610" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -9425,7 +9439,7 @@
         <v>611</v>
       </c>
       <c r="C611" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -9436,7 +9450,7 @@
         <v>612</v>
       </c>
       <c r="C612" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -9447,7 +9461,7 @@
         <v>613</v>
       </c>
       <c r="C613" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -9458,7 +9472,7 @@
         <v>614</v>
       </c>
       <c r="C614" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -9469,7 +9483,7 @@
         <v>615</v>
       </c>
       <c r="C615" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -9480,7 +9494,7 @@
         <v>616</v>
       </c>
       <c r="C616" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -9491,7 +9505,7 @@
         <v>617</v>
       </c>
       <c r="C617" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -9502,7 +9516,7 @@
         <v>618</v>
       </c>
       <c r="C618" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -9513,7 +9527,7 @@
         <v>619</v>
       </c>
       <c r="C619" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -9524,7 +9538,7 @@
         <v>620</v>
       </c>
       <c r="C620" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -9535,7 +9549,7 @@
         <v>621</v>
       </c>
       <c r="C621" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -9546,7 +9560,7 @@
         <v>622</v>
       </c>
       <c r="C622" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -9557,7 +9571,7 @@
         <v>623</v>
       </c>
       <c r="C623" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -9568,7 +9582,7 @@
         <v>624</v>
       </c>
       <c r="C624" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -9579,7 +9593,7 @@
         <v>625</v>
       </c>
       <c r="C625" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -9590,7 +9604,7 @@
         <v>626</v>
       </c>
       <c r="C626" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -9601,7 +9615,7 @@
         <v>627</v>
       </c>
       <c r="C627" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -9612,7 +9626,7 @@
         <v>628</v>
       </c>
       <c r="C628" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -9623,7 +9637,7 @@
         <v>629</v>
       </c>
       <c r="C629" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -9634,7 +9648,7 @@
         <v>630</v>
       </c>
       <c r="C630" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -9645,7 +9659,7 @@
         <v>631</v>
       </c>
       <c r="C631" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -9656,7 +9670,7 @@
         <v>632</v>
       </c>
       <c r="C632" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -9667,7 +9681,7 @@
         <v>633</v>
       </c>
       <c r="C633" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -9678,7 +9692,7 @@
         <v>634</v>
       </c>
       <c r="C634" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -9689,7 +9703,7 @@
         <v>635</v>
       </c>
       <c r="C635" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -9700,7 +9714,7 @@
         <v>636</v>
       </c>
       <c r="C636" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -9711,7 +9725,7 @@
         <v>637</v>
       </c>
       <c r="C637" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -9722,7 +9736,7 @@
         <v>638</v>
       </c>
       <c r="C638" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -9733,7 +9747,7 @@
         <v>639</v>
       </c>
       <c r="C639" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -9744,7 +9758,7 @@
         <v>640</v>
       </c>
       <c r="C640" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -9755,7 +9769,7 @@
         <v>641</v>
       </c>
       <c r="C641" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -9766,7 +9780,7 @@
         <v>642</v>
       </c>
       <c r="C642" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -9777,7 +9791,7 @@
         <v>643</v>
       </c>
       <c r="C643" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -9788,7 +9802,7 @@
         <v>644</v>
       </c>
       <c r="C644" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -9799,7 +9813,7 @@
         <v>645</v>
       </c>
       <c r="C645" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -9810,7 +9824,7 @@
         <v>646</v>
       </c>
       <c r="C646" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -9821,7 +9835,7 @@
         <v>647</v>
       </c>
       <c r="C647" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -9832,7 +9846,7 @@
         <v>648</v>
       </c>
       <c r="C648" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -9843,7 +9857,7 @@
         <v>649</v>
       </c>
       <c r="C649" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -9854,7 +9868,7 @@
         <v>650</v>
       </c>
       <c r="C650" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -9865,7 +9879,7 @@
         <v>651</v>
       </c>
       <c r="C651" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -9876,7 +9890,7 @@
         <v>652</v>
       </c>
       <c r="C652" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -9887,7 +9901,7 @@
         <v>653</v>
       </c>
       <c r="C653" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -9898,7 +9912,7 @@
         <v>654</v>
       </c>
       <c r="C654" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -9909,7 +9923,7 @@
         <v>655</v>
       </c>
       <c r="C655" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
@@ -9920,7 +9934,7 @@
         <v>656</v>
       </c>
       <c r="C656" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -9931,7 +9945,7 @@
         <v>657</v>
       </c>
       <c r="C657" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -9942,7 +9956,7 @@
         <v>658</v>
       </c>
       <c r="C658" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -9953,7 +9967,7 @@
         <v>659</v>
       </c>
       <c r="C659" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -9964,7 +9978,7 @@
         <v>660</v>
       </c>
       <c r="C660" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -9975,7 +9989,7 @@
         <v>661</v>
       </c>
       <c r="C661" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -9986,7 +10000,7 @@
         <v>662</v>
       </c>
       <c r="C662" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -9997,7 +10011,7 @@
         <v>663</v>
       </c>
       <c r="C663" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -10008,7 +10022,7 @@
         <v>664</v>
       </c>
       <c r="C664" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -10019,7 +10033,7 @@
         <v>665</v>
       </c>
       <c r="C665" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -10030,7 +10044,7 @@
         <v>666</v>
       </c>
       <c r="C666" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -10041,7 +10055,7 @@
         <v>667</v>
       </c>
       <c r="C667" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -10052,7 +10066,7 @@
         <v>668</v>
       </c>
       <c r="C668" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -10063,7 +10077,7 @@
         <v>669</v>
       </c>
       <c r="C669" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -10074,7 +10088,7 @@
         <v>670</v>
       </c>
       <c r="C670" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -10085,7 +10099,7 @@
         <v>671</v>
       </c>
       <c r="C671" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -10096,7 +10110,7 @@
         <v>672</v>
       </c>
       <c r="C672" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -10107,7 +10121,7 @@
         <v>673</v>
       </c>
       <c r="C673" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -10118,7 +10132,7 @@
         <v>674</v>
       </c>
       <c r="C674" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -10129,7 +10143,7 @@
         <v>675</v>
       </c>
       <c r="C675" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -10140,7 +10154,7 @@
         <v>676</v>
       </c>
       <c r="C676" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -10151,7 +10165,7 @@
         <v>677</v>
       </c>
       <c r="C677" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -10162,7 +10176,7 @@
         <v>678</v>
       </c>
       <c r="C678" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -10173,7 +10187,7 @@
         <v>679</v>
       </c>
       <c r="C679" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -10184,7 +10198,7 @@
         <v>680</v>
       </c>
       <c r="C680" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -10195,7 +10209,7 @@
         <v>681</v>
       </c>
       <c r="C681" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -10206,7 +10220,7 @@
         <v>682</v>
       </c>
       <c r="C682" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -10217,7 +10231,7 @@
         <v>683</v>
       </c>
       <c r="C683" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -10228,7 +10242,7 @@
         <v>684</v>
       </c>
       <c r="C684" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -10239,7 +10253,7 @@
         <v>685</v>
       </c>
       <c r="C685" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -10250,7 +10264,7 @@
         <v>686</v>
       </c>
       <c r="C686" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -10261,7 +10275,7 @@
         <v>687</v>
       </c>
       <c r="C687" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -10272,7 +10286,7 @@
         <v>688</v>
       </c>
       <c r="C688" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -10283,7 +10297,7 @@
         <v>689</v>
       </c>
       <c r="C689" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -10294,7 +10308,7 @@
         <v>690</v>
       </c>
       <c r="C690" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -10305,7 +10319,7 @@
         <v>691</v>
       </c>
       <c r="C691" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
@@ -10316,7 +10330,7 @@
         <v>692</v>
       </c>
       <c r="C692" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -10327,7 +10341,7 @@
         <v>693</v>
       </c>
       <c r="C693" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -10338,7 +10352,7 @@
         <v>694</v>
       </c>
       <c r="C694" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -10349,7 +10363,7 @@
         <v>695</v>
       </c>
       <c r="C695" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -10360,7 +10374,7 @@
         <v>696</v>
       </c>
       <c r="C696" t="s">
-        <v>697</v>
+        <v>322</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
@@ -10368,10 +10382,10 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C697" t="s">
-        <v>697</v>
+        <v>322</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -10379,10 +10393,10 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C698" t="s">
-        <v>697</v>
+        <v>322</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
@@ -10390,10 +10404,10 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
+        <v>699</v>
+      </c>
+      <c r="C699" t="s">
         <v>700</v>
-      </c>
-      <c r="C699" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
@@ -10404,7 +10418,7 @@
         <v>701</v>
       </c>
       <c r="C700" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
@@ -10415,7 +10429,7 @@
         <v>702</v>
       </c>
       <c r="C701" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
@@ -10426,7 +10440,7 @@
         <v>703</v>
       </c>
       <c r="C702" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
@@ -10437,7 +10451,7 @@
         <v>704</v>
       </c>
       <c r="C703" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
@@ -10448,7 +10462,7 @@
         <v>705</v>
       </c>
       <c r="C704" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
@@ -10459,7 +10473,7 @@
         <v>706</v>
       </c>
       <c r="C705" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
@@ -10470,7 +10484,7 @@
         <v>707</v>
       </c>
       <c r="C706" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
@@ -10481,7 +10495,7 @@
         <v>708</v>
       </c>
       <c r="C707" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
@@ -10492,7 +10506,7 @@
         <v>709</v>
       </c>
       <c r="C708" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
@@ -10503,7 +10517,7 @@
         <v>710</v>
       </c>
       <c r="C709" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
@@ -10514,7 +10528,7 @@
         <v>711</v>
       </c>
       <c r="C710" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
@@ -10525,7 +10539,7 @@
         <v>712</v>
       </c>
       <c r="C711" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
@@ -10536,7 +10550,7 @@
         <v>713</v>
       </c>
       <c r="C712" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
@@ -10547,7 +10561,7 @@
         <v>714</v>
       </c>
       <c r="C713" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
@@ -10558,7 +10572,7 @@
         <v>715</v>
       </c>
       <c r="C714" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
@@ -10569,7 +10583,7 @@
         <v>716</v>
       </c>
       <c r="C715" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
@@ -10580,7 +10594,7 @@
         <v>717</v>
       </c>
       <c r="C716" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
@@ -10591,7 +10605,7 @@
         <v>718</v>
       </c>
       <c r="C717" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
@@ -10602,7 +10616,7 @@
         <v>719</v>
       </c>
       <c r="C718" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -10613,7 +10627,7 @@
         <v>720</v>
       </c>
       <c r="C719" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
@@ -10624,7 +10638,7 @@
         <v>721</v>
       </c>
       <c r="C720" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
@@ -10635,7 +10649,7 @@
         <v>722</v>
       </c>
       <c r="C721" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
@@ -10646,7 +10660,7 @@
         <v>723</v>
       </c>
       <c r="C722" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
@@ -10657,7 +10671,7 @@
         <v>724</v>
       </c>
       <c r="C723" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
@@ -10668,7 +10682,7 @@
         <v>725</v>
       </c>
       <c r="C724" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
@@ -10679,7 +10693,7 @@
         <v>726</v>
       </c>
       <c r="C725" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
@@ -10690,7 +10704,7 @@
         <v>727</v>
       </c>
       <c r="C726" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
@@ -10701,7 +10715,7 @@
         <v>728</v>
       </c>
       <c r="C727" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
@@ -10712,7 +10726,7 @@
         <v>729</v>
       </c>
       <c r="C728" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
@@ -10723,7 +10737,7 @@
         <v>730</v>
       </c>
       <c r="C729" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
@@ -10734,7 +10748,7 @@
         <v>731</v>
       </c>
       <c r="C730" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
@@ -10745,7 +10759,7 @@
         <v>732</v>
       </c>
       <c r="C731" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
@@ -10756,7 +10770,7 @@
         <v>733</v>
       </c>
       <c r="C732" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
@@ -10767,7 +10781,7 @@
         <v>734</v>
       </c>
       <c r="C733" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
@@ -10778,7 +10792,7 @@
         <v>735</v>
       </c>
       <c r="C734" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
@@ -10789,7 +10803,7 @@
         <v>736</v>
       </c>
       <c r="C735" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
@@ -10800,7 +10814,7 @@
         <v>737</v>
       </c>
       <c r="C736" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
@@ -10811,7 +10825,7 @@
         <v>738</v>
       </c>
       <c r="C737" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
@@ -10822,7 +10836,7 @@
         <v>739</v>
       </c>
       <c r="C738" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
@@ -10833,7 +10847,7 @@
         <v>740</v>
       </c>
       <c r="C739" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
@@ -10844,7 +10858,7 @@
         <v>741</v>
       </c>
       <c r="C740" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
@@ -10855,7 +10869,7 @@
         <v>742</v>
       </c>
       <c r="C741" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
@@ -10866,7 +10880,7 @@
         <v>743</v>
       </c>
       <c r="C742" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -10877,7 +10891,7 @@
         <v>744</v>
       </c>
       <c r="C743" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
@@ -10888,7 +10902,7 @@
         <v>745</v>
       </c>
       <c r="C744" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
@@ -10899,7 +10913,7 @@
         <v>746</v>
       </c>
       <c r="C745" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
@@ -10910,7 +10924,7 @@
         <v>747</v>
       </c>
       <c r="C746" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
@@ -10921,7 +10935,7 @@
         <v>748</v>
       </c>
       <c r="C747" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
@@ -10932,7 +10946,7 @@
         <v>749</v>
       </c>
       <c r="C748" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
@@ -10943,7 +10957,7 @@
         <v>750</v>
       </c>
       <c r="C749" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
@@ -10954,7 +10968,7 @@
         <v>751</v>
       </c>
       <c r="C750" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
@@ -10965,7 +10979,7 @@
         <v>752</v>
       </c>
       <c r="C751" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
@@ -10976,7 +10990,7 @@
         <v>753</v>
       </c>
       <c r="C752" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
@@ -10987,7 +11001,7 @@
         <v>754</v>
       </c>
       <c r="C753" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
@@ -10998,7 +11012,7 @@
         <v>755</v>
       </c>
       <c r="C754" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
@@ -11009,7 +11023,7 @@
         <v>756</v>
       </c>
       <c r="C755" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
@@ -11020,7 +11034,7 @@
         <v>757</v>
       </c>
       <c r="C756" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
@@ -11031,7 +11045,7 @@
         <v>758</v>
       </c>
       <c r="C757" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
@@ -11042,7 +11056,7 @@
         <v>759</v>
       </c>
       <c r="C758" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
@@ -11053,7 +11067,7 @@
         <v>760</v>
       </c>
       <c r="C759" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
@@ -11064,7 +11078,7 @@
         <v>761</v>
       </c>
       <c r="C760" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
@@ -11075,7 +11089,7 @@
         <v>762</v>
       </c>
       <c r="C761" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
@@ -11086,7 +11100,7 @@
         <v>763</v>
       </c>
       <c r="C762" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
@@ -11097,7 +11111,7 @@
         <v>764</v>
       </c>
       <c r="C763" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
@@ -11108,7 +11122,7 @@
         <v>765</v>
       </c>
       <c r="C764" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
@@ -11119,7 +11133,7 @@
         <v>766</v>
       </c>
       <c r="C765" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
@@ -11130,7 +11144,7 @@
         <v>767</v>
       </c>
       <c r="C766" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
@@ -11141,7 +11155,7 @@
         <v>768</v>
       </c>
       <c r="C767" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
@@ -11152,7 +11166,7 @@
         <v>769</v>
       </c>
       <c r="C768" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
@@ -11163,7 +11177,7 @@
         <v>770</v>
       </c>
       <c r="C769" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
@@ -11174,7 +11188,7 @@
         <v>771</v>
       </c>
       <c r="C770" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
@@ -11185,7 +11199,7 @@
         <v>772</v>
       </c>
       <c r="C771" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
@@ -11196,7 +11210,7 @@
         <v>773</v>
       </c>
       <c r="C772" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
@@ -11207,7 +11221,7 @@
         <v>774</v>
       </c>
       <c r="C773" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
@@ -11218,7 +11232,7 @@
         <v>775</v>
       </c>
       <c r="C774" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
@@ -11229,7 +11243,7 @@
         <v>776</v>
       </c>
       <c r="C775" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
@@ -11240,7 +11254,7 @@
         <v>777</v>
       </c>
       <c r="C776" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
@@ -11251,7 +11265,40 @@
         <v>778</v>
       </c>
       <c r="C777" t="s">
-        <v>697</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>777</v>
+      </c>
+      <c r="B778" t="s">
+        <v>779</v>
+      </c>
+      <c r="C778" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>778</v>
+      </c>
+      <c r="B779" t="s">
+        <v>780</v>
+      </c>
+      <c r="C779" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>779</v>
+      </c>
+      <c r="B780" t="s">
+        <v>781</v>
+      </c>
+      <c r="C780" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -890,7 +890,7 @@
     <t>Pipeline</t>
   </si>
   <si>
-    <t>GPGPU (GPU Programming)</t>
+    <t>GPGPU (General-Purpose computing on GPU)</t>
   </si>
   <si>
     <t>IaC (Infrastructure as Code)</t>
@@ -2720,15 +2720,10 @@
   <dimension ref="A1:C784"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:C784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_RepKeyword_xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="789">
   <si>
     <t>representation_keyword_sn</t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t>코드 리뷰 (Code Review)</t>
+  </si>
+  <si>
+    <t>쿼리 (Query)</t>
   </si>
   <si>
     <t>쿼리 최적화 (Query Optimization)</t>
@@ -2717,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C784"/>
+  <dimension ref="A1:C785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C784"/>
+      <selection sqref="A1:C785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6242,7 +6245,7 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>323</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -6250,10 +6253,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -6264,7 +6267,7 @@
         <v>325</v>
       </c>
       <c r="C322" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -6275,7 +6278,7 @@
         <v>326</v>
       </c>
       <c r="C323" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -6283,10 +6286,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>14</v>
+        <v>327</v>
       </c>
       <c r="C324" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -6294,10 +6297,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>327</v>
+        <v>14</v>
       </c>
       <c r="C325" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -6308,7 +6311,7 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -6319,7 +6322,7 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -6330,7 +6333,7 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -6341,7 +6344,7 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -6352,7 +6355,7 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -6363,7 +6366,7 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -6374,7 +6377,7 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -6385,7 +6388,7 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -6396,7 +6399,7 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -6407,7 +6410,7 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -6418,7 +6421,7 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -6429,7 +6432,7 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -6440,7 +6443,7 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -6451,7 +6454,7 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -6462,7 +6465,7 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -6473,7 +6476,7 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -6484,7 +6487,7 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -6495,7 +6498,7 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -6506,7 +6509,7 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -6517,7 +6520,7 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -6528,7 +6531,7 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -6539,7 +6542,7 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -6550,7 +6553,7 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -6561,7 +6564,7 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -6572,7 +6575,7 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -6583,7 +6586,7 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -6594,7 +6597,7 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -6605,7 +6608,7 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -6616,7 +6619,7 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -6627,7 +6630,7 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -6638,7 +6641,7 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -6649,7 +6652,7 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -6660,7 +6663,7 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -6671,7 +6674,7 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -6682,7 +6685,7 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -6693,7 +6696,7 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -6704,7 +6707,7 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -6715,7 +6718,7 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -6726,7 +6729,7 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -6737,7 +6740,7 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -6748,7 +6751,7 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -6759,7 +6762,7 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -6770,7 +6773,7 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -6781,7 +6784,7 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -6792,7 +6795,7 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -6803,7 +6806,7 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -6814,7 +6817,7 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -6825,7 +6828,7 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -6836,7 +6839,7 @@
         <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -6847,7 +6850,7 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -6858,7 +6861,7 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -6869,7 +6872,7 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -6880,7 +6883,7 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -6891,7 +6894,7 @@
         <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -6902,7 +6905,7 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -6913,7 +6916,7 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -6924,7 +6927,7 @@
         <v>384</v>
       </c>
       <c r="C382" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -6935,7 +6938,7 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -6946,7 +6949,7 @@
         <v>386</v>
       </c>
       <c r="C384" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6957,7 +6960,7 @@
         <v>387</v>
       </c>
       <c r="C385" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -6968,7 +6971,7 @@
         <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -6979,7 +6982,7 @@
         <v>389</v>
       </c>
       <c r="C387" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -6990,7 +6993,7 @@
         <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -7001,7 +7004,7 @@
         <v>391</v>
       </c>
       <c r="C389" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -7012,7 +7015,7 @@
         <v>392</v>
       </c>
       <c r="C390" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -7023,7 +7026,7 @@
         <v>393</v>
       </c>
       <c r="C391" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -7034,7 +7037,7 @@
         <v>394</v>
       </c>
       <c r="C392" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -7045,7 +7048,7 @@
         <v>395</v>
       </c>
       <c r="C393" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -7056,7 +7059,7 @@
         <v>396</v>
       </c>
       <c r="C394" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -7067,7 +7070,7 @@
         <v>397</v>
       </c>
       <c r="C395" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -7078,7 +7081,7 @@
         <v>398</v>
       </c>
       <c r="C396" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -7089,7 +7092,7 @@
         <v>399</v>
       </c>
       <c r="C397" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -7100,7 +7103,7 @@
         <v>400</v>
       </c>
       <c r="C398" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -7111,7 +7114,7 @@
         <v>401</v>
       </c>
       <c r="C399" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -7122,7 +7125,7 @@
         <v>402</v>
       </c>
       <c r="C400" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -7133,7 +7136,7 @@
         <v>403</v>
       </c>
       <c r="C401" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -7144,7 +7147,7 @@
         <v>404</v>
       </c>
       <c r="C402" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -7155,7 +7158,7 @@
         <v>405</v>
       </c>
       <c r="C403" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -7166,7 +7169,7 @@
         <v>406</v>
       </c>
       <c r="C404" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -7177,7 +7180,7 @@
         <v>407</v>
       </c>
       <c r="C405" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -7188,7 +7191,7 @@
         <v>408</v>
       </c>
       <c r="C406" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -7199,7 +7202,7 @@
         <v>409</v>
       </c>
       <c r="C407" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -7210,7 +7213,7 @@
         <v>410</v>
       </c>
       <c r="C408" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -7221,7 +7224,7 @@
         <v>411</v>
       </c>
       <c r="C409" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -7232,7 +7235,7 @@
         <v>412</v>
       </c>
       <c r="C410" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -7243,7 +7246,7 @@
         <v>413</v>
       </c>
       <c r="C411" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -7254,7 +7257,7 @@
         <v>414</v>
       </c>
       <c r="C412" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -7265,7 +7268,7 @@
         <v>415</v>
       </c>
       <c r="C413" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -7276,7 +7279,7 @@
         <v>416</v>
       </c>
       <c r="C414" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -7287,7 +7290,7 @@
         <v>417</v>
       </c>
       <c r="C415" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -7298,7 +7301,7 @@
         <v>418</v>
       </c>
       <c r="C416" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -7309,7 +7312,7 @@
         <v>419</v>
       </c>
       <c r="C417" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -7320,7 +7323,7 @@
         <v>420</v>
       </c>
       <c r="C418" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -7331,7 +7334,7 @@
         <v>421</v>
       </c>
       <c r="C419" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -7342,7 +7345,7 @@
         <v>422</v>
       </c>
       <c r="C420" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -7353,7 +7356,7 @@
         <v>423</v>
       </c>
       <c r="C421" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -7364,7 +7367,7 @@
         <v>424</v>
       </c>
       <c r="C422" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -7375,7 +7378,7 @@
         <v>425</v>
       </c>
       <c r="C423" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -7386,7 +7389,7 @@
         <v>426</v>
       </c>
       <c r="C424" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -7397,7 +7400,7 @@
         <v>427</v>
       </c>
       <c r="C425" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -7408,7 +7411,7 @@
         <v>428</v>
       </c>
       <c r="C426" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -7419,7 +7422,7 @@
         <v>429</v>
       </c>
       <c r="C427" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -7430,7 +7433,7 @@
         <v>430</v>
       </c>
       <c r="C428" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -7441,7 +7444,7 @@
         <v>431</v>
       </c>
       <c r="C429" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -7452,7 +7455,7 @@
         <v>432</v>
       </c>
       <c r="C430" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -7463,7 +7466,7 @@
         <v>433</v>
       </c>
       <c r="C431" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -7474,7 +7477,7 @@
         <v>434</v>
       </c>
       <c r="C432" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -7485,7 +7488,7 @@
         <v>435</v>
       </c>
       <c r="C433" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -7496,7 +7499,7 @@
         <v>436</v>
       </c>
       <c r="C434" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -7507,7 +7510,7 @@
         <v>437</v>
       </c>
       <c r="C435" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -7518,7 +7521,7 @@
         <v>438</v>
       </c>
       <c r="C436" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -7529,7 +7532,7 @@
         <v>439</v>
       </c>
       <c r="C437" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -7540,7 +7543,7 @@
         <v>440</v>
       </c>
       <c r="C438" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -7551,7 +7554,7 @@
         <v>441</v>
       </c>
       <c r="C439" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -7562,7 +7565,7 @@
         <v>442</v>
       </c>
       <c r="C440" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -7573,7 +7576,7 @@
         <v>443</v>
       </c>
       <c r="C441" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -7584,7 +7587,7 @@
         <v>444</v>
       </c>
       <c r="C442" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -7595,7 +7598,7 @@
         <v>445</v>
       </c>
       <c r="C443" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -7606,7 +7609,7 @@
         <v>446</v>
       </c>
       <c r="C444" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -7617,7 +7620,7 @@
         <v>447</v>
       </c>
       <c r="C445" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -7628,7 +7631,7 @@
         <v>448</v>
       </c>
       <c r="C446" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -7639,7 +7642,7 @@
         <v>449</v>
       </c>
       <c r="C447" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -7650,7 +7653,7 @@
         <v>450</v>
       </c>
       <c r="C448" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -7661,7 +7664,7 @@
         <v>451</v>
       </c>
       <c r="C449" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -7672,7 +7675,7 @@
         <v>452</v>
       </c>
       <c r="C450" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -7683,7 +7686,7 @@
         <v>453</v>
       </c>
       <c r="C451" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -7694,7 +7697,7 @@
         <v>454</v>
       </c>
       <c r="C452" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -7705,7 +7708,7 @@
         <v>455</v>
       </c>
       <c r="C453" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -7716,7 +7719,7 @@
         <v>456</v>
       </c>
       <c r="C454" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -7727,7 +7730,7 @@
         <v>457</v>
       </c>
       <c r="C455" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -7738,7 +7741,7 @@
         <v>458</v>
       </c>
       <c r="C456" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -7749,7 +7752,7 @@
         <v>459</v>
       </c>
       <c r="C457" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -7760,7 +7763,7 @@
         <v>460</v>
       </c>
       <c r="C458" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -7771,7 +7774,7 @@
         <v>461</v>
       </c>
       <c r="C459" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -7782,7 +7785,7 @@
         <v>462</v>
       </c>
       <c r="C460" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -7793,7 +7796,7 @@
         <v>463</v>
       </c>
       <c r="C461" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -7804,7 +7807,7 @@
         <v>464</v>
       </c>
       <c r="C462" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -7815,7 +7818,7 @@
         <v>465</v>
       </c>
       <c r="C463" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -7826,7 +7829,7 @@
         <v>466</v>
       </c>
       <c r="C464" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -7837,7 +7840,7 @@
         <v>467</v>
       </c>
       <c r="C465" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -7848,7 +7851,7 @@
         <v>468</v>
       </c>
       <c r="C466" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -7859,7 +7862,7 @@
         <v>469</v>
       </c>
       <c r="C467" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -7870,7 +7873,7 @@
         <v>470</v>
       </c>
       <c r="C468" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -7881,7 +7884,7 @@
         <v>471</v>
       </c>
       <c r="C469" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -7892,7 +7895,7 @@
         <v>472</v>
       </c>
       <c r="C470" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -7903,7 +7906,7 @@
         <v>473</v>
       </c>
       <c r="C471" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -7914,7 +7917,7 @@
         <v>474</v>
       </c>
       <c r="C472" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -7925,7 +7928,7 @@
         <v>475</v>
       </c>
       <c r="C473" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -7936,7 +7939,7 @@
         <v>476</v>
       </c>
       <c r="C474" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -7947,7 +7950,7 @@
         <v>477</v>
       </c>
       <c r="C475" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -7958,7 +7961,7 @@
         <v>478</v>
       </c>
       <c r="C476" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -7969,7 +7972,7 @@
         <v>479</v>
       </c>
       <c r="C477" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -7980,7 +7983,7 @@
         <v>480</v>
       </c>
       <c r="C478" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -7991,7 +7994,7 @@
         <v>481</v>
       </c>
       <c r="C479" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -8002,7 +8005,7 @@
         <v>482</v>
       </c>
       <c r="C480" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -8013,7 +8016,7 @@
         <v>483</v>
       </c>
       <c r="C481" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -8024,7 +8027,7 @@
         <v>484</v>
       </c>
       <c r="C482" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -8035,7 +8038,7 @@
         <v>485</v>
       </c>
       <c r="C483" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -8046,7 +8049,7 @@
         <v>486</v>
       </c>
       <c r="C484" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -8057,7 +8060,7 @@
         <v>487</v>
       </c>
       <c r="C485" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -8068,7 +8071,7 @@
         <v>488</v>
       </c>
       <c r="C486" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -8079,7 +8082,7 @@
         <v>489</v>
       </c>
       <c r="C487" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -8090,7 +8093,7 @@
         <v>490</v>
       </c>
       <c r="C488" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -8101,7 +8104,7 @@
         <v>491</v>
       </c>
       <c r="C489" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -8112,7 +8115,7 @@
         <v>492</v>
       </c>
       <c r="C490" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -8123,7 +8126,7 @@
         <v>493</v>
       </c>
       <c r="C491" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -8134,7 +8137,7 @@
         <v>494</v>
       </c>
       <c r="C492" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -8145,7 +8148,7 @@
         <v>495</v>
       </c>
       <c r="C493" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -8156,7 +8159,7 @@
         <v>496</v>
       </c>
       <c r="C494" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -8167,7 +8170,7 @@
         <v>497</v>
       </c>
       <c r="C495" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -8178,7 +8181,7 @@
         <v>498</v>
       </c>
       <c r="C496" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -8189,7 +8192,7 @@
         <v>499</v>
       </c>
       <c r="C497" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -8200,7 +8203,7 @@
         <v>500</v>
       </c>
       <c r="C498" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -8211,7 +8214,7 @@
         <v>501</v>
       </c>
       <c r="C499" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -8222,7 +8225,7 @@
         <v>502</v>
       </c>
       <c r="C500" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -8233,7 +8236,7 @@
         <v>503</v>
       </c>
       <c r="C501" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -8244,7 +8247,7 @@
         <v>504</v>
       </c>
       <c r="C502" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -8255,7 +8258,7 @@
         <v>505</v>
       </c>
       <c r="C503" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -8266,7 +8269,7 @@
         <v>506</v>
       </c>
       <c r="C504" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -8277,7 +8280,7 @@
         <v>507</v>
       </c>
       <c r="C505" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -8288,7 +8291,7 @@
         <v>508</v>
       </c>
       <c r="C506" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -8299,7 +8302,7 @@
         <v>509</v>
       </c>
       <c r="C507" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -8310,7 +8313,7 @@
         <v>510</v>
       </c>
       <c r="C508" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -8321,7 +8324,7 @@
         <v>511</v>
       </c>
       <c r="C509" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -8332,7 +8335,7 @@
         <v>512</v>
       </c>
       <c r="C510" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -8343,7 +8346,7 @@
         <v>513</v>
       </c>
       <c r="C511" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -8354,7 +8357,7 @@
         <v>514</v>
       </c>
       <c r="C512" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -8365,7 +8368,7 @@
         <v>515</v>
       </c>
       <c r="C513" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -8376,7 +8379,7 @@
         <v>516</v>
       </c>
       <c r="C514" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -8387,7 +8390,7 @@
         <v>517</v>
       </c>
       <c r="C515" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -8398,7 +8401,7 @@
         <v>518</v>
       </c>
       <c r="C516" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -8409,7 +8412,7 @@
         <v>519</v>
       </c>
       <c r="C517" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -8420,7 +8423,7 @@
         <v>520</v>
       </c>
       <c r="C518" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -8431,7 +8434,7 @@
         <v>521</v>
       </c>
       <c r="C519" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -8442,7 +8445,7 @@
         <v>522</v>
       </c>
       <c r="C520" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -8453,7 +8456,7 @@
         <v>523</v>
       </c>
       <c r="C521" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -8464,7 +8467,7 @@
         <v>524</v>
       </c>
       <c r="C522" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -8475,7 +8478,7 @@
         <v>525</v>
       </c>
       <c r="C523" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -8486,7 +8489,7 @@
         <v>526</v>
       </c>
       <c r="C524" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -8497,7 +8500,7 @@
         <v>527</v>
       </c>
       <c r="C525" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -8508,7 +8511,7 @@
         <v>528</v>
       </c>
       <c r="C526" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -8519,7 +8522,7 @@
         <v>529</v>
       </c>
       <c r="C527" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -8530,7 +8533,7 @@
         <v>530</v>
       </c>
       <c r="C528" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -8541,7 +8544,7 @@
         <v>531</v>
       </c>
       <c r="C529" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -8552,7 +8555,7 @@
         <v>532</v>
       </c>
       <c r="C530" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -8563,7 +8566,7 @@
         <v>533</v>
       </c>
       <c r="C531" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -8574,7 +8577,7 @@
         <v>534</v>
       </c>
       <c r="C532" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -8585,7 +8588,7 @@
         <v>535</v>
       </c>
       <c r="C533" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -8596,7 +8599,7 @@
         <v>536</v>
       </c>
       <c r="C534" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -8607,7 +8610,7 @@
         <v>537</v>
       </c>
       <c r="C535" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -8618,7 +8621,7 @@
         <v>538</v>
       </c>
       <c r="C536" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -8629,7 +8632,7 @@
         <v>539</v>
       </c>
       <c r="C537" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -8640,7 +8643,7 @@
         <v>540</v>
       </c>
       <c r="C538" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -8651,7 +8654,7 @@
         <v>541</v>
       </c>
       <c r="C539" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -8662,7 +8665,7 @@
         <v>542</v>
       </c>
       <c r="C540" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -8673,7 +8676,7 @@
         <v>543</v>
       </c>
       <c r="C541" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -8684,7 +8687,7 @@
         <v>544</v>
       </c>
       <c r="C542" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -8695,7 +8698,7 @@
         <v>545</v>
       </c>
       <c r="C543" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -8706,7 +8709,7 @@
         <v>546</v>
       </c>
       <c r="C544" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -8717,7 +8720,7 @@
         <v>547</v>
       </c>
       <c r="C545" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
@@ -8728,7 +8731,7 @@
         <v>548</v>
       </c>
       <c r="C546" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -8739,7 +8742,7 @@
         <v>549</v>
       </c>
       <c r="C547" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -8750,7 +8753,7 @@
         <v>550</v>
       </c>
       <c r="C548" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
@@ -8761,7 +8764,7 @@
         <v>551</v>
       </c>
       <c r="C549" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -8772,7 +8775,7 @@
         <v>552</v>
       </c>
       <c r="C550" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -8783,7 +8786,7 @@
         <v>553</v>
       </c>
       <c r="C551" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -8794,7 +8797,7 @@
         <v>554</v>
       </c>
       <c r="C552" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
@@ -8805,7 +8808,7 @@
         <v>555</v>
       </c>
       <c r="C553" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
@@ -8816,7 +8819,7 @@
         <v>556</v>
       </c>
       <c r="C554" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -8827,7 +8830,7 @@
         <v>557</v>
       </c>
       <c r="C555" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -8838,7 +8841,7 @@
         <v>558</v>
       </c>
       <c r="C556" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -8849,7 +8852,7 @@
         <v>559</v>
       </c>
       <c r="C557" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -8860,7 +8863,7 @@
         <v>560</v>
       </c>
       <c r="C558" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -8871,7 +8874,7 @@
         <v>561</v>
       </c>
       <c r="C559" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -8882,7 +8885,7 @@
         <v>562</v>
       </c>
       <c r="C560" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -8893,7 +8896,7 @@
         <v>563</v>
       </c>
       <c r="C561" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
@@ -8904,7 +8907,7 @@
         <v>564</v>
       </c>
       <c r="C562" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -8915,7 +8918,7 @@
         <v>565</v>
       </c>
       <c r="C563" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -8926,7 +8929,7 @@
         <v>566</v>
       </c>
       <c r="C564" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -8937,7 +8940,7 @@
         <v>567</v>
       </c>
       <c r="C565" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -8948,7 +8951,7 @@
         <v>568</v>
       </c>
       <c r="C566" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
@@ -8959,7 +8962,7 @@
         <v>569</v>
       </c>
       <c r="C567" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
@@ -8970,7 +8973,7 @@
         <v>570</v>
       </c>
       <c r="C568" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
@@ -8981,7 +8984,7 @@
         <v>571</v>
       </c>
       <c r="C569" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
@@ -8992,7 +8995,7 @@
         <v>572</v>
       </c>
       <c r="C570" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -9003,7 +9006,7 @@
         <v>573</v>
       </c>
       <c r="C571" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
@@ -9014,7 +9017,7 @@
         <v>574</v>
       </c>
       <c r="C572" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
@@ -9025,7 +9028,7 @@
         <v>575</v>
       </c>
       <c r="C573" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -9036,7 +9039,7 @@
         <v>576</v>
       </c>
       <c r="C574" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
@@ -9047,7 +9050,7 @@
         <v>577</v>
       </c>
       <c r="C575" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -9058,7 +9061,7 @@
         <v>578</v>
       </c>
       <c r="C576" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -9069,7 +9072,7 @@
         <v>579</v>
       </c>
       <c r="C577" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -9080,7 +9083,7 @@
         <v>580</v>
       </c>
       <c r="C578" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -9091,7 +9094,7 @@
         <v>581</v>
       </c>
       <c r="C579" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -9102,7 +9105,7 @@
         <v>582</v>
       </c>
       <c r="C580" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -9113,7 +9116,7 @@
         <v>583</v>
       </c>
       <c r="C581" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -9124,7 +9127,7 @@
         <v>584</v>
       </c>
       <c r="C582" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -9135,7 +9138,7 @@
         <v>585</v>
       </c>
       <c r="C583" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -9146,7 +9149,7 @@
         <v>586</v>
       </c>
       <c r="C584" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -9157,7 +9160,7 @@
         <v>587</v>
       </c>
       <c r="C585" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -9168,7 +9171,7 @@
         <v>588</v>
       </c>
       <c r="C586" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
@@ -9179,7 +9182,7 @@
         <v>589</v>
       </c>
       <c r="C587" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -9190,7 +9193,7 @@
         <v>590</v>
       </c>
       <c r="C588" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -9201,7 +9204,7 @@
         <v>591</v>
       </c>
       <c r="C589" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -9212,7 +9215,7 @@
         <v>592</v>
       </c>
       <c r="C590" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
@@ -9223,7 +9226,7 @@
         <v>593</v>
       </c>
       <c r="C591" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -9234,7 +9237,7 @@
         <v>594</v>
       </c>
       <c r="C592" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -9245,7 +9248,7 @@
         <v>595</v>
       </c>
       <c r="C593" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -9256,7 +9259,7 @@
         <v>596</v>
       </c>
       <c r="C594" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -9267,7 +9270,7 @@
         <v>597</v>
       </c>
       <c r="C595" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -9278,7 +9281,7 @@
         <v>598</v>
       </c>
       <c r="C596" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -9289,7 +9292,7 @@
         <v>599</v>
       </c>
       <c r="C597" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -9300,7 +9303,7 @@
         <v>600</v>
       </c>
       <c r="C598" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -9311,7 +9314,7 @@
         <v>601</v>
       </c>
       <c r="C599" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -9322,7 +9325,7 @@
         <v>602</v>
       </c>
       <c r="C600" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -9333,7 +9336,7 @@
         <v>603</v>
       </c>
       <c r="C601" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -9344,7 +9347,7 @@
         <v>604</v>
       </c>
       <c r="C602" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -9355,7 +9358,7 @@
         <v>605</v>
       </c>
       <c r="C603" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -9366,7 +9369,7 @@
         <v>606</v>
       </c>
       <c r="C604" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -9377,7 +9380,7 @@
         <v>607</v>
       </c>
       <c r="C605" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -9388,7 +9391,7 @@
         <v>608</v>
       </c>
       <c r="C606" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -9399,7 +9402,7 @@
         <v>609</v>
       </c>
       <c r="C607" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -9410,7 +9413,7 @@
         <v>610</v>
       </c>
       <c r="C608" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -9421,7 +9424,7 @@
         <v>611</v>
       </c>
       <c r="C609" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -9432,7 +9435,7 @@
         <v>612</v>
       </c>
       <c r="C610" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -9443,7 +9446,7 @@
         <v>613</v>
       </c>
       <c r="C611" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -9454,7 +9457,7 @@
         <v>614</v>
       </c>
       <c r="C612" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -9465,7 +9468,7 @@
         <v>615</v>
       </c>
       <c r="C613" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -9476,7 +9479,7 @@
         <v>616</v>
       </c>
       <c r="C614" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -9487,7 +9490,7 @@
         <v>617</v>
       </c>
       <c r="C615" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -9498,7 +9501,7 @@
         <v>618</v>
       </c>
       <c r="C616" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -9509,7 +9512,7 @@
         <v>619</v>
       </c>
       <c r="C617" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -9520,7 +9523,7 @@
         <v>620</v>
       </c>
       <c r="C618" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -9531,7 +9534,7 @@
         <v>621</v>
       </c>
       <c r="C619" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -9542,7 +9545,7 @@
         <v>622</v>
       </c>
       <c r="C620" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -9553,7 +9556,7 @@
         <v>623</v>
       </c>
       <c r="C621" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -9564,7 +9567,7 @@
         <v>624</v>
       </c>
       <c r="C622" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -9575,7 +9578,7 @@
         <v>625</v>
       </c>
       <c r="C623" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -9586,7 +9589,7 @@
         <v>626</v>
       </c>
       <c r="C624" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -9597,7 +9600,7 @@
         <v>627</v>
       </c>
       <c r="C625" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -9608,7 +9611,7 @@
         <v>628</v>
       </c>
       <c r="C626" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -9619,7 +9622,7 @@
         <v>629</v>
       </c>
       <c r="C627" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -9630,7 +9633,7 @@
         <v>630</v>
       </c>
       <c r="C628" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -9641,7 +9644,7 @@
         <v>631</v>
       </c>
       <c r="C629" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -9652,7 +9655,7 @@
         <v>632</v>
       </c>
       <c r="C630" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -9663,7 +9666,7 @@
         <v>633</v>
       </c>
       <c r="C631" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -9674,7 +9677,7 @@
         <v>634</v>
       </c>
       <c r="C632" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -9685,7 +9688,7 @@
         <v>635</v>
       </c>
       <c r="C633" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -9696,7 +9699,7 @@
         <v>636</v>
       </c>
       <c r="C634" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -9707,7 +9710,7 @@
         <v>637</v>
       </c>
       <c r="C635" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -9718,7 +9721,7 @@
         <v>638</v>
       </c>
       <c r="C636" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -9729,7 +9732,7 @@
         <v>639</v>
       </c>
       <c r="C637" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -9740,7 +9743,7 @@
         <v>640</v>
       </c>
       <c r="C638" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -9751,7 +9754,7 @@
         <v>641</v>
       </c>
       <c r="C639" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -9762,7 +9765,7 @@
         <v>642</v>
       </c>
       <c r="C640" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -9773,7 +9776,7 @@
         <v>643</v>
       </c>
       <c r="C641" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -9784,7 +9787,7 @@
         <v>644</v>
       </c>
       <c r="C642" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -9795,7 +9798,7 @@
         <v>645</v>
       </c>
       <c r="C643" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -9806,7 +9809,7 @@
         <v>646</v>
       </c>
       <c r="C644" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -9817,7 +9820,7 @@
         <v>647</v>
       </c>
       <c r="C645" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -9828,7 +9831,7 @@
         <v>648</v>
       </c>
       <c r="C646" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -9839,7 +9842,7 @@
         <v>649</v>
       </c>
       <c r="C647" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -9850,7 +9853,7 @@
         <v>650</v>
       </c>
       <c r="C648" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -9861,7 +9864,7 @@
         <v>651</v>
       </c>
       <c r="C649" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -9872,7 +9875,7 @@
         <v>652</v>
       </c>
       <c r="C650" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -9883,7 +9886,7 @@
         <v>653</v>
       </c>
       <c r="C651" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -9894,7 +9897,7 @@
         <v>654</v>
       </c>
       <c r="C652" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -9905,7 +9908,7 @@
         <v>655</v>
       </c>
       <c r="C653" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -9916,7 +9919,7 @@
         <v>656</v>
       </c>
       <c r="C654" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -9927,7 +9930,7 @@
         <v>657</v>
       </c>
       <c r="C655" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
@@ -9938,7 +9941,7 @@
         <v>658</v>
       </c>
       <c r="C656" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -9949,7 +9952,7 @@
         <v>659</v>
       </c>
       <c r="C657" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -9960,7 +9963,7 @@
         <v>660</v>
       </c>
       <c r="C658" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -9971,7 +9974,7 @@
         <v>661</v>
       </c>
       <c r="C659" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -9982,7 +9985,7 @@
         <v>662</v>
       </c>
       <c r="C660" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -9993,7 +9996,7 @@
         <v>663</v>
       </c>
       <c r="C661" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -10004,7 +10007,7 @@
         <v>664</v>
       </c>
       <c r="C662" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -10015,7 +10018,7 @@
         <v>665</v>
       </c>
       <c r="C663" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -10026,7 +10029,7 @@
         <v>666</v>
       </c>
       <c r="C664" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -10037,7 +10040,7 @@
         <v>667</v>
       </c>
       <c r="C665" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -10048,7 +10051,7 @@
         <v>668</v>
       </c>
       <c r="C666" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -10059,7 +10062,7 @@
         <v>669</v>
       </c>
       <c r="C667" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -10070,7 +10073,7 @@
         <v>670</v>
       </c>
       <c r="C668" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -10081,7 +10084,7 @@
         <v>671</v>
       </c>
       <c r="C669" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -10092,7 +10095,7 @@
         <v>672</v>
       </c>
       <c r="C670" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -10103,7 +10106,7 @@
         <v>673</v>
       </c>
       <c r="C671" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -10114,7 +10117,7 @@
         <v>674</v>
       </c>
       <c r="C672" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -10125,7 +10128,7 @@
         <v>675</v>
       </c>
       <c r="C673" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -10136,7 +10139,7 @@
         <v>676</v>
       </c>
       <c r="C674" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -10147,7 +10150,7 @@
         <v>677</v>
       </c>
       <c r="C675" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -10158,7 +10161,7 @@
         <v>678</v>
       </c>
       <c r="C676" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -10169,7 +10172,7 @@
         <v>679</v>
       </c>
       <c r="C677" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -10180,7 +10183,7 @@
         <v>680</v>
       </c>
       <c r="C678" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -10191,7 +10194,7 @@
         <v>681</v>
       </c>
       <c r="C679" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -10202,7 +10205,7 @@
         <v>682</v>
       </c>
       <c r="C680" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -10213,7 +10216,7 @@
         <v>683</v>
       </c>
       <c r="C681" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -10224,7 +10227,7 @@
         <v>684</v>
       </c>
       <c r="C682" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -10235,7 +10238,7 @@
         <v>685</v>
       </c>
       <c r="C683" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -10246,7 +10249,7 @@
         <v>686</v>
       </c>
       <c r="C684" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -10257,7 +10260,7 @@
         <v>687</v>
       </c>
       <c r="C685" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -10268,7 +10271,7 @@
         <v>688</v>
       </c>
       <c r="C686" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -10279,7 +10282,7 @@
         <v>689</v>
       </c>
       <c r="C687" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -10290,7 +10293,7 @@
         <v>690</v>
       </c>
       <c r="C688" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -10301,7 +10304,7 @@
         <v>691</v>
       </c>
       <c r="C689" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -10312,7 +10315,7 @@
         <v>692</v>
       </c>
       <c r="C690" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -10323,7 +10326,7 @@
         <v>693</v>
       </c>
       <c r="C691" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
@@ -10334,7 +10337,7 @@
         <v>694</v>
       </c>
       <c r="C692" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -10345,7 +10348,7 @@
         <v>695</v>
       </c>
       <c r="C693" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -10356,7 +10359,7 @@
         <v>696</v>
       </c>
       <c r="C694" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -10367,7 +10370,7 @@
         <v>697</v>
       </c>
       <c r="C695" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -10378,7 +10381,7 @@
         <v>698</v>
       </c>
       <c r="C696" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
@@ -10389,7 +10392,7 @@
         <v>699</v>
       </c>
       <c r="C697" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -10400,7 +10403,7 @@
         <v>700</v>
       </c>
       <c r="C698" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
@@ -10411,7 +10414,7 @@
         <v>701</v>
       </c>
       <c r="C699" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
@@ -10422,7 +10425,7 @@
         <v>702</v>
       </c>
       <c r="C700" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
@@ -10433,7 +10436,7 @@
         <v>703</v>
       </c>
       <c r="C701" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
@@ -10444,7 +10447,7 @@
         <v>704</v>
       </c>
       <c r="C702" t="s">
-        <v>705</v>
+        <v>324</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
@@ -10452,10 +10455,10 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
+        <v>705</v>
+      </c>
+      <c r="C703" t="s">
         <v>706</v>
-      </c>
-      <c r="C703" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
@@ -10466,7 +10469,7 @@
         <v>707</v>
       </c>
       <c r="C704" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
@@ -10477,7 +10480,7 @@
         <v>708</v>
       </c>
       <c r="C705" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
@@ -10488,7 +10491,7 @@
         <v>709</v>
       </c>
       <c r="C706" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
@@ -10499,7 +10502,7 @@
         <v>710</v>
       </c>
       <c r="C707" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
@@ -10510,7 +10513,7 @@
         <v>711</v>
       </c>
       <c r="C708" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
@@ -10521,7 +10524,7 @@
         <v>712</v>
       </c>
       <c r="C709" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
@@ -10532,7 +10535,7 @@
         <v>713</v>
       </c>
       <c r="C710" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
@@ -10543,7 +10546,7 @@
         <v>714</v>
       </c>
       <c r="C711" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
@@ -10554,7 +10557,7 @@
         <v>715</v>
       </c>
       <c r="C712" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
@@ -10565,7 +10568,7 @@
         <v>716</v>
       </c>
       <c r="C713" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
@@ -10576,7 +10579,7 @@
         <v>717</v>
       </c>
       <c r="C714" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
@@ -10587,7 +10590,7 @@
         <v>718</v>
       </c>
       <c r="C715" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
@@ -10598,7 +10601,7 @@
         <v>719</v>
       </c>
       <c r="C716" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
@@ -10609,7 +10612,7 @@
         <v>720</v>
       </c>
       <c r="C717" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
@@ -10620,7 +10623,7 @@
         <v>721</v>
       </c>
       <c r="C718" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -10631,7 +10634,7 @@
         <v>722</v>
       </c>
       <c r="C719" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
@@ -10642,7 +10645,7 @@
         <v>723</v>
       </c>
       <c r="C720" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
@@ -10653,7 +10656,7 @@
         <v>724</v>
       </c>
       <c r="C721" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
@@ -10664,7 +10667,7 @@
         <v>725</v>
       </c>
       <c r="C722" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
@@ -10675,7 +10678,7 @@
         <v>726</v>
       </c>
       <c r="C723" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
@@ -10686,7 +10689,7 @@
         <v>727</v>
       </c>
       <c r="C724" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
@@ -10697,7 +10700,7 @@
         <v>728</v>
       </c>
       <c r="C725" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
@@ -10708,7 +10711,7 @@
         <v>729</v>
       </c>
       <c r="C726" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
@@ -10719,7 +10722,7 @@
         <v>730</v>
       </c>
       <c r="C727" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
@@ -10730,7 +10733,7 @@
         <v>731</v>
       </c>
       <c r="C728" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
@@ -10741,7 +10744,7 @@
         <v>732</v>
       </c>
       <c r="C729" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
@@ -10752,7 +10755,7 @@
         <v>733</v>
       </c>
       <c r="C730" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
@@ -10763,7 +10766,7 @@
         <v>734</v>
       </c>
       <c r="C731" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
@@ -10774,7 +10777,7 @@
         <v>735</v>
       </c>
       <c r="C732" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
@@ -10785,7 +10788,7 @@
         <v>736</v>
       </c>
       <c r="C733" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
@@ -10796,7 +10799,7 @@
         <v>737</v>
       </c>
       <c r="C734" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
@@ -10807,7 +10810,7 @@
         <v>738</v>
       </c>
       <c r="C735" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
@@ -10818,7 +10821,7 @@
         <v>739</v>
       </c>
       <c r="C736" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
@@ -10829,7 +10832,7 @@
         <v>740</v>
       </c>
       <c r="C737" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
@@ -10840,7 +10843,7 @@
         <v>741</v>
       </c>
       <c r="C738" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
@@ -10851,7 +10854,7 @@
         <v>742</v>
       </c>
       <c r="C739" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
@@ -10862,7 +10865,7 @@
         <v>743</v>
       </c>
       <c r="C740" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
@@ -10873,7 +10876,7 @@
         <v>744</v>
       </c>
       <c r="C741" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
@@ -10884,7 +10887,7 @@
         <v>745</v>
       </c>
       <c r="C742" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -10895,7 +10898,7 @@
         <v>746</v>
       </c>
       <c r="C743" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
@@ -10906,7 +10909,7 @@
         <v>747</v>
       </c>
       <c r="C744" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
@@ -10917,7 +10920,7 @@
         <v>748</v>
       </c>
       <c r="C745" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
@@ -10928,7 +10931,7 @@
         <v>749</v>
       </c>
       <c r="C746" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
@@ -10939,7 +10942,7 @@
         <v>750</v>
       </c>
       <c r="C747" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
@@ -10950,7 +10953,7 @@
         <v>751</v>
       </c>
       <c r="C748" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
@@ -10961,7 +10964,7 @@
         <v>752</v>
       </c>
       <c r="C749" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
@@ -10972,7 +10975,7 @@
         <v>753</v>
       </c>
       <c r="C750" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
@@ -10983,7 +10986,7 @@
         <v>754</v>
       </c>
       <c r="C751" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
@@ -10994,7 +10997,7 @@
         <v>755</v>
       </c>
       <c r="C752" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
@@ -11005,7 +11008,7 @@
         <v>756</v>
       </c>
       <c r="C753" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
@@ -11016,7 +11019,7 @@
         <v>757</v>
       </c>
       <c r="C754" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
@@ -11027,7 +11030,7 @@
         <v>758</v>
       </c>
       <c r="C755" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
@@ -11038,7 +11041,7 @@
         <v>759</v>
       </c>
       <c r="C756" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
@@ -11049,7 +11052,7 @@
         <v>760</v>
       </c>
       <c r="C757" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
@@ -11060,7 +11063,7 @@
         <v>761</v>
       </c>
       <c r="C758" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
@@ -11071,7 +11074,7 @@
         <v>762</v>
       </c>
       <c r="C759" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
@@ -11082,7 +11085,7 @@
         <v>763</v>
       </c>
       <c r="C760" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
@@ -11093,7 +11096,7 @@
         <v>764</v>
       </c>
       <c r="C761" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
@@ -11104,7 +11107,7 @@
         <v>765</v>
       </c>
       <c r="C762" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
@@ -11115,7 +11118,7 @@
         <v>766</v>
       </c>
       <c r="C763" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
@@ -11126,7 +11129,7 @@
         <v>767</v>
       </c>
       <c r="C764" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
@@ -11137,7 +11140,7 @@
         <v>768</v>
       </c>
       <c r="C765" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
@@ -11148,7 +11151,7 @@
         <v>769</v>
       </c>
       <c r="C766" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
@@ -11159,7 +11162,7 @@
         <v>770</v>
       </c>
       <c r="C767" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
@@ -11170,7 +11173,7 @@
         <v>771</v>
       </c>
       <c r="C768" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
@@ -11181,7 +11184,7 @@
         <v>772</v>
       </c>
       <c r="C769" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
@@ -11192,7 +11195,7 @@
         <v>773</v>
       </c>
       <c r="C770" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
@@ -11203,7 +11206,7 @@
         <v>774</v>
       </c>
       <c r="C771" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
@@ -11214,7 +11217,7 @@
         <v>775</v>
       </c>
       <c r="C772" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
@@ -11225,7 +11228,7 @@
         <v>776</v>
       </c>
       <c r="C773" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
@@ -11236,7 +11239,7 @@
         <v>777</v>
       </c>
       <c r="C774" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
@@ -11247,7 +11250,7 @@
         <v>778</v>
       </c>
       <c r="C775" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
@@ -11258,7 +11261,7 @@
         <v>779</v>
       </c>
       <c r="C776" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
@@ -11269,7 +11272,7 @@
         <v>780</v>
       </c>
       <c r="C777" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
@@ -11280,7 +11283,7 @@
         <v>781</v>
       </c>
       <c r="C778" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
@@ -11291,7 +11294,7 @@
         <v>782</v>
       </c>
       <c r="C779" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
@@ -11302,7 +11305,7 @@
         <v>783</v>
       </c>
       <c r="C780" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
@@ -11313,7 +11316,7 @@
         <v>784</v>
       </c>
       <c r="C781" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
@@ -11324,7 +11327,7 @@
         <v>785</v>
       </c>
       <c r="C782" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
@@ -11335,7 +11338,7 @@
         <v>786</v>
       </c>
       <c r="C783" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
@@ -11346,7 +11349,18 @@
         <v>787</v>
       </c>
       <c r="C784" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>784</v>
+      </c>
+      <c r="B785" t="s">
+        <v>788</v>
+      </c>
+      <c r="C785" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
